--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,7 +22,7 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__anonymous_app_open_pre_signup_12dec</t>
+    <t>silver.mixpanel_android__anonymous_app_open_pre_signup_11dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/mixpanel_android/anonymous_app_open_pre_signup</t>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,7 +22,7 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__anonymous_app_open_pre_signup_11dec</t>
+    <t>silver.mixpanel_android__anonymous_app_open_pre_signup_11testdec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/mixpanel_android/anonymous_app_open_pre_signup</t>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,10 +22,10 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__anonymous_app_open_pre_signup_11testdec</t>
+    <t>silver.supplier_orders__shipment_12dec</t>
   </si>
   <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_app_open_pre_signup</t>
+    <t>delta_lake/SILVER/supplier_orders/shipment</t>
   </si>
   <si>
     <t/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="91">
   <si>
     <t>job_name</t>
   </si>
@@ -22,10 +22,268 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.supplier_orders__shipment_12dec</t>
+    <t>silver.supply__addresses_12dec</t>
   </si>
   <si>
-    <t>delta_lake/SILVER/supplier_orders/shipment</t>
+    <t>delta_lake/SILVER/supply/addresses</t>
+  </si>
+  <si>
+    <t>silver.msg_feed__catalogs_served_report_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_feed/catalogs_served_report</t>
+  </si>
+  <si>
+    <t>silver.supply__catalogs_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/catalogs_repartition</t>
+  </si>
+  <si>
+    <t>silver.supply__orders_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/orders_schema_change</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__pdp_time_spend_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/pdp_time_spend</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_notification_requests_proto_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_requests_proto</t>
+  </si>
+  <si>
+    <t>silver.supplier_orders__sub_order_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_orders/sub_order</t>
+  </si>
+  <si>
+    <t>silver.supply__users_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/users</t>
+  </si>
+  <si>
+    <t>silver.supplier_payment__supplier_payment_order_detail_payments_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_payment/supplier_payment_order_detail_payments_schema_change_schema_change</t>
+  </si>
+  <si>
+    <t>silver.tracking__tracking_user_app_tracking_3_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/tracking/tracking_user_app_tracking_3</t>
+  </si>
+  <si>
+    <t>silver.supply__order_details_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/order_details_schema_change</t>
+  </si>
+  <si>
+    <t>silver.inventory__product_supplier_variation_map_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inventory/product_supplier_variation_map_new</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__catalog_collage_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/catalog_collage</t>
+  </si>
+  <si>
+    <t>silver.inventory__supplier_catalog_management_details_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inventory/supplier_catalog_management_details</t>
+  </si>
+  <si>
+    <t>silver.ums__user_profile_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ums/user_profile</t>
+  </si>
+  <si>
+    <t>silver.ums__user_attributes_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ums/user_attributes</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__screen_visited_test_dbc_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/screen_visited_test</t>
+  </si>
+  <si>
+    <t>silver.review__reviews_record_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/review/reviews_record_repartition</t>
+  </si>
+  <si>
+    <t>silver.supply__product_supplier_map_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/product_supplier_map_2021_04_21</t>
+  </si>
+  <si>
+    <t>silver.price__product_supplier_price_map_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/product_supplier_price_map_new</t>
+  </si>
+  <si>
+    <t>silver.supply__shipment_details_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/shipment_details_schema_change</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__taxonomy_attribute_store_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/taxonomy_attribute_store_repartition</t>
+  </si>
+  <si>
+    <t>silver.supply__products_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/products_repartition</t>
+  </si>
+  <si>
+    <t>silver.bulk_catalog__user_catalog_share_map_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/bulk_catalog/user_catalog_share_map_08_23</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__video_review_progress_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/video_review_progress</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__widget_views_report_clone_test_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/widget_views_report_2021_04_20_clone_test</t>
+  </si>
+  <si>
+    <t>silver.supply__order_timeline_3_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/order_timeline_3</t>
+  </si>
+  <si>
+    <t>silver.ml_platform__catalog_tracking_sse_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ml_platform/catalog_tracking_sse</t>
+  </si>
+  <si>
+    <t>silver.supply__supplier_order_details_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/supplier_order_details_schema_change</t>
+  </si>
+  <si>
+    <t>silver.invoice__reseller_to_customer_invoices_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/invoice/reseller_to_customer_invoices_2021_04_16</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_pdp_time_spend_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_pdp_time_spend</t>
+  </si>
+  <si>
+    <t>silver.invoice__supplier_to_reseller_invoices_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/invoice/supplier_to_reseller_invoices_2021_04_16</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_notification_records_proto_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_records_proto</t>
+  </si>
+  <si>
+    <t>silver.msg_ctqct__ctqct_v2_for_you_catalogs_served_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ctqct/ctqct_v2_for_you_catalogs_served_repartition</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__taxonomy_product_supplier_map_attributes_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/taxonomy_product_supplier_map_attributes</t>
+  </si>
+  <si>
+    <t>silver.supply__order_detail_requests_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/order_detail_requests_schema_change</t>
+  </si>
+  <si>
+    <t>silver.msg_ds_image_insights__ds_demand_prediction_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ds_image_insights/ds_demand_prediction</t>
+  </si>
+  <si>
+    <t>silver.msg_search__search_query_catalog_mapping_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_search/search_query_catalog_mapping</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__review_video_play_pause_clicked_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/review_video_play_pause_clicked</t>
+  </si>
+  <si>
+    <t>silver.supply__orders_logs_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/orders_logs_schema_change</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__daily_disk_space_analysis_temp_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/daily_disk_space_analysis_temp</t>
+  </si>
+  <si>
+    <t>silver.supply_orchestrator__listing_optimiser_product_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_orchestrator/listing_optimiser_product</t>
+  </si>
+  <si>
+    <t>silver.supply__order_details_attributes_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/order_details_attributes_schema_change</t>
+  </si>
+  <si>
+    <t>silver.msg_search__search_sessions_12dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_search/search_sessions</t>
   </si>
   <si>
     <t/>
@@ -517,11 +775,11 @@
       <c r="Z2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -549,11 +807,11 @@
       <c r="Z3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -581,11 +839,11 @@
       <c r="Z4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -613,11 +871,11 @@
       <c r="Z5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -645,11 +903,11 @@
       <c r="Z6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -677,11 +935,11 @@
       <c r="Z7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -709,11 +967,11 @@
       <c r="Z8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -741,11 +999,11 @@
       <c r="Z9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -773,11 +1031,11 @@
       <c r="Z10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -805,11 +1063,11 @@
       <c r="Z11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -837,11 +1095,11 @@
       <c r="Z12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -869,11 +1127,11 @@
       <c r="Z13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>4</v>
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -901,11 +1159,11 @@
       <c r="Z14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -933,11 +1191,11 @@
       <c r="Z15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -965,11 +1223,11 @@
       <c r="Z16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>4</v>
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -997,11 +1255,11 @@
       <c r="Z17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>4</v>
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1029,11 +1287,11 @@
       <c r="Z18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1061,11 +1319,11 @@
       <c r="Z19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1093,11 +1351,11 @@
       <c r="Z20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>4</v>
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1125,11 +1383,11 @@
       <c r="Z21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>4</v>
+      <c r="A22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1157,11 +1415,11 @@
       <c r="Z22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>4</v>
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1189,11 +1447,11 @@
       <c r="Z23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>4</v>
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1221,11 +1479,11 @@
       <c r="Z24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>4</v>
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1253,11 +1511,11 @@
       <c r="Z25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>4</v>
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1285,11 +1543,11 @@
       <c r="Z26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>4</v>
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1317,11 +1575,11 @@
       <c r="Z27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>4</v>
+      <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1349,11 +1607,11 @@
       <c r="Z28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>4</v>
+      <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1381,11 +1639,11 @@
       <c r="Z29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>4</v>
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1413,11 +1671,11 @@
       <c r="Z30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>4</v>
+      <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1445,11 +1703,11 @@
       <c r="Z31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>4</v>
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1477,11 +1735,11 @@
       <c r="Z32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>4</v>
+      <c r="A33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1509,11 +1767,11 @@
       <c r="Z33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>4</v>
+      <c r="A34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1541,11 +1799,11 @@
       <c r="Z34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>4</v>
+      <c r="A35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1573,11 +1831,11 @@
       <c r="Z35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>4</v>
+      <c r="A36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1605,11 +1863,11 @@
       <c r="Z36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
+      <c r="A37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1637,11 +1895,11 @@
       <c r="Z37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>4</v>
+      <c r="A38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1669,11 +1927,11 @@
       <c r="Z38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>4</v>
+      <c r="A39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1701,11 +1959,11 @@
       <c r="Z39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>4</v>
+      <c r="A40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1733,11 +1991,11 @@
       <c r="Z40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>4</v>
+      <c r="A41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1765,11 +2023,11 @@
       <c r="Z41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>4</v>
+      <c r="A42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1797,11 +2055,11 @@
       <c r="Z42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>4</v>
+      <c r="A43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1829,11 +2087,11 @@
       <c r="Z43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>4</v>
+      <c r="A44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1861,11 +2119,11 @@
       <c r="Z44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>4</v>
+      <c r="A45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1894,10 +2152,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A46" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1926,10 +2184,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A47" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1958,10 +2216,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A48" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1990,10 +2248,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A49" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2022,10 +2280,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A50" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2054,10 +2312,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A51" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2086,10 +2344,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A52" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2118,10 +2376,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A53" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2150,10 +2408,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A54" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2182,10 +2440,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A55" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2214,10 +2472,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A56" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2246,10 +2504,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A57" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2278,10 +2536,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A58" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2310,10 +2568,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A59" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2342,10 +2600,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A60" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2374,10 +2632,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A61" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2406,10 +2664,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A62" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2438,10 +2696,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A63" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2470,10 +2728,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A64" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2502,10 +2760,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A65" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2534,10 +2792,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A66" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2566,10 +2824,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A67" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2598,10 +2856,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A68" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2630,10 +2888,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A69" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2662,10 +2920,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A70" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2694,10 +2952,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A71" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2726,10 +2984,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A72" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2758,10 +3016,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A73" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -2790,10 +3048,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A74" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2822,10 +3080,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A75" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2854,10 +3112,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A76" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2886,10 +3144,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A77" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -2918,10 +3176,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A78" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -2950,10 +3208,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A79" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -2982,10 +3240,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A80" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3014,10 +3272,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A81" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3046,10 +3304,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A82" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3078,10 +3336,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A83" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3110,10 +3368,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A84" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3142,10 +3400,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A85" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3174,10 +3432,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A86" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -3206,10 +3464,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A87" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3238,10 +3496,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A88" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -3270,10 +3528,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A89" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3302,10 +3560,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A90" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3334,10 +3592,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A91" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3366,10 +3624,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A92" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3398,10 +3656,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A93" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3430,10 +3688,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A94" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3462,10 +3720,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A95" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3494,10 +3752,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A96" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3526,10 +3784,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A97" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3558,10 +3816,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A98" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3590,10 +3848,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A99" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3622,10 +3880,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A100" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3654,10 +3912,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A101" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3686,10 +3944,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A102" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3718,10 +3976,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A103" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3750,10 +4008,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A104" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -3782,10 +4040,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A105" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -3814,10 +4072,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A106" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3846,10 +4104,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A107" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -3878,10 +4136,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A108" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -3910,10 +4168,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A109" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3942,10 +4200,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A110" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3974,10 +4232,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A111" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -4006,10 +4264,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A112" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4038,10 +4296,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A113" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4070,10 +4328,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A114" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4102,10 +4360,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A115" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4134,10 +4392,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A116" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4166,10 +4424,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A117" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -4198,10 +4456,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A118" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -4230,10 +4488,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A119" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -4262,10 +4520,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A120" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -4294,10 +4552,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A121" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4326,10 +4584,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A122" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -4358,10 +4616,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A123" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -4390,10 +4648,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A124" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4422,10 +4680,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A125" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -4454,10 +4712,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A126" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -4486,10 +4744,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A127" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4518,10 +4776,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A128" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -4550,10 +4808,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A129" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -4582,10 +4840,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A130" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -4614,10 +4872,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A131" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -4646,10 +4904,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A132" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -4678,10 +4936,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A133" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -4710,10 +4968,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A134" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -4742,10 +5000,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A135" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -4774,10 +5032,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A136" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -4806,10 +5064,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A137" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -4838,10 +5096,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A138" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -4870,10 +5128,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A139" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -4902,10 +5160,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A140" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -4934,10 +5192,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A141" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -4966,10 +5224,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A142" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -4998,10 +5256,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A143" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -5030,10 +5288,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A144" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -5062,10 +5320,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A145" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -5094,10 +5352,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A146" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -5126,10 +5384,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A147" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -5158,10 +5416,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A148" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -5190,10 +5448,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A149" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -5222,10 +5480,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A150" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -5254,10 +5512,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A151" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -5286,10 +5544,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A152" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -5318,10 +5576,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A153" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -5350,10 +5608,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A154" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -5382,10 +5640,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A155" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -5414,10 +5672,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A156" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -5446,10 +5704,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A157" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -5478,10 +5736,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A158" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -5510,10 +5768,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A159" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -5542,10 +5800,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A160" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -5574,10 +5832,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A161" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -5606,10 +5864,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A162" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -5638,10 +5896,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A163" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -5670,10 +5928,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A164" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -5702,10 +5960,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A165" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -5734,10 +5992,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A166" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -5766,10 +6024,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A167" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -5798,10 +6056,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A168" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -5830,10 +6088,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A169" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -5862,10 +6120,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A170" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -5894,10 +6152,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A171" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -5926,10 +6184,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A172" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -5958,10 +6216,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A173" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -5990,10 +6248,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A174" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -6022,10 +6280,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A175" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -6054,10 +6312,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A176" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -6086,10 +6344,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A177" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -6118,10 +6376,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A178" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -6150,10 +6408,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A179" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -6182,10 +6440,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A180" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -6214,10 +6472,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A181" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -6246,10 +6504,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A182" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -6278,10 +6536,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A183" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -6310,10 +6568,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A184" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -6342,10 +6600,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A185" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -6374,10 +6632,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A186" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -6406,10 +6664,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A187" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -6438,10 +6696,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A188" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -6470,10 +6728,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A189" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -6502,10 +6760,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A190" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -6534,10 +6792,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A191" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -6566,10 +6824,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A192" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -6598,10 +6856,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A193" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -6630,10 +6888,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A194" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -6662,10 +6920,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A195" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -6694,10 +6952,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A196" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -6726,10 +6984,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A197" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -6758,10 +7016,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A198" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -6790,10 +7048,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A199" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -6822,10 +7080,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A200" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -6854,10 +7112,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A201" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -6886,10 +7144,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A202" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -6918,10 +7176,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A203" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -6950,10 +7208,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A204" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -6982,10 +7240,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A205" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -7014,10 +7272,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A206" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -7046,10 +7304,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A207" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -7078,10 +7336,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A208" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -7110,10 +7368,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A209" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -7142,10 +7400,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A210" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -7174,10 +7432,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A211" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -7206,10 +7464,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A212" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -7238,10 +7496,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A213" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -7270,10 +7528,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A214" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -7302,10 +7560,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A215" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -7334,10 +7592,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A216" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -7366,10 +7624,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A217" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -7398,10 +7656,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A218" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -7430,10 +7688,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A219" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -7462,10 +7720,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A220" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -7494,10 +7752,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A221" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -7526,10 +7784,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A222" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -7558,10 +7816,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A223" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -7590,10 +7848,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A224" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -7622,10 +7880,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A225" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -7654,10 +7912,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A226" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -7686,10 +7944,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A227" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -7718,10 +7976,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A228" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -7750,10 +8008,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A229" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -7782,10 +8040,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A230" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -7814,10 +8072,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A231" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -7846,10 +8104,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A232" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -7878,10 +8136,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A233" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -7910,10 +8168,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A234" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -7942,10 +8200,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A235" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -7974,10 +8232,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A236" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -8006,10 +8264,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A237" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -8038,10 +8296,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A238" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -8070,10 +8328,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A239" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -8102,10 +8360,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A240" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -8134,10 +8392,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A241" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -8166,10 +8424,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A242" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -8198,10 +8456,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A243" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -8230,10 +8488,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A244" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -8262,10 +8520,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A245" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -8294,10 +8552,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A246" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -8326,10 +8584,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A247" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -8358,10 +8616,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A248" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -8390,10 +8648,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A249" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -8422,10 +8680,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A250" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -8454,10 +8712,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A251" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -8486,10 +8744,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A252" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -8518,10 +8776,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A253" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -8550,10 +8808,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A254" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -8582,10 +8840,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A255" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -8614,10 +8872,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A256" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -8646,10 +8904,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A257" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -8678,10 +8936,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A258" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -8710,10 +8968,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A259" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -8742,10 +9000,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A260" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -8774,10 +9032,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A261" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -8806,10 +9064,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A262" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -8838,10 +9096,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A263" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -8870,10 +9128,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A264" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -8902,10 +9160,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A265" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -8934,10 +9192,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A266" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -8966,10 +9224,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A267" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -8998,10 +9256,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A268" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -9030,10 +9288,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A269" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -9062,10 +9320,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A270" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -9094,10 +9352,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A271" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -9126,10 +9384,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A272" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -9158,10 +9416,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A273" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -9190,10 +9448,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A274" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -9222,10 +9480,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A275" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -9254,10 +9512,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A276" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -9286,10 +9544,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A277" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -9318,10 +9576,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A278" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -9350,10 +9608,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A279" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -9382,10 +9640,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A280" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -9414,10 +9672,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A281" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -9446,10 +9704,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A282" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -9478,10 +9736,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A283" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -9510,10 +9768,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A284" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -9542,10 +9800,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A285" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -9574,10 +9832,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A286" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -9606,10 +9864,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A287" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -9638,10 +9896,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A288" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -9670,10 +9928,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A289" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -9702,10 +9960,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A290" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -9734,10 +9992,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A291" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -9766,10 +10024,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A292" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -9798,10 +10056,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A293" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -9830,10 +10088,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A294" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -9862,10 +10120,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A295" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -9894,10 +10152,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A296" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -9926,10 +10184,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A297" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -9958,10 +10216,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A298" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -9990,10 +10248,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A299" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -10022,10 +10280,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A300" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -10054,10 +10312,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A301" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -10086,10 +10344,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A302" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -10118,10 +10376,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A303" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -10150,10 +10408,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A304" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -10182,10 +10440,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A305" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -10214,10 +10472,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A306" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -10246,10 +10504,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A307" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -10278,10 +10536,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A308" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -10310,10 +10568,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A309" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -10342,10 +10600,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A310" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -10374,10 +10632,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A311" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -10406,10 +10664,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A312" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -10438,10 +10696,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A313" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -10470,10 +10728,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A314" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -10502,10 +10760,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A315" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -10534,10 +10792,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A316" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -10566,10 +10824,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A317" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -10598,10 +10856,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A318" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -10630,10 +10888,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A319" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -10662,10 +10920,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A320" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -10694,10 +10952,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A321" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -10726,10 +10984,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A322" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -10758,10 +11016,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A323" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -10790,10 +11048,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A324" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -10822,10 +11080,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A325" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -10854,10 +11112,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A326" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -10886,10 +11144,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A327" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -10918,10 +11176,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A328" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -10950,10 +11208,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A329" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -10982,10 +11240,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A330" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -11014,10 +11272,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A331" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -11046,10 +11304,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A332" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -11078,10 +11336,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A333" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -11110,10 +11368,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A334" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -11142,10 +11400,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A335" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -11174,10 +11432,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A336" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -11206,10 +11464,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A337" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -11238,10 +11496,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A338" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -11270,10 +11528,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A339" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -11302,10 +11560,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A340" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -11334,10 +11592,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A341" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -11366,10 +11624,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A342" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -11398,10 +11656,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A343" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -11430,10 +11688,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A344" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -11462,10 +11720,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A345" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -11494,10 +11752,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A346" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -11526,10 +11784,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A347" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -11558,10 +11816,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A348" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -11590,10 +11848,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A349" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -11622,10 +11880,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A350" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -11654,10 +11912,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A351" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -11686,10 +11944,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A352" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -11718,10 +11976,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A353" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -11750,10 +12008,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A354" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -11782,10 +12040,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A355" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -11814,10 +12072,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A356" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -11846,10 +12104,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A357" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -11878,10 +12136,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A358" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
@@ -11910,10 +12168,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A359" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -11942,10 +12200,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A360" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
@@ -11974,10 +12232,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A361" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
@@ -12006,10 +12264,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A362" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -12038,10 +12296,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A363" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -12070,10 +12328,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A364" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -12102,10 +12360,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A365" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -12134,10 +12392,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A366" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
@@ -12166,10 +12424,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A367" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
@@ -12198,10 +12456,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A368" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -12230,10 +12488,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A369" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
@@ -12262,10 +12520,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A370" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
@@ -12294,10 +12552,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A371" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
@@ -12326,10 +12584,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A372" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
@@ -12358,10 +12616,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A373" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -12390,10 +12648,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A374" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
@@ -12422,10 +12680,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A375" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -12454,10 +12712,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A376" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
@@ -12486,10 +12744,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A377" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -12518,10 +12776,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A378" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
@@ -12550,10 +12808,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A379" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
@@ -12582,10 +12840,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A380" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
@@ -12614,10 +12872,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A381" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -12646,10 +12904,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A382" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
@@ -12678,10 +12936,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A383" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
@@ -12710,10 +12968,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A384" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -12742,10 +13000,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A385" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -12774,10 +13032,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A386" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
@@ -12806,10 +13064,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A387" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
@@ -12838,10 +13096,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A388" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
@@ -12870,10 +13128,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A389" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -12902,10 +13160,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A390" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -12934,10 +13192,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A391" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -12966,10 +13224,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A392" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -12998,10 +13256,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A393" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -13030,10 +13288,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A394" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
@@ -13062,10 +13320,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A395" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -13094,10 +13352,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A396" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
@@ -13126,10 +13384,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A397" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -13158,10 +13416,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A398" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
@@ -13190,10 +13448,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A399" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -13222,10 +13480,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A400" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -13254,10 +13512,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A401" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
@@ -13286,10 +13544,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A402" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -13318,10 +13576,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A403" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -13350,10 +13608,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A404" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -13382,10 +13640,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A405" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
@@ -13414,10 +13672,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A406" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
@@ -13446,10 +13704,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A407" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
@@ -13478,10 +13736,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A408" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -13510,10 +13768,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A409" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -13542,10 +13800,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A410" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
@@ -13574,10 +13832,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A411" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
@@ -13606,10 +13864,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A412" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
@@ -13638,10 +13896,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A413" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
@@ -13670,10 +13928,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A414" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
@@ -13702,10 +13960,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A415" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
@@ -13734,10 +13992,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A416" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
@@ -13766,10 +14024,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A417" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -13798,10 +14056,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A418" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
@@ -13830,10 +14088,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A419" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
@@ -13862,10 +14120,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A420" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
@@ -13894,10 +14152,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A421" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
@@ -13926,10 +14184,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A422" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
@@ -13958,10 +14216,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A423" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -13990,10 +14248,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A424" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -14022,10 +14280,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A425" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -14054,10 +14312,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A426" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
@@ -14086,10 +14344,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A427" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -14118,10 +14376,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A428" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -14150,10 +14408,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A429" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -14182,10 +14440,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A430" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -14214,10 +14472,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A431" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -14246,10 +14504,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A432" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -14278,10 +14536,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A433" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -14310,10 +14568,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A434" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -14342,10 +14600,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A435" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -14374,10 +14632,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A436" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -14406,10 +14664,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A437" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -14438,10 +14696,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A438" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -14470,10 +14728,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A439" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -14502,10 +14760,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A440" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -14534,10 +14792,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A441" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -14566,10 +14824,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A442" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -14598,10 +14856,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A443" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -14630,10 +14888,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A444" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -14662,10 +14920,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A445" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -14694,10 +14952,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A446" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -14726,10 +14984,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A447" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -14758,10 +15016,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A448" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -14790,10 +15048,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A449" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -14822,10 +15080,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A450" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -14854,10 +15112,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A451" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -14886,10 +15144,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A452" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -14918,10 +15176,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A453" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
@@ -14950,10 +15208,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A454" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="89">
   <si>
     <t>job_name</t>
   </si>
   <si>
     <t>location</t>
-  </si>
-  <si>
-    <t>silver.supply__addresses_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/addresses</t>
   </si>
   <si>
     <t>silver.msg_feed__catalogs_served_report_12dec</t>
@@ -676,7 +670,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -2119,11 +2113,11 @@
       <c r="Z44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A45" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>89</v>
+      <c r="A45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2152,10 +2146,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A46" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2184,10 +2178,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A47" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2216,10 +2210,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A48" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2248,10 +2242,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A49" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2280,10 +2274,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A50" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2312,10 +2306,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A51" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2344,10 +2338,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A52" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2376,10 +2370,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A53" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2408,10 +2402,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A54" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2440,10 +2434,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A55" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2472,10 +2466,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A56" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2504,10 +2498,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A57" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2536,10 +2530,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A58" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2568,10 +2562,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A59" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2600,10 +2594,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A60" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2632,10 +2626,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A61" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2664,10 +2658,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A62" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2696,10 +2690,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A63" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2728,10 +2722,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A64" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2760,10 +2754,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A65" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2792,10 +2786,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A66" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2824,10 +2818,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A67" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2856,10 +2850,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A68" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2888,10 +2882,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A69" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2920,10 +2914,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A70" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2952,10 +2946,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A71" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2984,10 +2978,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A72" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -3016,10 +3010,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A73" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3048,10 +3042,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A74" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -3080,10 +3074,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A75" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -3112,10 +3106,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A76" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3144,10 +3138,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A77" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3176,10 +3170,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A78" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3208,10 +3202,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A79" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3240,10 +3234,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A80" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3272,10 +3266,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A81" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3304,10 +3298,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A82" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3336,10 +3330,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A83" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3368,10 +3362,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A84" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3400,10 +3394,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A85" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3432,10 +3426,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A86" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -3464,10 +3458,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A87" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3496,10 +3490,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A88" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -3528,10 +3522,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A89" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3560,10 +3554,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A90" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3592,10 +3586,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A91" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3624,10 +3618,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A92" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3656,10 +3650,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A93" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3688,10 +3682,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A94" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3720,10 +3714,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A95" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3752,10 +3746,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A96" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3784,10 +3778,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A97" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3816,10 +3810,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A98" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3848,10 +3842,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A99" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3880,10 +3874,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A100" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3912,10 +3906,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A101" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3944,10 +3938,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A102" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3976,10 +3970,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A103" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4008,10 +4002,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A104" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4040,10 +4034,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A105" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4072,10 +4066,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A106" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4104,10 +4098,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A107" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -4136,10 +4130,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A108" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -4168,10 +4162,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A109" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -4200,10 +4194,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A110" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -4232,10 +4226,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A111" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -4264,10 +4258,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A112" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4296,10 +4290,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A113" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4328,10 +4322,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A114" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4360,10 +4354,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A115" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4392,10 +4386,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A116" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4424,10 +4418,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A117" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -4456,10 +4450,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A118" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -4488,10 +4482,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A119" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -4520,10 +4514,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A120" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -4552,10 +4546,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A121" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4584,10 +4578,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A122" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -4616,10 +4610,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A123" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -4648,10 +4642,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A124" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4680,10 +4674,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A125" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -4712,10 +4706,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A126" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -4744,10 +4738,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A127" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4776,10 +4770,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A128" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -4808,10 +4802,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A129" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -4840,10 +4834,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A130" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -4872,10 +4866,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A131" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -4904,10 +4898,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A132" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -4936,10 +4930,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A133" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -4968,10 +4962,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A134" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -5000,10 +4994,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A135" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -5032,10 +5026,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A136" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -5064,10 +5058,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A137" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -5096,10 +5090,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A138" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -5128,10 +5122,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A139" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -5160,10 +5154,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A140" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -5192,10 +5186,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A141" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -5224,10 +5218,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A142" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -5256,10 +5250,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A143" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -5288,10 +5282,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A144" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -5320,10 +5314,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A145" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -5352,10 +5346,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A146" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -5384,10 +5378,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A147" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -5416,10 +5410,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A148" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -5448,10 +5442,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A149" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -5480,10 +5474,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A150" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -5512,10 +5506,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A151" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -5544,10 +5538,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A152" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -5576,10 +5570,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A153" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -5608,10 +5602,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A154" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -5640,10 +5634,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A155" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -5672,10 +5666,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A156" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -5704,10 +5698,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A157" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -5736,10 +5730,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A158" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -5768,10 +5762,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A159" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -5800,10 +5794,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A160" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -5832,10 +5826,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A161" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -5864,10 +5858,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A162" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -5896,10 +5890,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A163" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -5928,10 +5922,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A164" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -5960,10 +5954,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A165" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -5992,10 +5986,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A166" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -6024,10 +6018,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A167" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -6056,10 +6050,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A168" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -6088,10 +6082,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A169" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -6120,10 +6114,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A170" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -6152,10 +6146,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A171" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -6184,10 +6178,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A172" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -6216,10 +6210,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A173" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -6248,10 +6242,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A174" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -6280,10 +6274,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A175" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -6312,10 +6306,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A176" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -6344,10 +6338,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A177" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -6376,10 +6370,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A178" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -6408,10 +6402,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A179" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -6440,10 +6434,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A180" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -6472,10 +6466,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A181" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -6504,10 +6498,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A182" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -6536,10 +6530,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A183" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -6568,10 +6562,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A184" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -6600,10 +6594,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A185" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -6632,10 +6626,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A186" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -6664,10 +6658,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A187" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -6696,10 +6690,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A188" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -6728,10 +6722,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A189" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -6760,10 +6754,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A190" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -6792,10 +6786,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A191" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -6824,10 +6818,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A192" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -6856,10 +6850,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A193" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -6888,10 +6882,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A194" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -6920,10 +6914,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A195" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -6952,10 +6946,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A196" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -6984,10 +6978,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A197" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -7016,10 +7010,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A198" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -7048,10 +7042,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A199" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -7080,10 +7074,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A200" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -7112,10 +7106,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A201" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -7144,10 +7138,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A202" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -7176,10 +7170,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A203" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -7208,10 +7202,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A204" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -7240,10 +7234,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A205" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -7272,10 +7266,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A206" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -7304,10 +7298,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A207" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -7336,10 +7330,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A208" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -7368,10 +7362,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A209" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -7400,10 +7394,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A210" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -7432,10 +7426,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A211" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -7464,10 +7458,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A212" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -7496,10 +7490,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A213" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -7528,10 +7522,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A214" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -7560,10 +7554,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A215" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -7592,10 +7586,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A216" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -7624,10 +7618,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A217" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -7656,10 +7650,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A218" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -7688,10 +7682,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A219" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -7720,10 +7714,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A220" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -7752,10 +7746,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A221" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -7784,10 +7778,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A222" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -7816,10 +7810,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A223" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -7848,10 +7842,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A224" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -7880,10 +7874,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A225" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -7912,10 +7906,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A226" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -7944,10 +7938,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A227" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -7976,10 +7970,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A228" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -8008,10 +8002,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A229" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -8040,10 +8034,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A230" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -8072,10 +8066,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A231" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -8104,10 +8098,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A232" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -8136,10 +8130,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A233" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -8168,10 +8162,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A234" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -8200,10 +8194,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A235" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -8232,10 +8226,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A236" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -8264,10 +8258,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A237" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -8296,10 +8290,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A238" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -8328,10 +8322,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A239" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -8360,10 +8354,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A240" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -8392,10 +8386,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A241" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -8424,10 +8418,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A242" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -8456,10 +8450,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A243" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -8488,10 +8482,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A244" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -8520,10 +8514,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A245" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -8552,10 +8546,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A246" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -8584,10 +8578,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A247" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -8616,10 +8610,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A248" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -8648,10 +8642,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A249" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -8680,10 +8674,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A250" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -8712,10 +8706,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A251" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -8744,10 +8738,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A252" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -8776,10 +8770,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A253" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -8808,10 +8802,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A254" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -8840,10 +8834,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A255" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -8872,10 +8866,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A256" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -8904,10 +8898,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A257" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -8936,10 +8930,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A258" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -8968,10 +8962,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A259" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -9000,10 +8994,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A260" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -9032,10 +9026,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A261" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -9064,10 +9058,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A262" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -9096,10 +9090,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A263" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -9128,10 +9122,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A264" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -9160,10 +9154,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A265" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -9192,10 +9186,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A266" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -9224,10 +9218,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A267" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -9256,10 +9250,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A268" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -9288,10 +9282,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A269" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -9320,10 +9314,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A270" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -9352,10 +9346,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A271" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -9384,10 +9378,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A272" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -9416,10 +9410,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A273" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -9448,10 +9442,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A274" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -9480,10 +9474,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A275" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -9512,10 +9506,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A276" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -9544,10 +9538,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A277" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -9576,10 +9570,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A278" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -9608,10 +9602,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A279" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -9640,10 +9634,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A280" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -9672,10 +9666,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A281" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -9704,10 +9698,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A282" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -9736,10 +9730,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A283" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -9768,10 +9762,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A284" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -9800,10 +9794,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A285" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -9832,10 +9826,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A286" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -9864,10 +9858,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A287" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -9896,10 +9890,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A288" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -9928,10 +9922,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A289" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -9960,10 +9954,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A290" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -9992,10 +9986,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A291" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -10024,10 +10018,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A292" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -10056,10 +10050,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A293" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -10088,10 +10082,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A294" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -10120,10 +10114,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A295" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -10152,10 +10146,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A296" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -10184,10 +10178,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A297" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -10216,10 +10210,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A298" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -10248,10 +10242,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A299" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -10280,10 +10274,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A300" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -10312,10 +10306,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A301" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -10344,10 +10338,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A302" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -10376,10 +10370,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A303" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -10408,10 +10402,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A304" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -10440,10 +10434,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A305" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -10472,10 +10466,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A306" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -10504,10 +10498,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A307" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -10536,10 +10530,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A308" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -10568,10 +10562,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A309" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -10600,10 +10594,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A310" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -10632,10 +10626,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A311" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -10664,10 +10658,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A312" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -10696,10 +10690,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A313" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -10728,10 +10722,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A314" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -10760,10 +10754,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A315" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -10792,10 +10786,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A316" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -10824,10 +10818,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A317" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -10856,10 +10850,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A318" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -10888,10 +10882,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A319" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -10920,10 +10914,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A320" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -10952,10 +10946,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A321" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -10984,10 +10978,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A322" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -11016,10 +11010,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A323" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -11048,10 +11042,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A324" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -11080,10 +11074,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A325" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -11112,10 +11106,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A326" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -11144,10 +11138,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A327" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -11176,10 +11170,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A328" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -11208,10 +11202,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A329" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -11240,10 +11234,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A330" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -11272,10 +11266,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A331" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -11304,10 +11298,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A332" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -11336,10 +11330,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A333" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -11368,10 +11362,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A334" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -11400,10 +11394,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A335" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -11432,10 +11426,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A336" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -11464,10 +11458,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A337" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -11496,10 +11490,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A338" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -11528,10 +11522,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A339" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -11560,10 +11554,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A340" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -11592,10 +11586,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A341" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -11624,10 +11618,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A342" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -11656,10 +11650,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A343" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -11688,10 +11682,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A344" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -11720,10 +11714,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A345" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -11752,10 +11746,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A346" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -11784,10 +11778,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A347" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -11816,10 +11810,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A348" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -11848,10 +11842,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A349" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -11880,10 +11874,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A350" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -11912,10 +11906,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A351" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -11944,10 +11938,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A352" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -11976,10 +11970,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A353" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -12008,10 +12002,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A354" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -12040,10 +12034,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A355" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -12072,10 +12066,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A356" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -12104,10 +12098,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A357" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -12136,10 +12130,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A358" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
@@ -12168,10 +12162,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A359" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -12200,10 +12194,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A360" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
@@ -12232,10 +12226,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A361" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
@@ -12264,10 +12258,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A362" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -12296,10 +12290,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A363" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -12328,10 +12322,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A364" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -12360,10 +12354,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A365" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -12392,10 +12386,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A366" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
@@ -12424,10 +12418,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A367" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
@@ -12456,10 +12450,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A368" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -12488,10 +12482,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A369" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
@@ -12520,10 +12514,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A370" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
@@ -12552,10 +12546,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A371" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
@@ -12584,10 +12578,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A372" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
@@ -12616,10 +12610,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A373" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -12648,10 +12642,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A374" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
@@ -12680,10 +12674,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A375" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -12712,10 +12706,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A376" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
@@ -12744,10 +12738,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A377" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -12776,10 +12770,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A378" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
@@ -12808,10 +12802,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A379" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
@@ -12840,10 +12834,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A380" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
@@ -12872,10 +12866,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A381" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -12904,10 +12898,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A382" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
@@ -12936,10 +12930,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A383" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
@@ -12968,10 +12962,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A384" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -13000,10 +12994,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A385" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -13032,10 +13026,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A386" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
@@ -13064,10 +13058,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A387" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
@@ -13096,10 +13090,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A388" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
@@ -13128,10 +13122,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A389" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -13160,10 +13154,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A390" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -13192,10 +13186,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A391" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -13224,10 +13218,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A392" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -13256,10 +13250,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A393" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -13288,10 +13282,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A394" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
@@ -13320,10 +13314,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A395" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -13352,10 +13346,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A396" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
@@ -13384,10 +13378,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A397" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -13416,10 +13410,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A398" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
@@ -13448,10 +13442,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A399" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -13480,10 +13474,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A400" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -13512,10 +13506,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A401" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
@@ -13544,10 +13538,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A402" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -13576,10 +13570,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A403" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -13608,10 +13602,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A404" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -13640,10 +13634,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A405" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
@@ -13672,10 +13666,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A406" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
@@ -13704,10 +13698,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A407" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
@@ -13736,10 +13730,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A408" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -13768,10 +13762,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A409" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -13800,10 +13794,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A410" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
@@ -13832,10 +13826,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A411" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
@@ -13864,10 +13858,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A412" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
@@ -13896,10 +13890,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A413" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
@@ -13928,10 +13922,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A414" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
@@ -13960,10 +13954,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A415" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
@@ -13992,10 +13986,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A416" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
@@ -14024,10 +14018,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A417" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -14056,10 +14050,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A418" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
@@ -14088,10 +14082,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A419" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
@@ -14120,10 +14114,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A420" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
@@ -14152,10 +14146,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A421" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
@@ -14184,10 +14178,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A422" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
@@ -14216,10 +14210,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A423" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -14248,10 +14242,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A424" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -14280,10 +14274,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A425" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -14312,10 +14306,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A426" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
@@ -14344,10 +14338,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A427" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -14376,10 +14370,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A428" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -14408,10 +14402,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A429" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -14440,10 +14434,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A430" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -14472,10 +14466,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A431" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -14504,10 +14498,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A432" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -14536,10 +14530,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A433" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -14568,10 +14562,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A434" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -14600,10 +14594,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A435" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -14632,10 +14626,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A436" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -14664,10 +14658,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A437" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -14696,10 +14690,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A438" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -14728,10 +14722,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A439" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -14760,10 +14754,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A440" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -14792,10 +14786,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A441" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -14824,10 +14818,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A442" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -14856,10 +14850,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A443" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -14888,10 +14882,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A444" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -14920,10 +14914,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A445" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -14952,10 +14946,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A446" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -14984,10 +14978,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A447" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -15016,10 +15010,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A448" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -15048,10 +15042,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A449" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -15080,10 +15074,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A450" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -15112,10 +15106,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A451" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -15144,10 +15138,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A452" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -15176,10 +15170,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A453" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
@@ -15207,12 +15201,8 @@
       <c r="Z453" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A454" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B454" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="A454" s="3"/>
+      <c r="B454" s="3"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -30526,34 +30516,6 @@
       <c r="Y1000" s="3"/>
       <c r="Z1000" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="1001" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A1001" s="3"/>
-      <c r="B1001" s="3"/>
-      <c r="C1001" s="3"/>
-      <c r="D1001" s="3"/>
-      <c r="E1001" s="3"/>
-      <c r="F1001" s="3"/>
-      <c r="G1001" s="3"/>
-      <c r="H1001" s="3"/>
-      <c r="I1001" s="3"/>
-      <c r="J1001" s="3"/>
-      <c r="K1001" s="3"/>
-      <c r="L1001" s="3"/>
-      <c r="M1001" s="3"/>
-      <c r="N1001" s="3"/>
-      <c r="O1001" s="3"/>
-      <c r="P1001" s="3"/>
-      <c r="Q1001" s="3"/>
-      <c r="R1001" s="3"/>
-      <c r="S1001" s="3"/>
-      <c r="T1001" s="3"/>
-      <c r="U1001" s="3"/>
-      <c r="V1001" s="3"/>
-      <c r="W1001" s="3"/>
-      <c r="X1001" s="3"/>
-      <c r="Y1001" s="3"/>
-      <c r="Z1001" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="87">
   <si>
     <t>job_name</t>
   </si>
   <si>
     <t>location</t>
-  </si>
-  <si>
-    <t>silver.msg_feed__catalogs_served_report_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_feed/catalogs_served_report</t>
   </si>
   <si>
     <t>silver.supply__catalogs_12dec</t>
@@ -670,7 +664,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -2081,11 +2075,11 @@
       <c r="Z43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A44" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>87</v>
+      <c r="A44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2114,10 +2108,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A45" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2146,10 +2140,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A46" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2178,10 +2172,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A47" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2210,10 +2204,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A48" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2242,10 +2236,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A49" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2274,10 +2268,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A50" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2306,10 +2300,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A51" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2338,10 +2332,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A52" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2370,10 +2364,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A53" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2402,10 +2396,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A54" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2434,10 +2428,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A55" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2466,10 +2460,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A56" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2498,10 +2492,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A57" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2530,10 +2524,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A58" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2562,10 +2556,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A59" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2594,10 +2588,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A60" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2626,10 +2620,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A61" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2658,10 +2652,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A62" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2690,10 +2684,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A63" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2722,10 +2716,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A64" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2754,10 +2748,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A65" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2786,10 +2780,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A66" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2818,10 +2812,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A67" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2850,10 +2844,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A68" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2882,10 +2876,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A69" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2914,10 +2908,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A70" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2946,10 +2940,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A71" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2978,10 +2972,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A72" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -3010,10 +3004,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A73" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3042,10 +3036,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A74" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -3074,10 +3068,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A75" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -3106,10 +3100,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A76" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3138,10 +3132,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A77" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3170,10 +3164,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A78" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3202,10 +3196,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A79" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3234,10 +3228,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A80" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3266,10 +3260,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A81" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3298,10 +3292,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A82" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3330,10 +3324,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A83" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3362,10 +3356,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A84" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3394,10 +3388,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A85" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3426,10 +3420,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A86" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -3458,10 +3452,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A87" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3490,10 +3484,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A88" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -3522,10 +3516,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A89" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3554,10 +3548,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A90" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3586,10 +3580,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A91" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3618,10 +3612,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A92" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3650,10 +3644,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A93" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3682,10 +3676,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A94" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3714,10 +3708,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A95" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3746,10 +3740,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A96" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3778,10 +3772,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A97" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3810,10 +3804,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A98" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3842,10 +3836,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A99" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3874,10 +3868,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A100" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3906,10 +3900,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A101" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3938,10 +3932,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A102" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3970,10 +3964,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A103" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4002,10 +3996,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A104" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4034,10 +4028,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A105" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4066,10 +4060,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A106" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4098,10 +4092,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A107" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -4130,10 +4124,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A108" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -4162,10 +4156,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A109" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -4194,10 +4188,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A110" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -4226,10 +4220,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A111" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -4258,10 +4252,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A112" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4290,10 +4284,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A113" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4322,10 +4316,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A114" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4354,10 +4348,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A115" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4386,10 +4380,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A116" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4418,10 +4412,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A117" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -4450,10 +4444,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A118" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -4482,10 +4476,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A119" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -4514,10 +4508,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A120" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -4546,10 +4540,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A121" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4578,10 +4572,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A122" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -4610,10 +4604,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A123" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -4642,10 +4636,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A124" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4674,10 +4668,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A125" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -4706,10 +4700,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A126" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -4738,10 +4732,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A127" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4770,10 +4764,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A128" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -4802,10 +4796,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A129" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -4834,10 +4828,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A130" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -4866,10 +4860,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A131" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -4898,10 +4892,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A132" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -4930,10 +4924,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A133" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -4962,10 +4956,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A134" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -4994,10 +4988,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A135" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -5026,10 +5020,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A136" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -5058,10 +5052,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A137" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -5090,10 +5084,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A138" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -5122,10 +5116,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A139" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -5154,10 +5148,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A140" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -5186,10 +5180,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A141" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -5218,10 +5212,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A142" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -5250,10 +5244,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A143" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -5282,10 +5276,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A144" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -5314,10 +5308,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A145" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -5346,10 +5340,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A146" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -5378,10 +5372,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A147" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -5410,10 +5404,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A148" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -5442,10 +5436,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A149" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -5474,10 +5468,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A150" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -5506,10 +5500,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A151" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -5538,10 +5532,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A152" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -5570,10 +5564,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A153" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -5602,10 +5596,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A154" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -5634,10 +5628,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A155" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -5666,10 +5660,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A156" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -5698,10 +5692,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A157" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -5730,10 +5724,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A158" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -5762,10 +5756,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A159" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -5794,10 +5788,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A160" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -5826,10 +5820,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A161" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -5858,10 +5852,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A162" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -5890,10 +5884,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A163" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -5922,10 +5916,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A164" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -5954,10 +5948,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A165" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -5986,10 +5980,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A166" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -6018,10 +6012,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A167" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -6050,10 +6044,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A168" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -6082,10 +6076,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A169" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -6114,10 +6108,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A170" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -6146,10 +6140,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A171" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -6178,10 +6172,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A172" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -6210,10 +6204,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A173" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -6242,10 +6236,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A174" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -6274,10 +6268,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A175" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -6306,10 +6300,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A176" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -6338,10 +6332,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A177" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -6370,10 +6364,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A178" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -6402,10 +6396,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A179" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -6434,10 +6428,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A180" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -6466,10 +6460,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A181" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -6498,10 +6492,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A182" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -6530,10 +6524,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A183" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -6562,10 +6556,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A184" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -6594,10 +6588,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A185" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -6626,10 +6620,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A186" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -6658,10 +6652,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A187" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -6690,10 +6684,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A188" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -6722,10 +6716,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A189" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -6754,10 +6748,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A190" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -6786,10 +6780,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A191" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -6818,10 +6812,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A192" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -6850,10 +6844,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A193" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -6882,10 +6876,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A194" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -6914,10 +6908,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A195" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -6946,10 +6940,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A196" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -6978,10 +6972,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A197" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -7010,10 +7004,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A198" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -7042,10 +7036,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A199" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -7074,10 +7068,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A200" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -7106,10 +7100,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A201" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -7138,10 +7132,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A202" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -7170,10 +7164,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A203" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -7202,10 +7196,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A204" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -7234,10 +7228,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A205" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -7266,10 +7260,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A206" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -7298,10 +7292,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A207" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -7330,10 +7324,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A208" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -7362,10 +7356,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A209" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -7394,10 +7388,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A210" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -7426,10 +7420,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A211" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -7458,10 +7452,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A212" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -7490,10 +7484,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A213" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -7522,10 +7516,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A214" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -7554,10 +7548,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A215" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -7586,10 +7580,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A216" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -7618,10 +7612,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A217" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -7650,10 +7644,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A218" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -7682,10 +7676,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A219" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -7714,10 +7708,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A220" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -7746,10 +7740,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A221" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -7778,10 +7772,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A222" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -7810,10 +7804,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A223" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -7842,10 +7836,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A224" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -7874,10 +7868,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A225" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -7906,10 +7900,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A226" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -7938,10 +7932,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A227" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -7970,10 +7964,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A228" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -8002,10 +7996,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A229" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -8034,10 +8028,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A230" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -8066,10 +8060,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A231" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -8098,10 +8092,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A232" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -8130,10 +8124,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A233" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -8162,10 +8156,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A234" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -8194,10 +8188,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A235" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -8226,10 +8220,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A236" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -8258,10 +8252,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A237" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -8290,10 +8284,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A238" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -8322,10 +8316,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A239" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -8354,10 +8348,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A240" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -8386,10 +8380,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A241" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -8418,10 +8412,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A242" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -8450,10 +8444,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A243" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -8482,10 +8476,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A244" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -8514,10 +8508,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A245" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -8546,10 +8540,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A246" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -8578,10 +8572,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A247" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -8610,10 +8604,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A248" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -8642,10 +8636,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A249" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -8674,10 +8668,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A250" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -8706,10 +8700,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A251" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -8738,10 +8732,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A252" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -8770,10 +8764,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A253" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -8802,10 +8796,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A254" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -8834,10 +8828,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A255" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -8866,10 +8860,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A256" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -8898,10 +8892,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A257" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -8930,10 +8924,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A258" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -8962,10 +8956,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A259" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -8994,10 +8988,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A260" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -9026,10 +9020,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A261" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -9058,10 +9052,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A262" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -9090,10 +9084,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A263" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -9122,10 +9116,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A264" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -9154,10 +9148,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A265" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -9186,10 +9180,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A266" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -9218,10 +9212,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A267" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -9250,10 +9244,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A268" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -9282,10 +9276,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A269" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -9314,10 +9308,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A270" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -9346,10 +9340,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A271" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -9378,10 +9372,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A272" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -9410,10 +9404,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A273" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -9442,10 +9436,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A274" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -9474,10 +9468,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A275" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -9506,10 +9500,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A276" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -9538,10 +9532,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A277" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -9570,10 +9564,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A278" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -9602,10 +9596,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A279" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -9634,10 +9628,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A280" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -9666,10 +9660,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A281" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -9698,10 +9692,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A282" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -9730,10 +9724,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A283" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -9762,10 +9756,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A284" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -9794,10 +9788,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A285" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -9826,10 +9820,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A286" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -9858,10 +9852,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A287" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -9890,10 +9884,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A288" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -9922,10 +9916,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A289" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -9954,10 +9948,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A290" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -9986,10 +9980,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A291" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -10018,10 +10012,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A292" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -10050,10 +10044,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A293" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -10082,10 +10076,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A294" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -10114,10 +10108,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A295" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -10146,10 +10140,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A296" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -10178,10 +10172,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A297" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -10210,10 +10204,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A298" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -10242,10 +10236,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A299" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -10274,10 +10268,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A300" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -10306,10 +10300,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A301" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -10338,10 +10332,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A302" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -10370,10 +10364,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A303" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -10402,10 +10396,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A304" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -10434,10 +10428,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A305" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -10466,10 +10460,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A306" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -10498,10 +10492,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A307" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -10530,10 +10524,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A308" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -10562,10 +10556,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A309" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -10594,10 +10588,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A310" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -10626,10 +10620,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A311" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -10658,10 +10652,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A312" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -10690,10 +10684,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A313" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -10722,10 +10716,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A314" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -10754,10 +10748,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A315" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -10786,10 +10780,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A316" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -10818,10 +10812,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A317" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -10850,10 +10844,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A318" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -10882,10 +10876,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A319" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -10914,10 +10908,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A320" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -10946,10 +10940,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A321" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -10978,10 +10972,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A322" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -11010,10 +11004,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A323" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -11042,10 +11036,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A324" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -11074,10 +11068,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A325" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -11106,10 +11100,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A326" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -11138,10 +11132,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A327" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -11170,10 +11164,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A328" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -11202,10 +11196,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A329" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -11234,10 +11228,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A330" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -11266,10 +11260,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A331" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -11298,10 +11292,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A332" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -11330,10 +11324,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A333" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -11362,10 +11356,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A334" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -11394,10 +11388,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A335" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -11426,10 +11420,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A336" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -11458,10 +11452,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A337" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -11490,10 +11484,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A338" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -11522,10 +11516,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A339" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -11554,10 +11548,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A340" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -11586,10 +11580,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A341" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -11618,10 +11612,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A342" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -11650,10 +11644,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A343" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -11682,10 +11676,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A344" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -11714,10 +11708,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A345" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -11746,10 +11740,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A346" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -11778,10 +11772,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A347" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -11810,10 +11804,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A348" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -11842,10 +11836,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A349" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -11874,10 +11868,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A350" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -11906,10 +11900,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A351" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -11938,10 +11932,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A352" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -11970,10 +11964,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A353" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -12002,10 +11996,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A354" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -12034,10 +12028,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A355" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -12066,10 +12060,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A356" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -12098,10 +12092,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A357" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -12130,10 +12124,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A358" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
@@ -12162,10 +12156,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A359" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -12194,10 +12188,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A360" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
@@ -12226,10 +12220,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A361" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
@@ -12258,10 +12252,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A362" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -12290,10 +12284,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A363" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -12322,10 +12316,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A364" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -12354,10 +12348,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A365" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -12386,10 +12380,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A366" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
@@ -12418,10 +12412,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A367" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
@@ -12450,10 +12444,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A368" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -12482,10 +12476,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A369" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
@@ -12514,10 +12508,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A370" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
@@ -12546,10 +12540,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A371" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
@@ -12578,10 +12572,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A372" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
@@ -12610,10 +12604,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A373" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -12642,10 +12636,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A374" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
@@ -12674,10 +12668,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A375" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -12706,10 +12700,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A376" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
@@ -12738,10 +12732,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A377" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -12770,10 +12764,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A378" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
@@ -12802,10 +12796,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A379" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
@@ -12834,10 +12828,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A380" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
@@ -12866,10 +12860,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A381" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -12898,10 +12892,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A382" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
@@ -12930,10 +12924,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A383" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
@@ -12962,10 +12956,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A384" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -12994,10 +12988,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A385" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -13026,10 +13020,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A386" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
@@ -13058,10 +13052,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A387" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
@@ -13090,10 +13084,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A388" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
@@ -13122,10 +13116,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A389" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -13154,10 +13148,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A390" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -13186,10 +13180,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A391" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -13218,10 +13212,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A392" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -13250,10 +13244,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A393" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -13282,10 +13276,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A394" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
@@ -13314,10 +13308,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A395" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -13346,10 +13340,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A396" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
@@ -13378,10 +13372,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A397" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -13410,10 +13404,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A398" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
@@ -13442,10 +13436,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A399" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -13474,10 +13468,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A400" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -13506,10 +13500,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A401" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
@@ -13538,10 +13532,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A402" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -13570,10 +13564,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A403" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -13602,10 +13596,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A404" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -13634,10 +13628,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A405" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
@@ -13666,10 +13660,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A406" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
@@ -13698,10 +13692,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A407" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
@@ -13730,10 +13724,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A408" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -13762,10 +13756,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A409" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -13794,10 +13788,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A410" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
@@ -13826,10 +13820,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A411" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
@@ -13858,10 +13852,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A412" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
@@ -13890,10 +13884,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A413" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
@@ -13922,10 +13916,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A414" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
@@ -13954,10 +13948,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A415" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
@@ -13986,10 +13980,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A416" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
@@ -14018,10 +14012,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A417" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -14050,10 +14044,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A418" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
@@ -14082,10 +14076,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A419" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
@@ -14114,10 +14108,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A420" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
@@ -14146,10 +14140,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A421" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
@@ -14178,10 +14172,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A422" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
@@ -14210,10 +14204,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A423" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -14242,10 +14236,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A424" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -14274,10 +14268,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A425" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -14306,10 +14300,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A426" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
@@ -14338,10 +14332,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A427" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -14370,10 +14364,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A428" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -14402,10 +14396,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A429" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -14434,10 +14428,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A430" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -14466,10 +14460,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A431" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -14498,10 +14492,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A432" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -14530,10 +14524,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A433" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -14562,10 +14556,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A434" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -14594,10 +14588,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A435" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -14626,10 +14620,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A436" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -14658,10 +14652,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A437" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -14690,10 +14684,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A438" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -14722,10 +14716,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A439" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -14754,10 +14748,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A440" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -14786,10 +14780,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A441" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -14818,10 +14812,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A442" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -14850,10 +14844,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A443" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -14882,10 +14876,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A444" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -14914,10 +14908,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A445" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -14946,10 +14940,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A446" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -14978,10 +14972,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A447" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -15010,10 +15004,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A448" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -15042,10 +15036,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A449" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -15074,10 +15068,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A450" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -15106,10 +15100,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A451" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -15138,10 +15132,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A452" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -15169,12 +15163,8 @@
       <c r="Z452" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A453" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B453" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="A453" s="3"/>
+      <c r="B453" s="3"/>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -30488,34 +30478,6 @@
       <c r="Y999" s="3"/>
       <c r="Z999" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="1000" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A1000" s="3"/>
-      <c r="B1000" s="3"/>
-      <c r="C1000" s="3"/>
-      <c r="D1000" s="3"/>
-      <c r="E1000" s="3"/>
-      <c r="F1000" s="3"/>
-      <c r="G1000" s="3"/>
-      <c r="H1000" s="3"/>
-      <c r="I1000" s="3"/>
-      <c r="J1000" s="3"/>
-      <c r="K1000" s="3"/>
-      <c r="L1000" s="3"/>
-      <c r="M1000" s="3"/>
-      <c r="N1000" s="3"/>
-      <c r="O1000" s="3"/>
-      <c r="P1000" s="3"/>
-      <c r="Q1000" s="3"/>
-      <c r="R1000" s="3"/>
-      <c r="S1000" s="3"/>
-      <c r="T1000" s="3"/>
-      <c r="U1000" s="3"/>
-      <c r="V1000" s="3"/>
-      <c r="W1000" s="3"/>
-      <c r="X1000" s="3"/>
-      <c r="Y1000" s="3"/>
-      <c r="Z1000" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="5">
   <si>
     <t>job_name</t>
   </si>
@@ -22,256 +22,10 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.supply__catalogs_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/catalogs_repartition</t>
-  </si>
-  <si>
-    <t>silver.supply__orders_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/orders_schema_change</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pdp_time_spend_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pdp_time_spend</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_notification_requests_proto_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_requests_proto</t>
-  </si>
-  <si>
-    <t>silver.supplier_orders__sub_order_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_orders/sub_order</t>
-  </si>
-  <si>
-    <t>silver.supply__users_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/users</t>
-  </si>
-  <si>
-    <t>silver.supplier_payment__supplier_payment_order_detail_payments_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_payment/supplier_payment_order_detail_payments_schema_change_schema_change</t>
-  </si>
-  <si>
-    <t>silver.tracking__tracking_user_app_tracking_3_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/tracking/tracking_user_app_tracking_3</t>
-  </si>
-  <si>
-    <t>silver.supply__order_details_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/order_details_schema_change</t>
-  </si>
-  <si>
-    <t>silver.inventory__product_supplier_variation_map_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inventory/product_supplier_variation_map_new</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__catalog_collage_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/catalog_collage</t>
-  </si>
-  <si>
-    <t>silver.inventory__supplier_catalog_management_details_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inventory/supplier_catalog_management_details</t>
-  </si>
-  <si>
-    <t>silver.ums__user_profile_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ums/user_profile</t>
-  </si>
-  <si>
-    <t>silver.ums__user_attributes_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ums/user_attributes</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__screen_visited_test_dbc_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/screen_visited_test</t>
-  </si>
-  <si>
-    <t>silver.review__reviews_record_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/review/reviews_record_repartition</t>
-  </si>
-  <si>
-    <t>silver.supply__product_supplier_map_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/product_supplier_map_2021_04_21</t>
-  </si>
-  <si>
-    <t>silver.price__product_supplier_price_map_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/product_supplier_price_map_new</t>
-  </si>
-  <si>
-    <t>silver.supply__shipment_details_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/shipment_details_schema_change</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__taxonomy_attribute_store_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/taxonomy_attribute_store_repartition</t>
-  </si>
-  <si>
-    <t>silver.supply__products_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/products_repartition</t>
-  </si>
-  <si>
-    <t>silver.bulk_catalog__user_catalog_share_map_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bulk_catalog/user_catalog_share_map_08_23</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__video_review_progress_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/video_review_progress</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__widget_views_report_clone_test_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/widget_views_report_2021_04_20_clone_test</t>
-  </si>
-  <si>
-    <t>silver.supply__order_timeline_3_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/order_timeline_3</t>
-  </si>
-  <si>
-    <t>silver.ml_platform__catalog_tracking_sse_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ml_platform/catalog_tracking_sse</t>
-  </si>
-  <si>
-    <t>silver.supply__supplier_order_details_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/supplier_order_details_schema_change</t>
-  </si>
-  <si>
-    <t>silver.invoice__reseller_to_customer_invoices_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/invoice/reseller_to_customer_invoices_2021_04_16</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_pdp_time_spend_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_pdp_time_spend</t>
-  </si>
-  <si>
-    <t>silver.invoice__supplier_to_reseller_invoices_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/invoice/supplier_to_reseller_invoices_2021_04_16</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_notification_records_proto_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_records_proto</t>
-  </si>
-  <si>
-    <t>silver.msg_ctqct__ctqct_v2_for_you_catalogs_served_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ctqct/ctqct_v2_for_you_catalogs_served_repartition</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__taxonomy_product_supplier_map_attributes_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/taxonomy_product_supplier_map_attributes</t>
-  </si>
-  <si>
-    <t>silver.supply__order_detail_requests_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/order_detail_requests_schema_change</t>
-  </si>
-  <si>
-    <t>silver.msg_ds_image_insights__ds_demand_prediction_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ds_image_insights/ds_demand_prediction</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_query_catalog_mapping_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_query_catalog_mapping</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__review_video_play_pause_clicked_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/review_video_play_pause_clicked</t>
-  </si>
-  <si>
-    <t>silver.supply__orders_logs_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/orders_logs_schema_change</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__daily_disk_space_analysis_temp_12dec</t>
+    <t>silver.inhouse_android__daily_disk_space_analysis_temp_13dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/inhouse_android/daily_disk_space_analysis_temp</t>
-  </si>
-  <si>
-    <t>silver.supply_orchestrator__listing_optimiser_product_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_orchestrator/listing_optimiser_product</t>
-  </si>
-  <si>
-    <t>silver.supply__order_details_attributes_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/order_details_attributes_schema_change</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_sessions_12dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_sessions</t>
   </si>
   <si>
     <t/>
@@ -763,11 +517,11 @@
       <c r="Z2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -795,11 +549,11 @@
       <c r="Z3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -827,11 +581,11 @@
       <c r="Z4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -859,11 +613,11 @@
       <c r="Z5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -891,11 +645,11 @@
       <c r="Z6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -923,11 +677,11 @@
       <c r="Z7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -955,11 +709,11 @@
       <c r="Z8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -987,11 +741,11 @@
       <c r="Z9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1019,11 +773,11 @@
       <c r="Z10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1051,11 +805,11 @@
       <c r="Z11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1083,11 +837,11 @@
       <c r="Z12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1115,11 +869,11 @@
       <c r="Z13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1147,11 +901,11 @@
       <c r="Z14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1179,11 +933,11 @@
       <c r="Z15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1211,11 +965,11 @@
       <c r="Z16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1243,11 +997,11 @@
       <c r="Z17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1275,11 +1029,11 @@
       <c r="Z18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1307,11 +1061,11 @@
       <c r="Z19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1339,11 +1093,11 @@
       <c r="Z20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1371,11 +1125,11 @@
       <c r="Z21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
+      <c r="A22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1403,11 +1157,11 @@
       <c r="Z22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1435,11 +1189,11 @@
       <c r="Z23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
+      <c r="A24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1467,11 +1221,11 @@
       <c r="Z24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>49</v>
+      <c r="A25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1499,11 +1253,11 @@
       <c r="Z25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
+      <c r="A26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1531,11 +1285,11 @@
       <c r="Z26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>53</v>
+      <c r="A27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1563,11 +1317,11 @@
       <c r="Z27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>55</v>
+      <c r="A28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1595,11 +1349,11 @@
       <c r="Z28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>57</v>
+      <c r="A29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1627,11 +1381,11 @@
       <c r="Z29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>59</v>
+      <c r="A30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1659,11 +1413,11 @@
       <c r="Z30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>61</v>
+      <c r="A31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1691,11 +1445,11 @@
       <c r="Z31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>63</v>
+      <c r="A32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1723,11 +1477,11 @@
       <c r="Z32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>65</v>
+      <c r="A33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1755,11 +1509,11 @@
       <c r="Z33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>67</v>
+      <c r="A34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1787,11 +1541,11 @@
       <c r="Z34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>69</v>
+      <c r="A35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1819,11 +1573,11 @@
       <c r="Z35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>71</v>
+      <c r="A36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1851,11 +1605,11 @@
       <c r="Z36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>73</v>
+      <c r="A37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1883,11 +1637,11 @@
       <c r="Z37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>75</v>
+      <c r="A38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1915,11 +1669,11 @@
       <c r="Z38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A39" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>77</v>
+      <c r="A39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1947,11 +1701,11 @@
       <c r="Z39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>79</v>
+      <c r="A40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1979,11 +1733,11 @@
       <c r="Z40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>81</v>
+      <c r="A41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2011,11 +1765,11 @@
       <c r="Z41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A42" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>83</v>
+      <c r="A42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2043,11 +1797,11 @@
       <c r="Z42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>85</v>
+      <c r="A43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2076,10 +1830,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A44" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2108,10 +1862,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A45" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2140,10 +1894,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A46" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2172,10 +1926,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A47" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2204,10 +1958,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A48" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2236,10 +1990,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A49" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2268,10 +2022,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A50" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2300,10 +2054,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A51" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2332,10 +2086,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A52" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2364,10 +2118,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A53" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2396,10 +2150,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A54" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2428,10 +2182,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A55" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2460,10 +2214,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A56" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2492,10 +2246,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A57" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2524,10 +2278,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A58" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2556,10 +2310,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A59" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2588,10 +2342,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A60" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2620,10 +2374,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A61" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2652,10 +2406,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A62" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2684,10 +2438,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A63" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2716,10 +2470,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A64" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2748,10 +2502,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A65" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2780,10 +2534,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A66" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2812,10 +2566,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A67" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2844,10 +2598,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A68" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2876,10 +2630,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A69" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2908,10 +2662,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A70" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2940,10 +2694,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A71" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2972,10 +2726,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A72" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -3004,10 +2758,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A73" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3036,10 +2790,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A74" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -3068,10 +2822,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A75" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -3100,10 +2854,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A76" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3132,10 +2886,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A77" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3164,10 +2918,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A78" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3196,10 +2950,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A79" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3228,10 +2982,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A80" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3260,10 +3014,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A81" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3292,10 +3046,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A82" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3324,10 +3078,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A83" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3356,10 +3110,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A84" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3388,10 +3142,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A85" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3420,10 +3174,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A86" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -3452,10 +3206,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A87" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3484,10 +3238,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A88" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -3516,10 +3270,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A89" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3548,10 +3302,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A90" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3580,10 +3334,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A91" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3612,10 +3366,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A92" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3644,10 +3398,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A93" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3676,10 +3430,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A94" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3708,10 +3462,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A95" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3740,10 +3494,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A96" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3772,10 +3526,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A97" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3804,10 +3558,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A98" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3836,10 +3590,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A99" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3868,10 +3622,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A100" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3900,10 +3654,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A101" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3932,10 +3686,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A102" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3964,10 +3718,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A103" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3996,10 +3750,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A104" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4028,10 +3782,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A105" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4060,10 +3814,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A106" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4092,10 +3846,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A107" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -4124,10 +3878,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A108" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -4156,10 +3910,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A109" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -4188,10 +3942,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A110" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -4220,10 +3974,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A111" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -4252,10 +4006,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A112" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4284,10 +4038,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A113" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4316,10 +4070,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A114" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4348,10 +4102,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A115" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4380,10 +4134,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A116" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4412,10 +4166,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A117" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -4444,10 +4198,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A118" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -4476,10 +4230,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A119" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -4508,10 +4262,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A120" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -4540,10 +4294,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A121" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4572,10 +4326,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A122" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -4604,10 +4358,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A123" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -4636,10 +4390,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A124" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4668,10 +4422,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A125" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -4700,10 +4454,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A126" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -4732,10 +4486,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A127" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4764,10 +4518,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A128" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -4796,10 +4550,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A129" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -4828,10 +4582,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A130" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -4860,10 +4614,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A131" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -4892,10 +4646,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A132" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -4924,10 +4678,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A133" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -4956,10 +4710,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A134" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -4988,10 +4742,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A135" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -5020,10 +4774,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A136" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -5052,10 +4806,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A137" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -5084,10 +4838,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A138" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -5116,10 +4870,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A139" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -5148,10 +4902,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A140" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -5180,10 +4934,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A141" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -5212,10 +4966,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A142" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -5244,10 +4998,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A143" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -5276,10 +5030,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A144" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -5308,10 +5062,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A145" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -5340,10 +5094,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A146" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -5372,10 +5126,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A147" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -5404,10 +5158,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A148" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -5436,10 +5190,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A149" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -5468,10 +5222,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A150" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -5500,10 +5254,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A151" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -5532,10 +5286,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A152" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -5564,10 +5318,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A153" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -5596,10 +5350,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A154" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -5628,10 +5382,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A155" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -5660,10 +5414,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A156" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -5692,10 +5446,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A157" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -5724,10 +5478,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A158" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -5756,10 +5510,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A159" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -5788,10 +5542,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A160" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -5820,10 +5574,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A161" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -5852,10 +5606,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A162" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -5884,10 +5638,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A163" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -5916,10 +5670,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A164" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -5948,10 +5702,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A165" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -5980,10 +5734,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A166" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -6012,10 +5766,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A167" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -6044,10 +5798,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A168" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -6076,10 +5830,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A169" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -6108,10 +5862,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A170" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -6140,10 +5894,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A171" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -6172,10 +5926,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A172" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -6204,10 +5958,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A173" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -6236,10 +5990,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A174" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -6268,10 +6022,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A175" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -6300,10 +6054,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A176" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -6332,10 +6086,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A177" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -6364,10 +6118,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A178" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -6396,10 +6150,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A179" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -6428,10 +6182,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A180" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -6460,10 +6214,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A181" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -6492,10 +6246,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A182" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -6524,10 +6278,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A183" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -6556,10 +6310,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A184" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -6588,10 +6342,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A185" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -6620,10 +6374,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A186" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -6652,10 +6406,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A187" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -6684,10 +6438,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A188" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -6716,10 +6470,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A189" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -6748,10 +6502,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A190" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -6780,10 +6534,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A191" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -6812,10 +6566,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A192" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -6844,10 +6598,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A193" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -6876,10 +6630,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A194" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -6908,10 +6662,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A195" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -6940,10 +6694,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A196" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -6972,10 +6726,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A197" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -7004,10 +6758,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A198" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -7036,10 +6790,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A199" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -7068,10 +6822,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A200" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -7100,10 +6854,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A201" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -7132,10 +6886,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A202" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -7164,10 +6918,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A203" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -7196,10 +6950,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A204" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -7228,10 +6982,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A205" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -7260,10 +7014,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A206" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -7292,10 +7046,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A207" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -7324,10 +7078,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A208" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -7356,10 +7110,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A209" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -7388,10 +7142,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A210" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -7420,10 +7174,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A211" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -7452,10 +7206,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A212" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -7484,10 +7238,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A213" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -7516,10 +7270,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A214" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -7548,10 +7302,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A215" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -7580,10 +7334,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A216" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -7612,10 +7366,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A217" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -7644,10 +7398,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A218" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -7676,10 +7430,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A219" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -7708,10 +7462,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A220" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -7740,10 +7494,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A221" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -7772,10 +7526,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A222" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -7804,10 +7558,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A223" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -7836,10 +7590,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A224" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -7868,10 +7622,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A225" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -7900,10 +7654,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A226" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -7932,10 +7686,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A227" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -7964,10 +7718,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A228" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -7996,10 +7750,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A229" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -8028,10 +7782,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A230" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -8060,10 +7814,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A231" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -8092,10 +7846,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A232" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -8124,10 +7878,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A233" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -8156,10 +7910,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A234" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -8188,10 +7942,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A235" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -8220,10 +7974,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A236" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -8252,10 +8006,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A237" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -8284,10 +8038,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A238" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -8316,10 +8070,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A239" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -8348,10 +8102,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A240" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -8380,10 +8134,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A241" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -8412,10 +8166,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A242" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -8444,10 +8198,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A243" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -8476,10 +8230,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A244" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -8508,10 +8262,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A245" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -8540,10 +8294,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A246" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -8572,10 +8326,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A247" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -8604,10 +8358,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A248" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -8636,10 +8390,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A249" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -8668,10 +8422,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A250" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -8700,10 +8454,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A251" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -8732,10 +8486,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A252" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -8764,10 +8518,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A253" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -8796,10 +8550,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A254" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -8828,10 +8582,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A255" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -8860,10 +8614,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A256" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -8892,10 +8646,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A257" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -8924,10 +8678,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A258" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -8956,10 +8710,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A259" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -8988,10 +8742,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A260" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -9020,10 +8774,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A261" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -9052,10 +8806,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A262" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -9084,10 +8838,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A263" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -9116,10 +8870,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A264" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -9148,10 +8902,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A265" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -9180,10 +8934,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A266" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -9212,10 +8966,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A267" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -9244,10 +8998,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A268" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -9276,10 +9030,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A269" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -9308,10 +9062,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A270" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -9340,10 +9094,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A271" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -9372,10 +9126,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A272" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -9404,10 +9158,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A273" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -9436,10 +9190,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A274" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -9468,10 +9222,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A275" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -9500,10 +9254,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A276" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -9532,10 +9286,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A277" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -9564,10 +9318,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A278" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -9596,10 +9350,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A279" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -9628,10 +9382,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A280" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -9660,10 +9414,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A281" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -9692,10 +9446,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A282" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -9724,10 +9478,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A283" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -9756,10 +9510,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A284" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -9788,10 +9542,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A285" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -9820,10 +9574,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A286" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -9852,10 +9606,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A287" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -9884,10 +9638,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A288" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -9916,10 +9670,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A289" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -9948,10 +9702,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A290" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -9980,10 +9734,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A291" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -10012,10 +9766,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A292" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -10044,10 +9798,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A293" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -10076,10 +9830,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A294" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -10108,10 +9862,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A295" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -10140,10 +9894,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A296" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -10172,10 +9926,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A297" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -10204,10 +9958,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A298" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -10236,10 +9990,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A299" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -10268,10 +10022,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A300" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -10300,10 +10054,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A301" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -10332,10 +10086,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A302" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -10364,10 +10118,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A303" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -10396,10 +10150,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A304" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -10428,10 +10182,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A305" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -10460,10 +10214,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A306" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -10492,10 +10246,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A307" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -10524,10 +10278,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A308" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -10556,10 +10310,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A309" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -10588,10 +10342,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A310" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -10620,10 +10374,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A311" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -10652,10 +10406,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A312" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -10684,10 +10438,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A313" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -10716,10 +10470,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A314" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -10748,10 +10502,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A315" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -10780,10 +10534,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A316" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -10812,10 +10566,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A317" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -10844,10 +10598,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A318" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -10876,10 +10630,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A319" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -10908,10 +10662,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A320" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -10940,10 +10694,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A321" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -10972,10 +10726,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A322" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -11004,10 +10758,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A323" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -11036,10 +10790,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A324" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -11068,10 +10822,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A325" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -11100,10 +10854,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A326" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -11132,10 +10886,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A327" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -11164,10 +10918,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A328" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -11196,10 +10950,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A329" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -11228,10 +10982,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A330" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -11260,10 +11014,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A331" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -11292,10 +11046,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A332" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -11324,10 +11078,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A333" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -11356,10 +11110,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A334" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -11388,10 +11142,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A335" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -11420,10 +11174,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A336" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -11452,10 +11206,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A337" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -11484,10 +11238,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A338" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -11516,10 +11270,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A339" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -11548,10 +11302,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A340" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -11580,10 +11334,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A341" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -11612,10 +11366,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A342" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -11644,10 +11398,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A343" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -11676,10 +11430,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A344" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -11708,10 +11462,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A345" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -11740,10 +11494,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A346" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -11772,10 +11526,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A347" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -11804,10 +11558,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A348" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -11836,10 +11590,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A349" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -11868,10 +11622,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A350" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -11900,10 +11654,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A351" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -11932,10 +11686,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A352" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -11964,10 +11718,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A353" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -11996,10 +11750,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A354" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -12028,10 +11782,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A355" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -12060,10 +11814,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A356" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -12092,10 +11846,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A357" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -12124,10 +11878,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A358" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
@@ -12156,10 +11910,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A359" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -12188,10 +11942,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A360" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
@@ -12220,10 +11974,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A361" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
@@ -12252,10 +12006,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A362" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -12284,10 +12038,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A363" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -12316,10 +12070,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A364" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -12348,10 +12102,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A365" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -12380,10 +12134,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A366" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
@@ -12412,10 +12166,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A367" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
@@ -12444,10 +12198,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A368" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -12476,10 +12230,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A369" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
@@ -12508,10 +12262,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A370" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
@@ -12540,10 +12294,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A371" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
@@ -12572,10 +12326,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A372" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
@@ -12604,10 +12358,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A373" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -12636,10 +12390,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A374" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
@@ -12668,10 +12422,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A375" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -12700,10 +12454,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A376" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
@@ -12732,10 +12486,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A377" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -12764,10 +12518,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A378" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
@@ -12796,10 +12550,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A379" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
@@ -12828,10 +12582,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A380" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
@@ -12860,10 +12614,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A381" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -12892,10 +12646,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A382" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
@@ -12924,10 +12678,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A383" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
@@ -12956,10 +12710,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A384" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -12988,10 +12742,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A385" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -13020,10 +12774,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A386" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
@@ -13052,10 +12806,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A387" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
@@ -13084,10 +12838,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A388" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
@@ -13116,10 +12870,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A389" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -13148,10 +12902,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A390" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -13180,10 +12934,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A391" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -13212,10 +12966,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A392" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -13244,10 +12998,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A393" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -13276,10 +13030,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A394" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
@@ -13308,10 +13062,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A395" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -13340,10 +13094,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A396" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
@@ -13372,10 +13126,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A397" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -13404,10 +13158,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A398" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
@@ -13436,10 +13190,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A399" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -13468,10 +13222,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A400" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -13500,10 +13254,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A401" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
@@ -13532,10 +13286,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A402" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -13564,10 +13318,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A403" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -13596,10 +13350,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A404" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -13628,10 +13382,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A405" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
@@ -13660,10 +13414,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A406" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
@@ -13692,10 +13446,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A407" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
@@ -13724,10 +13478,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A408" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -13756,10 +13510,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A409" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -13788,10 +13542,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A410" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
@@ -13820,10 +13574,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A411" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
@@ -13852,10 +13606,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A412" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
@@ -13884,10 +13638,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A413" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
@@ -13916,10 +13670,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A414" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
@@ -13948,10 +13702,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A415" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
@@ -13980,10 +13734,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A416" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
@@ -14012,10 +13766,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A417" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -14044,10 +13798,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A418" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
@@ -14076,10 +13830,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A419" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
@@ -14108,10 +13862,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A420" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
@@ -14140,10 +13894,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A421" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
@@ -14172,10 +13926,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A422" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
@@ -14204,10 +13958,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A423" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -14236,10 +13990,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A424" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -14268,10 +14022,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A425" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -14300,10 +14054,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A426" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
@@ -14332,10 +14086,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A427" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -14364,10 +14118,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A428" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -14396,10 +14150,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A429" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -14428,10 +14182,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A430" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -14460,10 +14214,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A431" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -14492,10 +14246,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A432" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -14524,10 +14278,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A433" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -14556,10 +14310,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A434" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -14588,10 +14342,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A435" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -14620,10 +14374,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A436" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -14652,10 +14406,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A437" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -14684,10 +14438,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A438" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -14716,10 +14470,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A439" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -14748,10 +14502,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A440" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -14780,10 +14534,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A441" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -14812,10 +14566,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A442" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -14844,10 +14598,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A443" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -14876,10 +14630,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A444" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -14908,10 +14662,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A445" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -14940,10 +14694,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A446" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -14972,10 +14726,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A447" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -15004,10 +14758,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A448" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -15036,10 +14790,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A449" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -15068,10 +14822,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A450" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -15100,10 +14854,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A451" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -15132,10 +14886,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A452" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="93">
   <si>
     <t>job_name</t>
   </si>
@@ -22,10 +22,274 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.inhouse_android__daily_disk_space_analysis_temp_13dec</t>
+    <t>silver.supply__addresses_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/addresses</t>
+  </si>
+  <si>
+    <t>silver.msg_feed__catalogs_served_report_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_feed/catalogs_served_report</t>
+  </si>
+  <si>
+    <t>silver.supply__catalogs_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/catalogs_repartition</t>
+  </si>
+  <si>
+    <t>silver.supply__orders_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/orders_schema_change</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__pdp_time_spend_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/pdp_time_spend</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_notification_requests_proto_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_requests_proto</t>
+  </si>
+  <si>
+    <t>silver.supplier_orders__sub_order_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_orders/sub_order</t>
+  </si>
+  <si>
+    <t>silver.supply__users_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/users</t>
+  </si>
+  <si>
+    <t>silver.supplier_payment__supplier_payment_order_detail_payments_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_payment/supplier_payment_order_detail_payments_schema_change_schema_change</t>
+  </si>
+  <si>
+    <t>silver.tracking__tracking_user_app_tracking_3_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/tracking/tracking_user_app_tracking_3</t>
+  </si>
+  <si>
+    <t>silver.supply__order_details_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/order_details_schema_change</t>
+  </si>
+  <si>
+    <t>silver.inventory__product_supplier_variation_map_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inventory/product_supplier_variation_map_new</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__catalog_collage_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/catalog_collage</t>
+  </si>
+  <si>
+    <t>silver.inventory__supplier_catalog_management_details_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inventory/supplier_catalog_management_details</t>
+  </si>
+  <si>
+    <t>silver.ums__user_profile_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ums/user_profile</t>
+  </si>
+  <si>
+    <t>silver.ums__user_attributes_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ums/user_attributes</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__screen_visited_test_dbc_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/screen_visited_test</t>
+  </si>
+  <si>
+    <t>silver.review__reviews_record_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/review/reviews_record_repartition</t>
+  </si>
+  <si>
+    <t>silver.supply__product_supplier_map_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/product_supplier_map_2021_04_21</t>
+  </si>
+  <si>
+    <t>silver.price__product_supplier_price_map_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/product_supplier_price_map_new</t>
+  </si>
+  <si>
+    <t>silver.supply__shipment_details_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/shipment_details_schema_change</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__taxonomy_attribute_store_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/taxonomy_attribute_store_repartition</t>
+  </si>
+  <si>
+    <t>silver.supply__products_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/products_repartition</t>
+  </si>
+  <si>
+    <t>silver.bulk_catalog__user_catalog_share_map_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/bulk_catalog/user_catalog_share_map_08_23</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__video_review_progress_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/video_review_progress</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__widget_views_report_clone_test_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/widget_views_report_2021_04_20_clone_test</t>
+  </si>
+  <si>
+    <t>silver.supply__order_timeline_3_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/order_timeline_3</t>
+  </si>
+  <si>
+    <t>silver.ml_platform__catalog_tracking_sse_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ml_platform/catalog_tracking_sse</t>
+  </si>
+  <si>
+    <t>silver.supply__supplier_order_details_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/supplier_order_details_schema_change</t>
+  </si>
+  <si>
+    <t>silver.invoice__reseller_to_customer_invoices_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/invoice/reseller_to_customer_invoices_2021_04_16</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_pdp_time_spend_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_pdp_time_spend</t>
+  </si>
+  <si>
+    <t>silver.invoice__supplier_to_reseller_invoices_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/invoice/supplier_to_reseller_invoices_2021_04_16</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_notification_records_proto_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_records_proto</t>
+  </si>
+  <si>
+    <t>silver.msg_ctqct__ctqct_v2_for_you_catalogs_served_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ctqct/ctqct_v2_for_you_catalogs_served_repartition</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__taxonomy_product_supplier_map_attributes_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/taxonomy_product_supplier_map_attributes</t>
+  </si>
+  <si>
+    <t>silver.supply__order_detail_requests_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/order_detail_requests_schema_change</t>
+  </si>
+  <si>
+    <t>silver.msg_ds_image_insights__ds_demand_prediction_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ds_image_insights/ds_demand_prediction</t>
+  </si>
+  <si>
+    <t>silver.msg_search__search_query_catalog_mapping_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_search/search_query_catalog_mapping</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__review_video_play_pause_clicked_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/review_video_play_pause_clicked</t>
+  </si>
+  <si>
+    <t>silver.supply__orders_logs_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/orders_logs_schema_change</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__daily_disk_space_analysis_temp_14dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/inhouse_android/daily_disk_space_analysis_temp</t>
+  </si>
+  <si>
+    <t>silver.supply_orchestrator__listing_optimiser_product_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_orchestrator/listing_optimiser_product</t>
+  </si>
+  <si>
+    <t>silver.supply__order_details_attributes_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/order_details_attributes_schema_change</t>
+  </si>
+  <si>
+    <t>silver.msg_search__search_sessions_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_search/search_sessions</t>
+  </si>
+  <si>
+    <t>silver.supplier_orders__shipment_14dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_orders/shipment</t>
   </si>
   <si>
     <t/>
@@ -517,11 +781,11 @@
       <c r="Z2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -549,11 +813,11 @@
       <c r="Z3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -581,11 +845,11 @@
       <c r="Z4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -613,11 +877,11 @@
       <c r="Z5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -645,11 +909,11 @@
       <c r="Z6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -677,11 +941,11 @@
       <c r="Z7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -709,11 +973,11 @@
       <c r="Z8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -741,11 +1005,11 @@
       <c r="Z9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -773,11 +1037,11 @@
       <c r="Z10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -805,11 +1069,11 @@
       <c r="Z11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -837,11 +1101,11 @@
       <c r="Z12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -869,11 +1133,11 @@
       <c r="Z13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>4</v>
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -901,11 +1165,11 @@
       <c r="Z14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -933,11 +1197,11 @@
       <c r="Z15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -965,11 +1229,11 @@
       <c r="Z16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>4</v>
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -997,11 +1261,11 @@
       <c r="Z17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>4</v>
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1029,11 +1293,11 @@
       <c r="Z18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1061,11 +1325,11 @@
       <c r="Z19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1093,11 +1357,11 @@
       <c r="Z20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>4</v>
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1125,11 +1389,11 @@
       <c r="Z21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>4</v>
+      <c r="A22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1157,11 +1421,11 @@
       <c r="Z22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>4</v>
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1189,11 +1453,11 @@
       <c r="Z23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>4</v>
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1221,11 +1485,11 @@
       <c r="Z24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>4</v>
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1253,11 +1517,11 @@
       <c r="Z25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>4</v>
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1285,11 +1549,11 @@
       <c r="Z26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>4</v>
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1317,11 +1581,11 @@
       <c r="Z27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>4</v>
+      <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1349,11 +1613,11 @@
       <c r="Z28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>4</v>
+      <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1381,11 +1645,11 @@
       <c r="Z29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>4</v>
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1413,11 +1677,11 @@
       <c r="Z30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>4</v>
+      <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1445,11 +1709,11 @@
       <c r="Z31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>4</v>
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1477,11 +1741,11 @@
       <c r="Z32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>4</v>
+      <c r="A33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1509,11 +1773,11 @@
       <c r="Z33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>4</v>
+      <c r="A34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1541,11 +1805,11 @@
       <c r="Z34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>4</v>
+      <c r="A35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1573,11 +1837,11 @@
       <c r="Z35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>4</v>
+      <c r="A36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1605,11 +1869,11 @@
       <c r="Z36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
+      <c r="A37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1637,11 +1901,11 @@
       <c r="Z37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>4</v>
+      <c r="A38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1669,11 +1933,11 @@
       <c r="Z38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>4</v>
+      <c r="A39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1701,11 +1965,11 @@
       <c r="Z39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>4</v>
+      <c r="A40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1733,11 +1997,11 @@
       <c r="Z40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>4</v>
+      <c r="A41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1765,11 +2029,11 @@
       <c r="Z41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>4</v>
+      <c r="A42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1797,11 +2061,11 @@
       <c r="Z42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>4</v>
+      <c r="A43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1829,11 +2093,11 @@
       <c r="Z43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>4</v>
+      <c r="A44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1861,11 +2125,11 @@
       <c r="Z44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>4</v>
+      <c r="A45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1893,11 +2157,11 @@
       <c r="Z45" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>4</v>
+      <c r="A46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1926,10 +2190,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A47" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1958,10 +2222,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A48" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1990,10 +2254,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A49" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2022,10 +2286,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A50" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2054,10 +2318,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A51" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2086,10 +2350,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A52" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2118,10 +2382,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A53" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2150,10 +2414,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A54" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2182,10 +2446,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A55" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2214,10 +2478,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A56" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2246,10 +2510,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A57" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2278,10 +2542,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A58" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2310,10 +2574,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A59" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2342,10 +2606,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A60" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2374,10 +2638,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A61" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2406,10 +2670,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A62" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2438,10 +2702,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A63" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2470,10 +2734,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A64" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2502,10 +2766,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A65" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2534,10 +2798,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A66" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2566,10 +2830,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A67" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2598,10 +2862,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A68" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2630,10 +2894,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A69" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2662,10 +2926,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A70" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2694,10 +2958,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A71" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2726,10 +2990,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A72" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2758,10 +3022,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A73" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -2790,10 +3054,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A74" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2822,10 +3086,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A75" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2854,10 +3118,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A76" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2886,10 +3150,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A77" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -2918,10 +3182,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A78" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -2950,10 +3214,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A79" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -2982,10 +3246,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A80" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3014,10 +3278,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A81" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3046,10 +3310,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A82" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3078,10 +3342,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A83" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3110,10 +3374,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A84" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3142,10 +3406,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A85" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3174,10 +3438,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A86" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -3206,10 +3470,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A87" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3238,10 +3502,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A88" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -3270,10 +3534,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A89" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3302,10 +3566,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A90" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3334,10 +3598,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A91" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3366,10 +3630,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A92" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3398,10 +3662,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A93" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3430,10 +3694,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A94" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3462,10 +3726,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A95" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3494,10 +3758,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A96" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3526,10 +3790,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A97" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3558,10 +3822,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A98" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3590,10 +3854,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A99" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3622,10 +3886,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A100" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3654,10 +3918,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A101" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3686,10 +3950,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A102" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3718,10 +3982,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A103" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3750,10 +4014,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A104" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -3782,10 +4046,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A105" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -3814,10 +4078,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A106" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3846,10 +4110,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A107" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -3878,10 +4142,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A108" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -3910,10 +4174,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A109" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3942,10 +4206,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A110" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3974,10 +4238,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A111" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -4006,10 +4270,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A112" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4038,10 +4302,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A113" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4070,10 +4334,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A114" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4102,10 +4366,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A115" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4134,10 +4398,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A116" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4166,10 +4430,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A117" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -4198,10 +4462,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A118" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -4230,10 +4494,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A119" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -4262,10 +4526,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A120" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -4294,10 +4558,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A121" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4326,10 +4590,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A122" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -4358,10 +4622,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A123" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -4390,10 +4654,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A124" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4422,10 +4686,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A125" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -4454,10 +4718,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A126" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -4486,10 +4750,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A127" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4518,10 +4782,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A128" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -4550,10 +4814,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A129" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -4582,10 +4846,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A130" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -4614,10 +4878,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A131" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -4646,10 +4910,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A132" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -4678,10 +4942,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A133" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -4710,10 +4974,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A134" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -4742,10 +5006,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A135" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -4774,10 +5038,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A136" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -4806,10 +5070,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A137" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -4838,10 +5102,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A138" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -4870,10 +5134,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A139" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -4902,10 +5166,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A140" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -4934,10 +5198,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A141" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -4966,10 +5230,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A142" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -4998,10 +5262,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A143" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -5030,10 +5294,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A144" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -5062,10 +5326,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A145" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -5094,10 +5358,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A146" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -5126,10 +5390,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A147" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -5158,10 +5422,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A148" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -5190,10 +5454,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A149" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -5222,10 +5486,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A150" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -5254,10 +5518,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A151" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -5286,10 +5550,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A152" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -5318,10 +5582,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A153" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -5350,10 +5614,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A154" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -5382,10 +5646,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A155" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -5414,10 +5678,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A156" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -5446,10 +5710,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A157" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -5478,10 +5742,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A158" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -5510,10 +5774,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A159" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -5542,10 +5806,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A160" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -5574,10 +5838,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A161" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -5606,10 +5870,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A162" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -5638,10 +5902,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A163" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -5670,10 +5934,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A164" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -5702,10 +5966,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A165" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -5734,10 +5998,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A166" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -5766,10 +6030,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A167" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -5798,10 +6062,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A168" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -5830,10 +6094,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A169" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -5862,10 +6126,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A170" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -5894,10 +6158,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A171" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -5926,10 +6190,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A172" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -5958,10 +6222,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A173" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -5990,10 +6254,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A174" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -6022,10 +6286,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A175" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -6054,10 +6318,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A176" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -6086,10 +6350,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A177" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -6118,10 +6382,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A178" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -6150,10 +6414,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A179" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -6182,10 +6446,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A180" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -6214,10 +6478,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A181" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -6246,10 +6510,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A182" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -6278,10 +6542,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A183" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -6310,10 +6574,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A184" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -6342,10 +6606,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A185" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -6374,10 +6638,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A186" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -6406,10 +6670,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A187" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -6438,10 +6702,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A188" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -6470,10 +6734,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A189" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -6502,10 +6766,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A190" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -6534,10 +6798,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A191" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -6566,10 +6830,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A192" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -6598,10 +6862,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A193" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -6630,10 +6894,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A194" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -6662,10 +6926,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A195" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -6694,10 +6958,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A196" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -6726,10 +6990,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A197" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -6758,10 +7022,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A198" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -6790,10 +7054,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A199" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -6822,10 +7086,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A200" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -6854,10 +7118,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A201" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -6886,10 +7150,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A202" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -6918,10 +7182,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A203" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -6950,10 +7214,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A204" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -6982,10 +7246,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A205" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -7014,10 +7278,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A206" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -7046,10 +7310,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A207" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -7078,10 +7342,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A208" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -7110,10 +7374,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A209" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -7142,10 +7406,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A210" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -7174,10 +7438,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A211" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -7206,10 +7470,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A212" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -7238,10 +7502,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A213" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -7270,10 +7534,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A214" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -7302,10 +7566,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A215" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -7334,10 +7598,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A216" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -7366,10 +7630,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A217" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -7398,10 +7662,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A218" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -7430,10 +7694,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A219" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -7462,10 +7726,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A220" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -7494,10 +7758,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A221" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -7526,10 +7790,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A222" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -7558,10 +7822,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A223" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -7590,10 +7854,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A224" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -7622,10 +7886,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A225" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -7654,10 +7918,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A226" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -7686,10 +7950,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A227" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -7718,10 +7982,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A228" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -7750,10 +8014,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A229" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -7782,10 +8046,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A230" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -7814,10 +8078,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A231" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -7846,10 +8110,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A232" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -7878,10 +8142,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A233" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -7910,10 +8174,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A234" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -7942,10 +8206,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A235" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -7974,10 +8238,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A236" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -8006,10 +8270,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A237" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -8038,10 +8302,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A238" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -8070,10 +8334,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A239" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -8102,10 +8366,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A240" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -8134,10 +8398,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A241" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -8166,10 +8430,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A242" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -8198,10 +8462,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A243" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -8230,10 +8494,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A244" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -8262,10 +8526,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A245" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -8294,10 +8558,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A246" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -8326,10 +8590,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A247" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -8358,10 +8622,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A248" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -8390,10 +8654,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A249" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -8422,10 +8686,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A250" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -8454,10 +8718,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A251" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -8486,10 +8750,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A252" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -8518,10 +8782,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A253" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -8550,10 +8814,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A254" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -8582,10 +8846,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A255" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -8614,10 +8878,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A256" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -8646,10 +8910,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A257" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -8678,10 +8942,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A258" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -8710,10 +8974,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A259" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -8742,10 +9006,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A260" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -8774,10 +9038,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A261" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -8806,10 +9070,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A262" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -8838,10 +9102,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A263" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -8870,10 +9134,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A264" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -8902,10 +9166,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A265" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -8934,10 +9198,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A266" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -8966,10 +9230,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A267" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -8998,10 +9262,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A268" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -9030,10 +9294,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A269" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -9062,10 +9326,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A270" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -9094,10 +9358,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A271" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -9126,10 +9390,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A272" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -9158,10 +9422,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A273" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -9190,10 +9454,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A274" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -9222,10 +9486,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A275" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -9254,10 +9518,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A276" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -9286,10 +9550,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A277" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -9318,10 +9582,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A278" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -9350,10 +9614,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A279" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -9382,10 +9646,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A280" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -9414,10 +9678,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A281" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -9446,10 +9710,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A282" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -9478,10 +9742,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A283" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -9510,10 +9774,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A284" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -9542,10 +9806,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A285" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -9574,10 +9838,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A286" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -9606,10 +9870,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A287" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -9638,10 +9902,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A288" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -9670,10 +9934,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A289" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -9702,10 +9966,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A290" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -9734,10 +9998,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A291" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -9766,10 +10030,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A292" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -9798,10 +10062,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A293" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -9830,10 +10094,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A294" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -9862,10 +10126,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A295" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -9894,10 +10158,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A296" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -9926,10 +10190,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A297" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -9958,10 +10222,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A298" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -9990,10 +10254,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A299" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -10022,10 +10286,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A300" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -10054,10 +10318,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A301" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -10086,10 +10350,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A302" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -10118,10 +10382,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A303" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -10150,10 +10414,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A304" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -10182,10 +10446,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A305" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -10214,10 +10478,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A306" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -10246,10 +10510,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A307" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -10278,10 +10542,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A308" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -10310,10 +10574,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A309" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -10342,10 +10606,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A310" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -10374,10 +10638,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A311" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -10406,10 +10670,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A312" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -10438,10 +10702,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A313" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -10470,10 +10734,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A314" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -10502,10 +10766,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A315" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -10534,10 +10798,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A316" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -10566,10 +10830,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A317" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -10598,10 +10862,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A318" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -10630,10 +10894,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A319" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -10662,10 +10926,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A320" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -10694,10 +10958,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A321" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -10726,10 +10990,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A322" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -10758,10 +11022,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A323" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -10790,10 +11054,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A324" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -10822,10 +11086,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A325" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -10854,10 +11118,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A326" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -10886,10 +11150,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A327" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -10918,10 +11182,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A328" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -10950,10 +11214,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A329" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -10982,10 +11246,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A330" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -11014,10 +11278,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A331" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -11046,10 +11310,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A332" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -11078,10 +11342,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A333" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -11110,10 +11374,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A334" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -11142,10 +11406,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A335" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -11174,10 +11438,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A336" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -11206,10 +11470,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A337" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -11238,10 +11502,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A338" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -11270,10 +11534,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A339" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -11302,10 +11566,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A340" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -11334,10 +11598,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A341" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -11366,10 +11630,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A342" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -11398,10 +11662,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A343" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -11430,10 +11694,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A344" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -11462,10 +11726,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A345" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -11494,10 +11758,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A346" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -11526,10 +11790,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A347" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -11558,10 +11822,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A348" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -11590,10 +11854,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A349" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -11622,10 +11886,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A350" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -11654,10 +11918,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A351" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -11686,10 +11950,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A352" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -11718,10 +11982,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A353" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -11750,10 +12014,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A354" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -11782,10 +12046,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A355" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -11814,10 +12078,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A356" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -11846,10 +12110,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A357" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -11878,10 +12142,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A358" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
@@ -11910,10 +12174,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A359" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -11942,10 +12206,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A360" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
@@ -11974,10 +12238,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A361" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
@@ -12006,10 +12270,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A362" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -12038,10 +12302,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A363" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -12070,10 +12334,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A364" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -12102,10 +12366,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A365" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -12134,10 +12398,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A366" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
@@ -12166,10 +12430,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A367" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
@@ -12198,10 +12462,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A368" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -12230,10 +12494,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A369" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
@@ -12262,10 +12526,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A370" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
@@ -12294,10 +12558,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A371" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
@@ -12326,10 +12590,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A372" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
@@ -12358,10 +12622,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A373" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -12390,10 +12654,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A374" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
@@ -12422,10 +12686,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A375" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -12454,10 +12718,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A376" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
@@ -12486,10 +12750,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A377" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -12518,10 +12782,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A378" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
@@ -12550,10 +12814,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A379" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
@@ -12582,10 +12846,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A380" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
@@ -12614,10 +12878,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A381" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -12646,10 +12910,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A382" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
@@ -12678,10 +12942,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A383" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
@@ -12710,10 +12974,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A384" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -12742,10 +13006,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A385" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -12774,10 +13038,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A386" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
@@ -12806,10 +13070,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A387" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
@@ -12838,10 +13102,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A388" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
@@ -12870,10 +13134,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A389" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -12902,10 +13166,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A390" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -12934,10 +13198,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A391" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -12966,10 +13230,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A392" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -12998,10 +13262,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A393" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -13030,10 +13294,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A394" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
@@ -13062,10 +13326,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A395" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -13094,10 +13358,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A396" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
@@ -13126,10 +13390,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A397" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -13158,10 +13422,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A398" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
@@ -13190,10 +13454,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A399" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -13222,10 +13486,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A400" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -13254,10 +13518,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A401" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
@@ -13286,10 +13550,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A402" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -13318,10 +13582,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A403" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -13350,10 +13614,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A404" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -13382,10 +13646,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A405" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
@@ -13414,10 +13678,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A406" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
@@ -13446,10 +13710,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A407" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
@@ -13478,10 +13742,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A408" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -13510,10 +13774,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A409" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -13542,10 +13806,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A410" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
@@ -13574,10 +13838,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A411" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
@@ -13606,10 +13870,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A412" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
@@ -13638,10 +13902,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A413" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
@@ -13670,10 +13934,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A414" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
@@ -13702,10 +13966,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A415" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
@@ -13734,10 +13998,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A416" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
@@ -13766,10 +14030,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A417" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -13798,10 +14062,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A418" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
@@ -13830,10 +14094,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A419" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
@@ -13862,10 +14126,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A420" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
@@ -13894,10 +14158,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A421" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
@@ -13926,10 +14190,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A422" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
@@ -13958,10 +14222,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A423" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -13990,10 +14254,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A424" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -14022,10 +14286,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A425" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -14054,10 +14318,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A426" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
@@ -14086,10 +14350,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A427" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -14118,10 +14382,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A428" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -14150,10 +14414,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A429" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -14182,10 +14446,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A430" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -14214,10 +14478,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A431" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -14246,10 +14510,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A432" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -14278,10 +14542,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A433" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -14310,10 +14574,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A434" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -14342,10 +14606,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A435" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -14374,10 +14638,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A436" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -14406,10 +14670,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A437" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -14438,10 +14702,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A438" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -14470,10 +14734,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A439" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -14502,10 +14766,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A440" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -14534,10 +14798,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A441" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -14566,10 +14830,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A442" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -14598,10 +14862,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A443" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -14630,10 +14894,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A444" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -14662,10 +14926,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A445" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -14694,10 +14958,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A446" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -14726,10 +14990,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A447" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -14758,10 +15022,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A448" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -14790,10 +15054,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A449" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -14822,10 +15086,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A450" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -14854,10 +15118,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A451" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -14886,10 +15150,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A452" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="5">
   <si>
     <t>job_name</t>
   </si>
@@ -22,274 +22,10 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.supply__addresses_14dec</t>
+    <t>silver.shipments__shipment_tracking_2k19_14dec</t>
   </si>
   <si>
-    <t>delta_lake/SILVER/supply/addresses</t>
-  </si>
-  <si>
-    <t>silver.msg_feed__catalogs_served_report_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_feed/catalogs_served_report</t>
-  </si>
-  <si>
-    <t>silver.supply__catalogs_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/catalogs_repartition</t>
-  </si>
-  <si>
-    <t>silver.supply__orders_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/orders_schema_change</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pdp_time_spend_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pdp_time_spend</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_notification_requests_proto_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_requests_proto</t>
-  </si>
-  <si>
-    <t>silver.supplier_orders__sub_order_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_orders/sub_order</t>
-  </si>
-  <si>
-    <t>silver.supply__users_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/users</t>
-  </si>
-  <si>
-    <t>silver.supplier_payment__supplier_payment_order_detail_payments_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_payment/supplier_payment_order_detail_payments_schema_change_schema_change</t>
-  </si>
-  <si>
-    <t>silver.tracking__tracking_user_app_tracking_3_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/tracking/tracking_user_app_tracking_3</t>
-  </si>
-  <si>
-    <t>silver.supply__order_details_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/order_details_schema_change</t>
-  </si>
-  <si>
-    <t>silver.inventory__product_supplier_variation_map_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inventory/product_supplier_variation_map_new</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__catalog_collage_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/catalog_collage</t>
-  </si>
-  <si>
-    <t>silver.inventory__supplier_catalog_management_details_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inventory/supplier_catalog_management_details</t>
-  </si>
-  <si>
-    <t>silver.ums__user_profile_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ums/user_profile</t>
-  </si>
-  <si>
-    <t>silver.ums__user_attributes_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ums/user_attributes</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__screen_visited_test_dbc_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/screen_visited_test</t>
-  </si>
-  <si>
-    <t>silver.review__reviews_record_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/review/reviews_record_repartition</t>
-  </si>
-  <si>
-    <t>silver.supply__product_supplier_map_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/product_supplier_map_2021_04_21</t>
-  </si>
-  <si>
-    <t>silver.price__product_supplier_price_map_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/product_supplier_price_map_new</t>
-  </si>
-  <si>
-    <t>silver.supply__shipment_details_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/shipment_details_schema_change</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__taxonomy_attribute_store_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/taxonomy_attribute_store_repartition</t>
-  </si>
-  <si>
-    <t>silver.supply__products_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/products_repartition</t>
-  </si>
-  <si>
-    <t>silver.bulk_catalog__user_catalog_share_map_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bulk_catalog/user_catalog_share_map_08_23</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__video_review_progress_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/video_review_progress</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__widget_views_report_clone_test_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/widget_views_report_2021_04_20_clone_test</t>
-  </si>
-  <si>
-    <t>silver.supply__order_timeline_3_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/order_timeline_3</t>
-  </si>
-  <si>
-    <t>silver.ml_platform__catalog_tracking_sse_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ml_platform/catalog_tracking_sse</t>
-  </si>
-  <si>
-    <t>silver.supply__supplier_order_details_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/supplier_order_details_schema_change</t>
-  </si>
-  <si>
-    <t>silver.invoice__reseller_to_customer_invoices_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/invoice/reseller_to_customer_invoices_2021_04_16</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_pdp_time_spend_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_pdp_time_spend</t>
-  </si>
-  <si>
-    <t>silver.invoice__supplier_to_reseller_invoices_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/invoice/supplier_to_reseller_invoices_2021_04_16</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_notification_records_proto_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_records_proto</t>
-  </si>
-  <si>
-    <t>silver.msg_ctqct__ctqct_v2_for_you_catalogs_served_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ctqct/ctqct_v2_for_you_catalogs_served_repartition</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__taxonomy_product_supplier_map_attributes_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/taxonomy_product_supplier_map_attributes</t>
-  </si>
-  <si>
-    <t>silver.supply__order_detail_requests_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/order_detail_requests_schema_change</t>
-  </si>
-  <si>
-    <t>silver.msg_ds_image_insights__ds_demand_prediction_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ds_image_insights/ds_demand_prediction</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_query_catalog_mapping_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_query_catalog_mapping</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__review_video_play_pause_clicked_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/review_video_play_pause_clicked</t>
-  </si>
-  <si>
-    <t>silver.supply__orders_logs_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/orders_logs_schema_change</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__daily_disk_space_analysis_temp_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/daily_disk_space_analysis_temp</t>
-  </si>
-  <si>
-    <t>silver.supply_orchestrator__listing_optimiser_product_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_orchestrator/listing_optimiser_product</t>
-  </si>
-  <si>
-    <t>silver.supply__order_details_attributes_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/order_details_attributes_schema_change</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_sessions_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_sessions</t>
-  </si>
-  <si>
-    <t>silver.supplier_orders__shipment_14dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_orders/shipment</t>
+    <t>delta_lake/SILVER/shipments/shipment_tracking_2k19_new</t>
   </si>
   <si>
     <t/>
@@ -310,7 +46,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -716,7 +452,7 @@
     <col min="26" max="26" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -748,7 +484,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="68.25" customFormat="1" s="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -781,11 +517,11 @@
       <c r="Z2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -813,11 +549,11 @@
       <c r="Z3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -845,11 +581,11 @@
       <c r="Z4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
+      <c r="A5" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -877,11 +613,11 @@
       <c r="Z5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
+      <c r="A6" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -909,11 +645,11 @@
       <c r="Z6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
+      <c r="A7" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -941,11 +677,11 @@
       <c r="Z7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -973,11 +709,11 @@
       <c r="Z8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
+      <c r="A9" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1004,12 +740,12 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="29.25" customFormat="1" s="1">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1037,11 +773,11 @@
       <c r="Z10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
+      <c r="A11" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1069,11 +805,11 @@
       <c r="Z11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
+      <c r="A12" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1101,11 +837,11 @@
       <c r="Z12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
+      <c r="A13" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1133,11 +869,11 @@
       <c r="Z13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
+      <c r="A14" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1165,11 +901,11 @@
       <c r="Z14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
+      <c r="A15" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1197,11 +933,11 @@
       <c r="Z15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
+      <c r="A16" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1229,11 +965,11 @@
       <c r="Z16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
+      <c r="A17" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1261,11 +997,11 @@
       <c r="Z17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
+      <c r="A18" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1293,11 +1029,11 @@
       <c r="Z18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
+      <c r="A19" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1325,11 +1061,11 @@
       <c r="Z19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
+      <c r="A20" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1357,11 +1093,11 @@
       <c r="Z20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
+      <c r="A21" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1389,11 +1125,11 @@
       <c r="Z21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
+      <c r="A22" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
+      <c r="B22" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1421,11 +1157,11 @@
       <c r="Z22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
+      <c r="A23" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1453,11 +1189,11 @@
       <c r="Z23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A24" s="3" t="s">
-        <v>46</v>
+      <c r="A24" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
+      <c r="B24" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1485,11 +1221,11 @@
       <c r="Z24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
+      <c r="A25" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>49</v>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1517,11 +1253,11 @@
       <c r="Z25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
+      <c r="A26" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1549,11 +1285,11 @@
       <c r="Z26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
+      <c r="A27" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>53</v>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1581,11 +1317,11 @@
       <c r="Z27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A28" s="3" t="s">
-        <v>54</v>
+      <c r="A28" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>55</v>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1613,11 +1349,11 @@
       <c r="Z28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A29" s="3" t="s">
-        <v>56</v>
+      <c r="A29" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>57</v>
+      <c r="B29" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1645,11 +1381,11 @@
       <c r="Z29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A30" s="3" t="s">
-        <v>58</v>
+      <c r="A30" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>59</v>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1677,11 +1413,11 @@
       <c r="Z30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A31" s="3" t="s">
-        <v>60</v>
+      <c r="A31" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>61</v>
+      <c r="B31" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1709,11 +1445,11 @@
       <c r="Z31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A32" s="3" t="s">
-        <v>62</v>
+      <c r="A32" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>63</v>
+      <c r="B32" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1741,11 +1477,11 @@
       <c r="Z32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A33" s="3" t="s">
-        <v>64</v>
+      <c r="A33" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>65</v>
+      <c r="B33" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1773,11 +1509,11 @@
       <c r="Z33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A34" s="3" t="s">
-        <v>66</v>
+      <c r="A34" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>67</v>
+      <c r="B34" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1805,11 +1541,11 @@
       <c r="Z34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A35" s="3" t="s">
-        <v>68</v>
+      <c r="A35" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>69</v>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1837,11 +1573,11 @@
       <c r="Z35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A36" s="3" t="s">
-        <v>70</v>
+      <c r="A36" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>71</v>
+      <c r="B36" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1869,11 +1605,11 @@
       <c r="Z36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A37" s="3" t="s">
-        <v>72</v>
+      <c r="A37" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>73</v>
+      <c r="B37" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1901,11 +1637,11 @@
       <c r="Z37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A38" s="3" t="s">
-        <v>74</v>
+      <c r="A38" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>75</v>
+      <c r="B38" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1933,11 +1669,11 @@
       <c r="Z38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A39" s="3" t="s">
-        <v>76</v>
+      <c r="A39" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>77</v>
+      <c r="B39" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1965,11 +1701,11 @@
       <c r="Z39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A40" s="3" t="s">
-        <v>78</v>
+      <c r="A40" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>79</v>
+      <c r="B40" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1997,11 +1733,11 @@
       <c r="Z40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A41" s="3" t="s">
-        <v>80</v>
+      <c r="A41" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>81</v>
+      <c r="B41" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2029,11 +1765,11 @@
       <c r="Z41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A42" s="3" t="s">
-        <v>82</v>
+      <c r="A42" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>83</v>
+      <c r="B42" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2061,11 +1797,11 @@
       <c r="Z42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A43" s="3" t="s">
-        <v>84</v>
+      <c r="A43" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>85</v>
+      <c r="B43" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2093,11 +1829,11 @@
       <c r="Z43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A44" s="3" t="s">
-        <v>86</v>
+      <c r="A44" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>87</v>
+      <c r="B44" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2125,11 +1861,11 @@
       <c r="Z44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A45" s="3" t="s">
-        <v>88</v>
+      <c r="A45" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>89</v>
+      <c r="B45" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2157,11 +1893,11 @@
       <c r="Z45" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A46" s="3" t="s">
-        <v>90</v>
+      <c r="A46" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>91</v>
+      <c r="B46" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2189,12 +1925,8 @@
       <c r="Z46" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A47" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2221,12 +1953,8 @@
       <c r="Z47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A48" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2253,12 +1981,8 @@
       <c r="Z48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A49" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2285,12 +2009,8 @@
       <c r="Z49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A50" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2317,12 +2037,8 @@
       <c r="Z50" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A51" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2349,12 +2065,8 @@
       <c r="Z51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A52" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2381,12 +2093,8 @@
       <c r="Z52" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A53" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2413,12 +2121,8 @@
       <c r="Z53" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A54" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2445,12 +2149,8 @@
       <c r="Z54" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A55" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2477,12 +2177,8 @@
       <c r="Z55" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A56" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2509,12 +2205,8 @@
       <c r="Z56" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A57" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2541,12 +2233,8 @@
       <c r="Z57" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A58" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2573,12 +2261,8 @@
       <c r="Z58" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A59" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -2605,12 +2289,8 @@
       <c r="Z59" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A60" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2637,12 +2317,8 @@
       <c r="Z60" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A61" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2669,12 +2345,8 @@
       <c r="Z61" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A62" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -2701,12 +2373,8 @@
       <c r="Z62" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A63" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -2733,12 +2401,8 @@
       <c r="Z63" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A64" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2765,12 +2429,8 @@
       <c r="Z64" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A65" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2797,12 +2457,8 @@
       <c r="Z65" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A66" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2829,12 +2485,8 @@
       <c r="Z66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A67" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -2861,12 +2513,8 @@
       <c r="Z67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A68" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -2893,12 +2541,8 @@
       <c r="Z68" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A69" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -2925,12 +2569,8 @@
       <c r="Z69" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A70" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2957,12 +2597,8 @@
       <c r="Z70" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A71" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2989,12 +2625,8 @@
       <c r="Z71" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A72" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3021,12 +2653,8 @@
       <c r="Z72" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A73" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3053,12 +2681,8 @@
       <c r="Z73" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A74" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3085,12 +2709,8 @@
       <c r="Z74" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A75" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3117,12 +2737,8 @@
       <c r="Z75" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A76" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3149,12 +2765,8 @@
       <c r="Z76" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A77" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3181,12 +2793,8 @@
       <c r="Z77" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A78" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -3213,12 +2821,8 @@
       <c r="Z78" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A79" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3245,12 +2849,8 @@
       <c r="Z79" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A80" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3277,12 +2877,8 @@
       <c r="Z80" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A81" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3309,12 +2905,8 @@
       <c r="Z81" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A82" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3341,12 +2933,8 @@
       <c r="Z82" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A83" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -3373,12 +2961,8 @@
       <c r="Z83" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A84" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3405,12 +2989,8 @@
       <c r="Z84" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A85" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -3437,12 +3017,8 @@
       <c r="Z85" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A86" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -3469,12 +3045,8 @@
       <c r="Z86" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A87" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -3501,12 +3073,8 @@
       <c r="Z87" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A88" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3533,12 +3101,8 @@
       <c r="Z88" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A89" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3565,12 +3129,8 @@
       <c r="Z89" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A90" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -3597,12 +3157,8 @@
       <c r="Z90" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A91" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -3629,12 +3185,8 @@
       <c r="Z91" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A92" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -3661,12 +3213,8 @@
       <c r="Z92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A93" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -3693,12 +3241,8 @@
       <c r="Z93" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A94" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -3725,12 +3269,8 @@
       <c r="Z94" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A95" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -3757,12 +3297,8 @@
       <c r="Z95" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A96" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -3789,12 +3325,8 @@
       <c r="Z96" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A97" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -3821,12 +3353,8 @@
       <c r="Z97" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A98" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -3853,12 +3381,8 @@
       <c r="Z98" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A99" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -3885,12 +3409,8 @@
       <c r="Z99" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A100" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -3917,12 +3437,8 @@
       <c r="Z100" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A101" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -3949,12 +3465,8 @@
       <c r="Z101" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A102" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -3981,12 +3493,8 @@
       <c r="Z102" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A103" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -4013,12 +3521,8 @@
       <c r="Z103" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A104" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -4045,12 +3549,8 @@
       <c r="Z104" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A105" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -4077,12 +3577,8 @@
       <c r="Z105" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A106" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4109,12 +3605,8 @@
       <c r="Z106" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A107" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4141,12 +3633,8 @@
       <c r="Z107" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A108" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4173,12 +3661,8 @@
       <c r="Z108" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A109" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4205,12 +3689,8 @@
       <c r="Z109" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A110" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -4237,12 +3717,8 @@
       <c r="Z110" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A111" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -4269,12 +3745,8 @@
       <c r="Z111" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A112" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -4301,12 +3773,8 @@
       <c r="Z112" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A113" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -4333,12 +3801,8 @@
       <c r="Z113" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A114" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -4365,12 +3829,8 @@
       <c r="Z114" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A115" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -4397,12 +3857,8 @@
       <c r="Z115" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A116" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -4429,12 +3885,8 @@
       <c r="Z116" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A117" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -4461,12 +3913,8 @@
       <c r="Z117" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A118" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -4493,12 +3941,8 @@
       <c r="Z118" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A119" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -4525,12 +3969,8 @@
       <c r="Z119" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A120" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -4557,12 +3997,8 @@
       <c r="Z120" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A121" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -4589,12 +4025,8 @@
       <c r="Z121" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A122" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -4621,12 +4053,8 @@
       <c r="Z122" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A123" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -4653,12 +4081,8 @@
       <c r="Z123" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A124" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -4685,12 +4109,8 @@
       <c r="Z124" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A125" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -4717,12 +4137,8 @@
       <c r="Z125" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A126" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -4749,12 +4165,8 @@
       <c r="Z126" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A127" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -4781,12 +4193,8 @@
       <c r="Z127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A128" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -4813,12 +4221,8 @@
       <c r="Z128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A129" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -4845,12 +4249,8 @@
       <c r="Z129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A130" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -4877,12 +4277,8 @@
       <c r="Z130" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A131" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -4909,12 +4305,8 @@
       <c r="Z131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A132" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -4941,12 +4333,8 @@
       <c r="Z132" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A133" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -4973,12 +4361,8 @@
       <c r="Z133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A134" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -5005,12 +4389,8 @@
       <c r="Z134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A135" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -5037,12 +4417,8 @@
       <c r="Z135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A136" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -5069,12 +4445,8 @@
       <c r="Z136" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A137" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -5101,12 +4473,8 @@
       <c r="Z137" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A138" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -5133,12 +4501,8 @@
       <c r="Z138" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A139" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -5165,12 +4529,8 @@
       <c r="Z139" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A140" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -5197,12 +4557,8 @@
       <c r="Z140" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A141" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -5229,12 +4585,8 @@
       <c r="Z141" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A142" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -5261,12 +4613,8 @@
       <c r="Z142" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A143" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -5293,12 +4641,8 @@
       <c r="Z143" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A144" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -5325,12 +4669,8 @@
       <c r="Z144" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A145" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -5357,12 +4697,8 @@
       <c r="Z145" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A146" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -5389,12 +4725,8 @@
       <c r="Z146" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A147" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -5421,12 +4753,8 @@
       <c r="Z147" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A148" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -5453,12 +4781,8 @@
       <c r="Z148" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A149" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -5485,12 +4809,8 @@
       <c r="Z149" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A150" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -5517,12 +4837,8 @@
       <c r="Z150" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A151" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -5549,12 +4865,8 @@
       <c r="Z151" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A152" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -5581,12 +4893,8 @@
       <c r="Z152" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A153" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -5613,12 +4921,8 @@
       <c r="Z153" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A154" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -5645,12 +4949,8 @@
       <c r="Z154" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A155" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -5677,12 +4977,8 @@
       <c r="Z155" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A156" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -5709,12 +5005,8 @@
       <c r="Z156" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A157" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -5741,12 +5033,8 @@
       <c r="Z157" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A158" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -5773,12 +5061,8 @@
       <c r="Z158" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A159" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -5805,12 +5089,8 @@
       <c r="Z159" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A160" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -5837,12 +5117,8 @@
       <c r="Z160" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A161" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -5869,12 +5145,8 @@
       <c r="Z161" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A162" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -5901,12 +5173,8 @@
       <c r="Z162" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A163" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -5933,12 +5201,8 @@
       <c r="Z163" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A164" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -5965,12 +5229,8 @@
       <c r="Z164" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A165" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -5997,12 +5257,8 @@
       <c r="Z165" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A166" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -6029,12 +5285,8 @@
       <c r="Z166" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A167" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -6061,12 +5313,8 @@
       <c r="Z167" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A168" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -6093,12 +5341,8 @@
       <c r="Z168" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A169" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -6125,12 +5369,8 @@
       <c r="Z169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A170" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -6157,12 +5397,8 @@
       <c r="Z170" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A171" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -6189,12 +5425,8 @@
       <c r="Z171" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A172" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -6221,12 +5453,8 @@
       <c r="Z172" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A173" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -6253,12 +5481,8 @@
       <c r="Z173" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A174" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -6285,12 +5509,8 @@
       <c r="Z174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A175" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -6317,12 +5537,8 @@
       <c r="Z175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A176" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -6349,12 +5565,8 @@
       <c r="Z176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A177" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -6381,12 +5593,8 @@
       <c r="Z177" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A178" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -6413,12 +5621,8 @@
       <c r="Z178" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A179" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -6445,12 +5649,8 @@
       <c r="Z179" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A180" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -6477,12 +5677,8 @@
       <c r="Z180" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A181" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -6509,12 +5705,8 @@
       <c r="Z181" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A182" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -6541,12 +5733,8 @@
       <c r="Z182" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A183" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -6573,12 +5761,8 @@
       <c r="Z183" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A184" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -6605,12 +5789,8 @@
       <c r="Z184" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A185" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -6637,12 +5817,8 @@
       <c r="Z185" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A186" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -6669,12 +5845,8 @@
       <c r="Z186" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A187" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -6701,12 +5873,8 @@
       <c r="Z187" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A188" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -6733,12 +5901,8 @@
       <c r="Z188" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A189" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -6765,12 +5929,8 @@
       <c r="Z189" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A190" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -6797,12 +5957,8 @@
       <c r="Z190" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A191" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -6829,12 +5985,8 @@
       <c r="Z191" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A192" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -6861,12 +6013,8 @@
       <c r="Z192" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A193" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -6893,12 +6041,8 @@
       <c r="Z193" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A194" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -6925,12 +6069,8 @@
       <c r="Z194" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A195" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -6957,12 +6097,8 @@
       <c r="Z195" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A196" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -6989,12 +6125,8 @@
       <c r="Z196" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A197" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -7021,12 +6153,8 @@
       <c r="Z197" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A198" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -7053,12 +6181,8 @@
       <c r="Z198" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A199" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -7085,12 +6209,8 @@
       <c r="Z199" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A200" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -7117,12 +6237,8 @@
       <c r="Z200" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A201" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -7149,12 +6265,8 @@
       <c r="Z201" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A202" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -7181,12 +6293,8 @@
       <c r="Z202" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A203" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -7213,12 +6321,8 @@
       <c r="Z203" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A204" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -7245,12 +6349,8 @@
       <c r="Z204" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A205" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -7277,12 +6377,8 @@
       <c r="Z205" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A206" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -7309,12 +6405,8 @@
       <c r="Z206" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A207" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -7341,12 +6433,8 @@
       <c r="Z207" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A208" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -7373,12 +6461,8 @@
       <c r="Z208" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A209" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -7405,12 +6489,8 @@
       <c r="Z209" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A210" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -7437,12 +6517,8 @@
       <c r="Z210" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A211" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -7469,12 +6545,8 @@
       <c r="Z211" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A212" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -7501,12 +6573,8 @@
       <c r="Z212" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A213" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -7533,12 +6601,8 @@
       <c r="Z213" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A214" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -7565,12 +6629,8 @@
       <c r="Z214" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A215" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -7597,12 +6657,8 @@
       <c r="Z215" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A216" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -7629,12 +6685,8 @@
       <c r="Z216" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A217" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -7661,12 +6713,8 @@
       <c r="Z217" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A218" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -7693,12 +6741,8 @@
       <c r="Z218" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A219" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -7725,12 +6769,8 @@
       <c r="Z219" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A220" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -7757,12 +6797,8 @@
       <c r="Z220" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A221" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -7789,12 +6825,8 @@
       <c r="Z221" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A222" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -7821,12 +6853,8 @@
       <c r="Z222" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A223" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -7853,12 +6881,8 @@
       <c r="Z223" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A224" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A224" s="3"/>
+      <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -7885,12 +6909,8 @@
       <c r="Z224" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A225" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -7917,12 +6937,8 @@
       <c r="Z225" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A226" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A226" s="3"/>
+      <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -7949,12 +6965,8 @@
       <c r="Z226" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A227" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -7981,12 +6993,8 @@
       <c r="Z227" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A228" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -8013,12 +7021,8 @@
       <c r="Z228" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A229" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -8045,12 +7049,8 @@
       <c r="Z229" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A230" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -8077,12 +7077,8 @@
       <c r="Z230" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A231" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -8109,12 +7105,8 @@
       <c r="Z231" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A232" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -8141,12 +7133,8 @@
       <c r="Z232" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A233" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -8173,12 +7161,8 @@
       <c r="Z233" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A234" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -8205,12 +7189,8 @@
       <c r="Z234" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A235" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -8237,12 +7217,8 @@
       <c r="Z235" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A236" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -8269,12 +7245,8 @@
       <c r="Z236" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A237" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A237" s="3"/>
+      <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -8301,12 +7273,8 @@
       <c r="Z237" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A238" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -8333,12 +7301,8 @@
       <c r="Z238" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A239" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -8365,12 +7329,8 @@
       <c r="Z239" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A240" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A240" s="3"/>
+      <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -8397,12 +7357,8 @@
       <c r="Z240" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A241" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -8429,12 +7385,8 @@
       <c r="Z241" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A242" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -8461,12 +7413,8 @@
       <c r="Z242" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A243" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A243" s="3"/>
+      <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -8493,12 +7441,8 @@
       <c r="Z243" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A244" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A244" s="3"/>
+      <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -8525,12 +7469,8 @@
       <c r="Z244" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A245" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -8557,12 +7497,8 @@
       <c r="Z245" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A246" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A246" s="3"/>
+      <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -8589,12 +7525,8 @@
       <c r="Z246" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A247" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -8621,12 +7553,8 @@
       <c r="Z247" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A248" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -8653,12 +7581,8 @@
       <c r="Z248" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A249" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -8685,12 +7609,8 @@
       <c r="Z249" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A250" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -8717,12 +7637,8 @@
       <c r="Z250" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A251" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A251" s="3"/>
+      <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -8749,12 +7665,8 @@
       <c r="Z251" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A252" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A252" s="3"/>
+      <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -8781,12 +7693,8 @@
       <c r="Z252" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A253" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A253" s="3"/>
+      <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -8813,12 +7721,8 @@
       <c r="Z253" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A254" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A254" s="3"/>
+      <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -8845,12 +7749,8 @@
       <c r="Z254" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A255" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A255" s="3"/>
+      <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -8877,12 +7777,8 @@
       <c r="Z255" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A256" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A256" s="3"/>
+      <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -8909,12 +7805,8 @@
       <c r="Z256" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A257" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -8941,12 +7833,8 @@
       <c r="Z257" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A258" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A258" s="3"/>
+      <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -8973,12 +7861,8 @@
       <c r="Z258" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A259" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A259" s="3"/>
+      <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -9005,12 +7889,8 @@
       <c r="Z259" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A260" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A260" s="3"/>
+      <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -9037,12 +7917,8 @@
       <c r="Z260" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A261" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A261" s="3"/>
+      <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -9069,12 +7945,8 @@
       <c r="Z261" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A262" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A262" s="3"/>
+      <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -9101,12 +7973,8 @@
       <c r="Z262" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A263" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A263" s="3"/>
+      <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -9133,12 +8001,8 @@
       <c r="Z263" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A264" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A264" s="3"/>
+      <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -9165,12 +8029,8 @@
       <c r="Z264" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A265" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A265" s="3"/>
+      <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -9197,12 +8057,8 @@
       <c r="Z265" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A266" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A266" s="3"/>
+      <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -9229,12 +8085,8 @@
       <c r="Z266" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A267" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A267" s="3"/>
+      <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -9261,12 +8113,8 @@
       <c r="Z267" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A268" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A268" s="3"/>
+      <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -9293,12 +8141,8 @@
       <c r="Z268" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A269" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A269" s="3"/>
+      <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -9325,12 +8169,8 @@
       <c r="Z269" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A270" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A270" s="3"/>
+      <c r="B270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -9357,12 +8197,8 @@
       <c r="Z270" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A271" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A271" s="3"/>
+      <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -9389,12 +8225,8 @@
       <c r="Z271" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A272" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A272" s="3"/>
+      <c r="B272" s="3"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -9421,12 +8253,8 @@
       <c r="Z272" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A273" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B273" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A273" s="3"/>
+      <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -9453,12 +8281,8 @@
       <c r="Z273" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A274" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A274" s="3"/>
+      <c r="B274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -9485,12 +8309,8 @@
       <c r="Z274" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A275" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A275" s="3"/>
+      <c r="B275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -9517,12 +8337,8 @@
       <c r="Z275" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A276" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A276" s="3"/>
+      <c r="B276" s="3"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -9549,12 +8365,8 @@
       <c r="Z276" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A277" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A277" s="3"/>
+      <c r="B277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -9581,12 +8393,8 @@
       <c r="Z277" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A278" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A278" s="3"/>
+      <c r="B278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -9613,12 +8421,8 @@
       <c r="Z278" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A279" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A279" s="3"/>
+      <c r="B279" s="3"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -9645,12 +8449,8 @@
       <c r="Z279" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A280" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B280" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A280" s="3"/>
+      <c r="B280" s="3"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -9677,12 +8477,8 @@
       <c r="Z280" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A281" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A281" s="3"/>
+      <c r="B281" s="3"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -9709,12 +8505,8 @@
       <c r="Z281" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A282" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A282" s="3"/>
+      <c r="B282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -9741,12 +8533,8 @@
       <c r="Z282" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A283" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A283" s="3"/>
+      <c r="B283" s="3"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -9773,12 +8561,8 @@
       <c r="Z283" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A284" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B284" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A284" s="3"/>
+      <c r="B284" s="3"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -9805,12 +8589,8 @@
       <c r="Z284" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A285" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A285" s="3"/>
+      <c r="B285" s="3"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -9837,12 +8617,8 @@
       <c r="Z285" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A286" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B286" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A286" s="3"/>
+      <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -9869,12 +8645,8 @@
       <c r="Z286" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A287" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A287" s="3"/>
+      <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -9901,12 +8673,8 @@
       <c r="Z287" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A288" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A288" s="3"/>
+      <c r="B288" s="3"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -9933,12 +8701,8 @@
       <c r="Z288" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A289" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A289" s="3"/>
+      <c r="B289" s="3"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -9965,12 +8729,8 @@
       <c r="Z289" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A290" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A290" s="3"/>
+      <c r="B290" s="3"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -9997,12 +8757,8 @@
       <c r="Z290" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A291" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B291" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A291" s="3"/>
+      <c r="B291" s="3"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -10029,12 +8785,8 @@
       <c r="Z291" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A292" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A292" s="3"/>
+      <c r="B292" s="3"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -10061,12 +8813,8 @@
       <c r="Z292" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A293" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A293" s="3"/>
+      <c r="B293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -10093,12 +8841,8 @@
       <c r="Z293" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A294" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A294" s="3"/>
+      <c r="B294" s="3"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -10125,12 +8869,8 @@
       <c r="Z294" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A295" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A295" s="3"/>
+      <c r="B295" s="3"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -10157,12 +8897,8 @@
       <c r="Z295" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A296" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A296" s="3"/>
+      <c r="B296" s="3"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -10189,12 +8925,8 @@
       <c r="Z296" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A297" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A297" s="3"/>
+      <c r="B297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -10221,12 +8953,8 @@
       <c r="Z297" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A298" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A298" s="3"/>
+      <c r="B298" s="3"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -10253,12 +8981,8 @@
       <c r="Z298" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A299" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B299" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A299" s="3"/>
+      <c r="B299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -10285,12 +9009,8 @@
       <c r="Z299" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A300" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B300" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A300" s="3"/>
+      <c r="B300" s="3"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -10317,12 +9037,8 @@
       <c r="Z300" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A301" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A301" s="3"/>
+      <c r="B301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -10349,12 +9065,8 @@
       <c r="Z301" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A302" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A302" s="3"/>
+      <c r="B302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -10381,12 +9093,8 @@
       <c r="Z302" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A303" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A303" s="3"/>
+      <c r="B303" s="3"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -10413,12 +9121,8 @@
       <c r="Z303" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A304" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A304" s="3"/>
+      <c r="B304" s="3"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -10445,12 +9149,8 @@
       <c r="Z304" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A305" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A305" s="3"/>
+      <c r="B305" s="3"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -10477,12 +9177,8 @@
       <c r="Z305" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A306" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A306" s="3"/>
+      <c r="B306" s="3"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -10509,12 +9205,8 @@
       <c r="Z306" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A307" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A307" s="3"/>
+      <c r="B307" s="3"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -10541,12 +9233,8 @@
       <c r="Z307" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A308" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A308" s="3"/>
+      <c r="B308" s="3"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -10573,12 +9261,8 @@
       <c r="Z308" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A309" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A309" s="3"/>
+      <c r="B309" s="3"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -10605,12 +9289,8 @@
       <c r="Z309" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A310" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B310" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A310" s="3"/>
+      <c r="B310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -10637,12 +9317,8 @@
       <c r="Z310" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A311" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B311" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A311" s="3"/>
+      <c r="B311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -10669,12 +9345,8 @@
       <c r="Z311" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A312" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B312" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A312" s="3"/>
+      <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -10701,12 +9373,8 @@
       <c r="Z312" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A313" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B313" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A313" s="3"/>
+      <c r="B313" s="3"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -10733,12 +9401,8 @@
       <c r="Z313" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A314" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B314" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A314" s="3"/>
+      <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -10765,12 +9429,8 @@
       <c r="Z314" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A315" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B315" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A315" s="3"/>
+      <c r="B315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -10797,12 +9457,8 @@
       <c r="Z315" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A316" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A316" s="3"/>
+      <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -10829,12 +9485,8 @@
       <c r="Z316" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A317" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B317" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A317" s="3"/>
+      <c r="B317" s="3"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -10861,12 +9513,8 @@
       <c r="Z317" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A318" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B318" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A318" s="3"/>
+      <c r="B318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -10893,12 +9541,8 @@
       <c r="Z318" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A319" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B319" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A319" s="3"/>
+      <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -10925,12 +9569,8 @@
       <c r="Z319" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A320" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B320" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A320" s="3"/>
+      <c r="B320" s="3"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -10957,12 +9597,8 @@
       <c r="Z320" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A321" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B321" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A321" s="3"/>
+      <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -10989,12 +9625,8 @@
       <c r="Z321" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A322" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B322" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A322" s="3"/>
+      <c r="B322" s="3"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -11021,12 +9653,8 @@
       <c r="Z322" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A323" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B323" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A323" s="3"/>
+      <c r="B323" s="3"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -11053,12 +9681,8 @@
       <c r="Z323" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A324" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B324" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A324" s="3"/>
+      <c r="B324" s="3"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -11085,12 +9709,8 @@
       <c r="Z324" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A325" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B325" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A325" s="3"/>
+      <c r="B325" s="3"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -11117,12 +9737,8 @@
       <c r="Z325" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A326" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B326" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A326" s="3"/>
+      <c r="B326" s="3"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -11149,12 +9765,8 @@
       <c r="Z326" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A327" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B327" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A327" s="3"/>
+      <c r="B327" s="3"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -11181,12 +9793,8 @@
       <c r="Z327" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A328" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B328" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A328" s="3"/>
+      <c r="B328" s="3"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -11213,12 +9821,8 @@
       <c r="Z328" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A329" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B329" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A329" s="3"/>
+      <c r="B329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -11245,12 +9849,8 @@
       <c r="Z329" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A330" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B330" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A330" s="3"/>
+      <c r="B330" s="3"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -11277,12 +9877,8 @@
       <c r="Z330" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A331" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B331" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A331" s="3"/>
+      <c r="B331" s="3"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -11309,12 +9905,8 @@
       <c r="Z331" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A332" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B332" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A332" s="3"/>
+      <c r="B332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -11341,12 +9933,8 @@
       <c r="Z332" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A333" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B333" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A333" s="3"/>
+      <c r="B333" s="3"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -11373,12 +9961,8 @@
       <c r="Z333" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A334" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B334" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A334" s="3"/>
+      <c r="B334" s="3"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -11405,12 +9989,8 @@
       <c r="Z334" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A335" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B335" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A335" s="3"/>
+      <c r="B335" s="3"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -11437,12 +10017,8 @@
       <c r="Z335" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A336" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B336" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A336" s="3"/>
+      <c r="B336" s="3"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -11469,12 +10045,8 @@
       <c r="Z336" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A337" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B337" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A337" s="3"/>
+      <c r="B337" s="3"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -11501,12 +10073,8 @@
       <c r="Z337" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A338" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B338" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A338" s="3"/>
+      <c r="B338" s="3"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -11533,12 +10101,8 @@
       <c r="Z338" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A339" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B339" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A339" s="3"/>
+      <c r="B339" s="3"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -11565,12 +10129,8 @@
       <c r="Z339" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A340" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B340" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A340" s="3"/>
+      <c r="B340" s="3"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -11597,12 +10157,8 @@
       <c r="Z340" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A341" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B341" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A341" s="3"/>
+      <c r="B341" s="3"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -11629,12 +10185,8 @@
       <c r="Z341" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A342" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B342" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A342" s="3"/>
+      <c r="B342" s="3"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -11661,12 +10213,8 @@
       <c r="Z342" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A343" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B343" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A343" s="3"/>
+      <c r="B343" s="3"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -11693,12 +10241,8 @@
       <c r="Z343" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A344" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B344" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A344" s="3"/>
+      <c r="B344" s="3"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -11725,12 +10269,8 @@
       <c r="Z344" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A345" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B345" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A345" s="3"/>
+      <c r="B345" s="3"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -11757,12 +10297,8 @@
       <c r="Z345" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A346" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B346" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A346" s="3"/>
+      <c r="B346" s="3"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -11789,12 +10325,8 @@
       <c r="Z346" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A347" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B347" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A347" s="3"/>
+      <c r="B347" s="3"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -11821,12 +10353,8 @@
       <c r="Z347" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A348" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B348" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A348" s="3"/>
+      <c r="B348" s="3"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -11853,12 +10381,8 @@
       <c r="Z348" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A349" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B349" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A349" s="3"/>
+      <c r="B349" s="3"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -11885,12 +10409,8 @@
       <c r="Z349" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A350" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B350" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A350" s="3"/>
+      <c r="B350" s="3"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -11917,12 +10437,8 @@
       <c r="Z350" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A351" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B351" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A351" s="3"/>
+      <c r="B351" s="3"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -11949,12 +10465,8 @@
       <c r="Z351" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A352" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B352" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A352" s="3"/>
+      <c r="B352" s="3"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -11981,12 +10493,8 @@
       <c r="Z352" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A353" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B353" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A353" s="3"/>
+      <c r="B353" s="3"/>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -12013,12 +10521,8 @@
       <c r="Z353" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A354" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B354" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A354" s="3"/>
+      <c r="B354" s="3"/>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -12045,12 +10549,8 @@
       <c r="Z354" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A355" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B355" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A355" s="3"/>
+      <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -12077,12 +10577,8 @@
       <c r="Z355" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A356" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B356" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A356" s="3"/>
+      <c r="B356" s="3"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -12109,12 +10605,8 @@
       <c r="Z356" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A357" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B357" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A357" s="3"/>
+      <c r="B357" s="3"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -12141,12 +10633,8 @@
       <c r="Z357" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A358" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B358" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A358" s="3"/>
+      <c r="B358" s="3"/>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -12173,12 +10661,8 @@
       <c r="Z358" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A359" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B359" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A359" s="3"/>
+      <c r="B359" s="3"/>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -12205,12 +10689,8 @@
       <c r="Z359" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A360" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B360" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A360" s="3"/>
+      <c r="B360" s="3"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -12237,12 +10717,8 @@
       <c r="Z360" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A361" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B361" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A361" s="3"/>
+      <c r="B361" s="3"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -12269,12 +10745,8 @@
       <c r="Z361" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A362" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A362" s="3"/>
+      <c r="B362" s="3"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -12301,12 +10773,8 @@
       <c r="Z362" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A363" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A363" s="3"/>
+      <c r="B363" s="3"/>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -12333,12 +10801,8 @@
       <c r="Z363" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A364" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B364" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A364" s="3"/>
+      <c r="B364" s="3"/>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -12365,12 +10829,8 @@
       <c r="Z364" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A365" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B365" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A365" s="3"/>
+      <c r="B365" s="3"/>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -12397,12 +10857,8 @@
       <c r="Z365" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A366" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B366" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A366" s="3"/>
+      <c r="B366" s="3"/>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -12429,12 +10885,8 @@
       <c r="Z366" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A367" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B367" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A367" s="3"/>
+      <c r="B367" s="3"/>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -12461,12 +10913,8 @@
       <c r="Z367" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A368" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B368" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A368" s="3"/>
+      <c r="B368" s="3"/>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -12493,12 +10941,8 @@
       <c r="Z368" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A369" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B369" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A369" s="3"/>
+      <c r="B369" s="3"/>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -12525,12 +10969,8 @@
       <c r="Z369" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A370" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B370" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A370" s="3"/>
+      <c r="B370" s="3"/>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -12557,12 +10997,8 @@
       <c r="Z370" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A371" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B371" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A371" s="3"/>
+      <c r="B371" s="3"/>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -12589,12 +11025,8 @@
       <c r="Z371" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A372" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B372" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A372" s="3"/>
+      <c r="B372" s="3"/>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -12621,12 +11053,8 @@
       <c r="Z372" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A373" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B373" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A373" s="3"/>
+      <c r="B373" s="3"/>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -12653,12 +11081,8 @@
       <c r="Z373" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A374" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B374" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A374" s="3"/>
+      <c r="B374" s="3"/>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -12685,12 +11109,8 @@
       <c r="Z374" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A375" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B375" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A375" s="3"/>
+      <c r="B375" s="3"/>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -12717,12 +11137,8 @@
       <c r="Z375" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A376" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B376" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A376" s="3"/>
+      <c r="B376" s="3"/>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -12749,12 +11165,8 @@
       <c r="Z376" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A377" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A377" s="3"/>
+      <c r="B377" s="3"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -12781,12 +11193,8 @@
       <c r="Z377" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A378" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A378" s="3"/>
+      <c r="B378" s="3"/>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -12813,12 +11221,8 @@
       <c r="Z378" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A379" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B379" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A379" s="3"/>
+      <c r="B379" s="3"/>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -12845,12 +11249,8 @@
       <c r="Z379" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A380" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B380" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A380" s="3"/>
+      <c r="B380" s="3"/>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -12877,12 +11277,8 @@
       <c r="Z380" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A381" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B381" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A381" s="3"/>
+      <c r="B381" s="3"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -12909,12 +11305,8 @@
       <c r="Z381" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A382" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B382" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A382" s="3"/>
+      <c r="B382" s="3"/>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -12941,12 +11333,8 @@
       <c r="Z382" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A383" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B383" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A383" s="3"/>
+      <c r="B383" s="3"/>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -12973,12 +11361,8 @@
       <c r="Z383" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A384" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B384" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A384" s="3"/>
+      <c r="B384" s="3"/>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -13005,12 +11389,8 @@
       <c r="Z384" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A385" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B385" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A385" s="3"/>
+      <c r="B385" s="3"/>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -13037,12 +11417,8 @@
       <c r="Z385" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A386" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B386" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A386" s="3"/>
+      <c r="B386" s="3"/>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -13069,12 +11445,8 @@
       <c r="Z386" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A387" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B387" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A387" s="3"/>
+      <c r="B387" s="3"/>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -13101,12 +11473,8 @@
       <c r="Z387" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A388" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B388" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A388" s="3"/>
+      <c r="B388" s="3"/>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -13133,12 +11501,8 @@
       <c r="Z388" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A389" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B389" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A389" s="3"/>
+      <c r="B389" s="3"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -13165,12 +11529,8 @@
       <c r="Z389" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A390" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B390" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A390" s="3"/>
+      <c r="B390" s="3"/>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -13197,12 +11557,8 @@
       <c r="Z390" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A391" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B391" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A391" s="3"/>
+      <c r="B391" s="3"/>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -13229,12 +11585,8 @@
       <c r="Z391" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A392" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B392" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A392" s="3"/>
+      <c r="B392" s="3"/>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -13261,12 +11613,8 @@
       <c r="Z392" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A393" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B393" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A393" s="3"/>
+      <c r="B393" s="3"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -13293,12 +11641,8 @@
       <c r="Z393" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A394" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B394" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A394" s="3"/>
+      <c r="B394" s="3"/>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -13325,12 +11669,8 @@
       <c r="Z394" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A395" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B395" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A395" s="3"/>
+      <c r="B395" s="3"/>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -13357,12 +11697,8 @@
       <c r="Z395" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A396" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B396" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A396" s="3"/>
+      <c r="B396" s="3"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -13389,12 +11725,8 @@
       <c r="Z396" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A397" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B397" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A397" s="3"/>
+      <c r="B397" s="3"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -13421,12 +11753,8 @@
       <c r="Z397" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A398" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B398" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A398" s="3"/>
+      <c r="B398" s="3"/>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -13453,12 +11781,8 @@
       <c r="Z398" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A399" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B399" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A399" s="3"/>
+      <c r="B399" s="3"/>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -13485,12 +11809,8 @@
       <c r="Z399" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A400" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B400" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A400" s="3"/>
+      <c r="B400" s="3"/>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -13517,12 +11837,8 @@
       <c r="Z400" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A401" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B401" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A401" s="3"/>
+      <c r="B401" s="3"/>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -13549,12 +11865,8 @@
       <c r="Z401" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A402" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B402" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A402" s="3"/>
+      <c r="B402" s="3"/>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -13581,12 +11893,8 @@
       <c r="Z402" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A403" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B403" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A403" s="3"/>
+      <c r="B403" s="3"/>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -13613,12 +11921,8 @@
       <c r="Z403" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A404" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B404" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A404" s="3"/>
+      <c r="B404" s="3"/>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -13645,12 +11949,8 @@
       <c r="Z404" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A405" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B405" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A405" s="3"/>
+      <c r="B405" s="3"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -13677,12 +11977,8 @@
       <c r="Z405" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A406" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B406" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A406" s="3"/>
+      <c r="B406" s="3"/>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -13709,12 +12005,8 @@
       <c r="Z406" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A407" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B407" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A407" s="3"/>
+      <c r="B407" s="3"/>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -13741,12 +12033,8 @@
       <c r="Z407" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A408" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B408" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A408" s="3"/>
+      <c r="B408" s="3"/>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -13773,12 +12061,8 @@
       <c r="Z408" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A409" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B409" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A409" s="3"/>
+      <c r="B409" s="3"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -13805,12 +12089,8 @@
       <c r="Z409" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A410" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B410" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A410" s="3"/>
+      <c r="B410" s="3"/>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -13837,12 +12117,8 @@
       <c r="Z410" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A411" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B411" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A411" s="3"/>
+      <c r="B411" s="3"/>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -13869,12 +12145,8 @@
       <c r="Z411" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A412" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B412" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A412" s="3"/>
+      <c r="B412" s="3"/>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -13901,12 +12173,8 @@
       <c r="Z412" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A413" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B413" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A413" s="3"/>
+      <c r="B413" s="3"/>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -13933,12 +12201,8 @@
       <c r="Z413" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A414" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B414" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A414" s="3"/>
+      <c r="B414" s="3"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -13965,12 +12229,8 @@
       <c r="Z414" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A415" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B415" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A415" s="3"/>
+      <c r="B415" s="3"/>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -13997,12 +12257,8 @@
       <c r="Z415" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A416" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B416" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A416" s="3"/>
+      <c r="B416" s="3"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -14029,12 +12285,8 @@
       <c r="Z416" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A417" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B417" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A417" s="3"/>
+      <c r="B417" s="3"/>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -14061,12 +12313,8 @@
       <c r="Z417" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A418" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B418" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A418" s="3"/>
+      <c r="B418" s="3"/>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -14093,12 +12341,8 @@
       <c r="Z418" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A419" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B419" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A419" s="3"/>
+      <c r="B419" s="3"/>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -14125,12 +12369,8 @@
       <c r="Z419" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A420" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B420" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A420" s="3"/>
+      <c r="B420" s="3"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -14157,12 +12397,8 @@
       <c r="Z420" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A421" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B421" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A421" s="3"/>
+      <c r="B421" s="3"/>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -14189,12 +12425,8 @@
       <c r="Z421" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A422" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B422" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A422" s="3"/>
+      <c r="B422" s="3"/>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -14221,12 +12453,8 @@
       <c r="Z422" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A423" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B423" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A423" s="3"/>
+      <c r="B423" s="3"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -14253,12 +12481,8 @@
       <c r="Z423" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A424" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B424" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A424" s="3"/>
+      <c r="B424" s="3"/>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -14285,12 +12509,8 @@
       <c r="Z424" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A425" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B425" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A425" s="3"/>
+      <c r="B425" s="3"/>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -14317,12 +12537,8 @@
       <c r="Z425" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A426" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B426" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A426" s="3"/>
+      <c r="B426" s="3"/>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -14349,12 +12565,8 @@
       <c r="Z426" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A427" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B427" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A427" s="3"/>
+      <c r="B427" s="3"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -14381,12 +12593,8 @@
       <c r="Z427" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A428" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B428" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A428" s="3"/>
+      <c r="B428" s="3"/>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -14413,12 +12621,8 @@
       <c r="Z428" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A429" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B429" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A429" s="3"/>
+      <c r="B429" s="3"/>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -14445,12 +12649,8 @@
       <c r="Z429" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A430" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B430" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A430" s="3"/>
+      <c r="B430" s="3"/>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -14477,12 +12677,8 @@
       <c r="Z430" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A431" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B431" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A431" s="3"/>
+      <c r="B431" s="3"/>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -14509,12 +12705,8 @@
       <c r="Z431" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A432" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B432" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A432" s="3"/>
+      <c r="B432" s="3"/>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -14541,12 +12733,8 @@
       <c r="Z432" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A433" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B433" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A433" s="3"/>
+      <c r="B433" s="3"/>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -14573,12 +12761,8 @@
       <c r="Z433" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A434" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B434" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A434" s="3"/>
+      <c r="B434" s="3"/>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -14605,12 +12789,8 @@
       <c r="Z434" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A435" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B435" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A435" s="3"/>
+      <c r="B435" s="3"/>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -14637,12 +12817,8 @@
       <c r="Z435" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A436" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B436" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A436" s="3"/>
+      <c r="B436" s="3"/>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -14669,12 +12845,8 @@
       <c r="Z436" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A437" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B437" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A437" s="3"/>
+      <c r="B437" s="3"/>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -14701,12 +12873,8 @@
       <c r="Z437" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A438" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B438" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A438" s="3"/>
+      <c r="B438" s="3"/>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -14733,12 +12901,8 @@
       <c r="Z438" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A439" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B439" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A439" s="3"/>
+      <c r="B439" s="3"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -14765,12 +12929,8 @@
       <c r="Z439" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A440" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B440" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A440" s="3"/>
+      <c r="B440" s="3"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -14797,12 +12957,8 @@
       <c r="Z440" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A441" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B441" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A441" s="3"/>
+      <c r="B441" s="3"/>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -14829,12 +12985,8 @@
       <c r="Z441" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A442" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B442" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A442" s="3"/>
+      <c r="B442" s="3"/>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -14861,12 +13013,8 @@
       <c r="Z442" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A443" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B443" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A443" s="3"/>
+      <c r="B443" s="3"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -14893,12 +13041,8 @@
       <c r="Z443" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A444" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B444" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A444" s="3"/>
+      <c r="B444" s="3"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -14925,12 +13069,8 @@
       <c r="Z444" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A445" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B445" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A445" s="3"/>
+      <c r="B445" s="3"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -14957,12 +13097,8 @@
       <c r="Z445" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A446" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B446" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A446" s="3"/>
+      <c r="B446" s="3"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -14989,12 +13125,8 @@
       <c r="Z446" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A447" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B447" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A447" s="3"/>
+      <c r="B447" s="3"/>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -15021,12 +13153,8 @@
       <c r="Z447" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A448" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B448" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A448" s="3"/>
+      <c r="B448" s="3"/>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -15053,12 +13181,8 @@
       <c r="Z448" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A449" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B449" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A449" s="3"/>
+      <c r="B449" s="3"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -15085,12 +13209,8 @@
       <c r="Z449" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A450" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B450" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A450" s="3"/>
+      <c r="B450" s="3"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -15117,12 +13237,8 @@
       <c r="Z450" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A451" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B451" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A451" s="3"/>
+      <c r="B451" s="3"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -15149,12 +13265,8 @@
       <c r="Z451" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A452" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B452" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A452" s="3"/>
+      <c r="B452" s="3"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,7 +22,7 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.shipments__shipment_tracking_2k19_14dec</t>
+    <t>silver.shipments__shipment_tracking_2k19_14dec_inc</t>
   </si>
   <si>
     <t>delta_lake/SILVER/shipments/shipment_tracking_2k19_new</t>
@@ -484,7 +484,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="68.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>job_name</t>
   </si>
@@ -22,13 +22,10 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.shipments__shipment_tracking_2k19_14dec_inc</t>
+    <t>silver.shipments__shipment_tracking_2k19_15dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/shipments/shipment_tracking_2k19_new</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -99,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -108,9 +105,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -424,35 +418,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="73.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="79.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="73.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="79.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -484,7 +478,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -516,13 +510,9 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -548,13 +538,9 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -580,13 +566,9 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -612,13 +594,9 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -644,13 +622,9 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -676,13 +650,9 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -708,13 +678,9 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -740,13 +706,9 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="29.25" customFormat="1" s="1">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -772,13 +734,9 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -804,13 +762,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -836,13 +790,9 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -868,13 +818,9 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -901,12 +847,8 @@
       <c r="Z14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -933,12 +875,8 @@
       <c r="Z15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -965,12 +903,8 @@
       <c r="Z16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -997,12 +931,8 @@
       <c r="Z17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1029,12 +959,8 @@
       <c r="Z18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1061,12 +987,8 @@
       <c r="Z19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1093,12 +1015,8 @@
       <c r="Z20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1125,12 +1043,8 @@
       <c r="Z21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1157,12 +1071,8 @@
       <c r="Z22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1189,12 +1099,8 @@
       <c r="Z23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1221,12 +1127,8 @@
       <c r="Z24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1253,12 +1155,8 @@
       <c r="Z25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1285,12 +1183,8 @@
       <c r="Z26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1317,12 +1211,8 @@
       <c r="Z27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1349,12 +1239,8 @@
       <c r="Z28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1381,12 +1267,8 @@
       <c r="Z29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1413,12 +1295,8 @@
       <c r="Z30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1445,12 +1323,8 @@
       <c r="Z31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1477,12 +1351,8 @@
       <c r="Z32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1509,12 +1379,8 @@
       <c r="Z33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1541,12 +1407,8 @@
       <c r="Z34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1573,12 +1435,8 @@
       <c r="Z35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1605,12 +1463,8 @@
       <c r="Z36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1637,12 +1491,8 @@
       <c r="Z37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1669,12 +1519,8 @@
       <c r="Z38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1701,12 +1547,8 @@
       <c r="Z39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1733,12 +1575,8 @@
       <c r="Z40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1765,12 +1603,8 @@
       <c r="Z41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1797,12 +1631,8 @@
       <c r="Z42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1829,12 +1659,8 @@
       <c r="Z43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1861,12 +1687,8 @@
       <c r="Z44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1893,12 +1715,8 @@
       <c r="Z45" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,91 +22,91 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__catalog_views_report_final_11dec</t>
+    <t>silver.mixpanel_android__catalog_views_report_final_20dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/mixpanel_android/catalog_views_report_2021_04_10</t>
   </si>
   <si>
-    <t>silver.msg_communicator_service__communicator_notification_requests_11dec</t>
+    <t>silver.msg_communicator_service__communicator_notification_requests_20dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_requests</t>
   </si>
   <si>
-    <t>silver.msg_communicator_service__communicator_notification_records_11dec</t>
+    <t>silver.msg_communicator_service__communicator_notification_records_20dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_records</t>
   </si>
   <si>
-    <t>silver.inhouse__notification_delivered_11dec</t>
+    <t>silver.inhouse__notification_delivered_20dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/inhouse/notification_delivered</t>
   </si>
   <si>
-    <t>silver.ad__catalogs_served_11dec</t>
+    <t>silver.ad__catalogs_served_20dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/ad/catalogs_served_2022_02_11</t>
   </si>
   <si>
-    <t>silver.ML_Platform__fy_rt_iop_logs_11dec</t>
+    <t>silver.ML_Platform__fy_rt_iop_logs_20dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/ML_Platform/fy_rt_iop_logs</t>
   </si>
   <si>
-    <t>silver.ml_platform__model_proxy_logs_11dec</t>
+    <t>silver.ml_platform__model_proxy_logs_20dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/ml_platform/model_proxy_logs</t>
   </si>
   <si>
-    <t>silver.ml_platform__pdp_rt_iop_logs_11dec</t>
+    <t>silver.ml_platform__pdp_rt_iop_logs_20dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/ml_platform/pdp_rt_iop_logs</t>
   </si>
   <si>
-    <t>silver.msg_fraud_response__fraud_response_11dec</t>
+    <t>silver.msg_fraud_response__fraud_response_20dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/msg_fraud_response/fraud_response</t>
   </si>
   <si>
-    <t>silver.inhouse_android__daily_disk_space_analysis_11dec</t>
+    <t>silver.inhouse_android__daily_disk_space_analysis_20dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/inhouse_android/daily_disk_space_analysis</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__pdp_viewed_11dec</t>
+    <t>silver.mixpanel_android__pdp_viewed_20dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/mixpanel_android/pdp_viewed</t>
   </si>
   <si>
-    <t>silver.msg_genesys__marketplace_competition_metrics_11dec</t>
+    <t>silver.msg_genesys__marketplace_competition_metrics_20dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/msg_genesys/marketplace_competition_metrics</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__product_clicked_11dec</t>
+    <t>silver.mixpanel_android__product_clicked_20dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/mixpanel_android/product_clicked</t>
   </si>
   <si>
-    <t>silver.shipments__shipment_tracking_2k19_11dec</t>
+    <t>silver.shipments__shipment_tracking_2k19_20dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/shipments/shipment_tracking_2k19_new</t>
   </si>
   <si>
-    <t>silver.order_service__order_events_11dec</t>
+    <t>silver.order_service__order_events_20dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/order_service/order_events</t>
@@ -112,18 +115,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,43 +137,59 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -194,22 +216,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -221,153 +303,183 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.25"/>
-    <col customWidth="1" min="2" max="2" width="50.13"/>
+    <col min="1" max="1" style="2" width="99.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="50.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -375,7 +487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -383,7 +495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -391,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -399,7 +511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -407,7 +519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -415,7 +527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -423,7 +535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -431,7 +543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -439,7 +551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -447,7 +559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -455,7 +567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -463,7 +575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -471,7 +583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -479,7 +591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -487,7 +599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -496,6 +608,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,91 +22,91 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__catalog_views_report_final_20dec</t>
+    <t>silver.mixpanel_android__catalog_views_report_final_21dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/mixpanel_android/catalog_views_report_2021_04_10</t>
   </si>
   <si>
-    <t>silver.msg_communicator_service__communicator_notification_requests_20dec</t>
+    <t>silver.msg_communicator_service__communicator_notification_requests_21dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_requests</t>
   </si>
   <si>
-    <t>silver.msg_communicator_service__communicator_notification_records_20dec</t>
+    <t>silver.msg_communicator_service__communicator_notification_records_21dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_records</t>
   </si>
   <si>
-    <t>silver.inhouse__notification_delivered_20dec</t>
+    <t>silver.inhouse__notification_delivered_21dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/inhouse/notification_delivered</t>
   </si>
   <si>
-    <t>silver.ad__catalogs_served_20dec</t>
+    <t>silver.ad__catalogs_served_21dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/ad/catalogs_served_2022_02_11</t>
   </si>
   <si>
-    <t>silver.ML_Platform__fy_rt_iop_logs_20dec</t>
+    <t>silver.ML_Platform__fy_rt_iop_logs_21dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/ML_Platform/fy_rt_iop_logs</t>
   </si>
   <si>
-    <t>silver.ml_platform__model_proxy_logs_20dec</t>
+    <t>silver.ml_platform__model_proxy_logs_21dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/ml_platform/model_proxy_logs</t>
   </si>
   <si>
-    <t>silver.ml_platform__pdp_rt_iop_logs_20dec</t>
+    <t>silver.ml_platform__pdp_rt_iop_logs_21dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/ml_platform/pdp_rt_iop_logs</t>
   </si>
   <si>
-    <t>silver.msg_fraud_response__fraud_response_20dec</t>
+    <t>silver.msg_fraud_response__fraud_response_21dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/msg_fraud_response/fraud_response</t>
   </si>
   <si>
-    <t>silver.inhouse_android__daily_disk_space_analysis_20dec</t>
+    <t>silver.inhouse_android__daily_disk_space_analysis_21dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/inhouse_android/daily_disk_space_analysis</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__pdp_viewed_20dec</t>
+    <t>silver.mixpanel_android__pdp_viewed_21dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/mixpanel_android/pdp_viewed</t>
   </si>
   <si>
-    <t>silver.msg_genesys__marketplace_competition_metrics_20dec</t>
+    <t>silver.msg_genesys__marketplace_competition_metrics_21dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/msg_genesys/marketplace_competition_metrics</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__product_clicked_20dec</t>
+    <t>silver.mixpanel_android__product_clicked_21dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/mixpanel_android/product_clicked</t>
   </si>
   <si>
-    <t>silver.shipments__shipment_tracking_2k19_20dec</t>
+    <t>silver.shipments__shipment_tracking_2k19_21dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/shipments/shipment_tracking_2k19_new</t>
   </si>
   <si>
-    <t>silver.order_service__order_events_20dec</t>
+    <t>silver.order_service__order_events_21dec</t>
   </si>
   <si>
     <t>delta_lake/SILVER/order_service/order_events</t>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
   <si>
     <t>job_name</t>
   </si>
@@ -22,94 +22,25 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__catalog_views_report_final_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_views_report_2021_04_10</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_notification_requests_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_requests</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_notification_records_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_records</t>
-  </si>
-  <si>
-    <t>silver.inhouse__notification_delivered_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/notification_delivered</t>
-  </si>
-  <si>
-    <t>silver.ad__catalogs_served_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ad/catalogs_served_2022_02_11</t>
-  </si>
-  <si>
-    <t>silver.ML_Platform__fy_rt_iop_logs_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ML_Platform/fy_rt_iop_logs</t>
-  </si>
-  <si>
-    <t>silver.ml_platform__model_proxy_logs_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ml_platform/model_proxy_logs</t>
-  </si>
-  <si>
-    <t>silver.ml_platform__pdp_rt_iop_logs_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ml_platform/pdp_rt_iop_logs</t>
-  </si>
-  <si>
-    <t>silver.msg_fraud_response__fraud_response_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_fraud_response/fraud_response</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__daily_disk_space_analysis_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/daily_disk_space_analysis</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pdp_viewed_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pdp_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_genesys__marketplace_competition_metrics_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_genesys/marketplace_competition_metrics</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_clicked_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_clicked</t>
-  </si>
-  <si>
-    <t>silver.shipments__shipment_tracking_2k19_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipments/shipment_tracking_2k19_new</t>
-  </si>
-  <si>
-    <t>silver.order_service__order_events_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/order_service/order_events</t>
+    <t>gold.unique_signed_up_catalog_views_deduped_21DEC</t>
+  </si>
+  <si>
+    <t>unique_signed_up_catalog_views_deduped</t>
+  </si>
+  <si>
+    <t>gold.delisted_catalog_supplier_details_v2_21DEC</t>
+  </si>
+  <si>
+    <t>delisted_catalog_supplier_details_v2</t>
+  </si>
+  <si>
+    <t>gold.daily_unique_anonymous_catalog_views_21DEC</t>
+  </si>
+  <si>
+    <t>daily_unique_anonymous_catalog_views</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -159,13 +90,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,11 +409,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="99.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="50.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="99.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="50.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -495,7 +429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -503,7 +437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -511,100 +445,100 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,22 +22,22 @@
     <t>location</t>
   </si>
   <si>
-    <t>gold.unique_signed_up_catalog_views_deduped_21DEC</t>
-  </si>
-  <si>
-    <t>unique_signed_up_catalog_views_deduped</t>
-  </si>
-  <si>
-    <t>gold.delisted_catalog_supplier_details_v2_21DEC</t>
-  </si>
-  <si>
-    <t>delisted_catalog_supplier_details_v2</t>
-  </si>
-  <si>
-    <t>gold.daily_unique_anonymous_catalog_views_21DEC</t>
-  </si>
-  <si>
-    <t>daily_unique_anonymous_catalog_views</t>
+    <t>ds_dbc_ofs.cat__raw_agg_21DEC</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/cat__raw_agg/</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.cat__rollup_agg_21DEC</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/cat__rollup_agg/</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.cat__transformed_agg_21DEC</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/cat__transformed_agg/</t>
   </si>
   <si>
     <t/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>job_name</t>
   </si>
@@ -25,22 +25,19 @@
     <t>ds_dbc_ofs.cat__raw_agg_21DEC</t>
   </si>
   <si>
-    <t>ds_dbc_ofs/cat__raw_agg/</t>
+    <t>ds_dbc_ofs/cat__raw_agg</t>
   </si>
   <si>
     <t>ds_dbc_ofs.cat__rollup_agg_21DEC</t>
   </si>
   <si>
-    <t>ds_dbc_ofs/cat__rollup_agg/</t>
+    <t>ds_dbc_ofs/cat__rollup_agg</t>
   </si>
   <si>
     <t>ds_dbc_ofs.cat__transformed_agg_21DEC</t>
   </si>
   <si>
-    <t>ds_dbc_ofs/cat__transformed_agg/</t>
-  </si>
-  <si>
-    <t/>
+    <t>ds_dbc_ofs/cat__transformed_agg</t>
   </si>
 </sst>
 </file>
@@ -90,12 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -409,8 +403,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="99.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="50.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="99.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="50.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -446,100 +440,52 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,19 +22,19 @@
     <t>location</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.cat__raw_agg_21DEC</t>
+    <t>ds_dbc_ofs.cat__raw_agg_22DEC</t>
   </si>
   <si>
     <t>ds_dbc_ofs/cat__raw_agg</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.cat__rollup_agg_21DEC</t>
+    <t>ds_dbc_ofs.cat__rollup_agg_22DEC</t>
   </si>
   <si>
     <t>ds_dbc_ofs/cat__rollup_agg</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.cat__transformed_agg_21DEC</t>
+    <t>ds_dbc_ofs.cat__transformed_agg_22DEC</t>
   </si>
   <si>
     <t>ds_dbc_ofs/cat__transformed_agg</t>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,22 +22,22 @@
     <t>location</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.cat__raw_agg_22DEC</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/cat__raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.cat__rollup_agg_22DEC</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/cat__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.cat__transformed_agg_22DEC</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/cat__transformed_agg</t>
+    <t>ds_dbc_ofs.catalog__ads_raw_agg_22DEC</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__ads_raw_agg/</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__ads_rollup_agg_22DEC</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__ads_rollup_agg/</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__ads_transformed_agg_22DEC</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__ads_transformed_agg/</t>
   </si>
 </sst>
 </file>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,22 +22,22 @@
     <t>location</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.catalog__ads_raw_agg_22DEC</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__ads_raw_agg/</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__ads_rollup_agg_22DEC</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__ads_rollup_agg/</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__ads_transformed_agg_22DEC</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__ads_transformed_agg/</t>
+    <t>ds_dbc_ofs.catalog__ads_raw_agg_22DEC_TEST</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__ads_raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__ads_rollup_agg_22DEC_TEST</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__ads_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__ads_transformed_agg_22DEC_TEST</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__ads_transformed_agg</t>
   </si>
 </sst>
 </file>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>job_name</t>
   </si>
@@ -22,22 +22,43 @@
     <t>location</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.catalog__ads_raw_agg_22DEC_TEST</t>
+    <t>ds_dbc_ofs.cat__raw_agg_22DEC</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/cat__raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.cat__rollup_agg_22DEC</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/cat__rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.cat__transformed_agg_22DEC</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/cat__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__ads_raw_agg_22DEC</t>
   </si>
   <si>
     <t>ds_dbc_ofs/catalog__ads_raw_agg</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.catalog__ads_rollup_agg_22DEC_TEST</t>
+    <t>ds_dbc_ofs.catalog__ads_rollup_agg_22DEC</t>
   </si>
   <si>
     <t>ds_dbc_ofs/catalog__ads_rollup_agg</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.catalog__ads_transformed_agg_22DEC_TEST</t>
+    <t>ds_dbc_ofs.catalog__ads_transformed_agg_22DEC</t>
   </si>
   <si>
     <t>ds_dbc_ofs/catalog__ads_transformed_agg</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -87,9 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -403,8 +427,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="99.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="50.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="99.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="75.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -440,52 +464,100 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>job_name</t>
   </si>
@@ -22,43 +22,40 @@
     <t>location</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.cat__raw_agg_22DEC</t>
+    <t>ds_dbc_ofs.cat__raw_agg_22DEC_DS</t>
   </si>
   <si>
     <t>ds_dbc_ofs/cat__raw_agg</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.cat__rollup_agg_22DEC</t>
+    <t>ds_dbc_ofs.cat__rollup_agg_22DEC_DS</t>
   </si>
   <si>
     <t>ds_dbc_ofs/cat__rollup_agg</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.cat__transformed_agg_22DEC</t>
+    <t>ds_dbc_ofs.cat__transformed_agg_22DEC_DS</t>
   </si>
   <si>
     <t>ds_dbc_ofs/cat__transformed_agg</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.catalog__ads_raw_agg_22DEC</t>
+    <t>ds_dbc_ofs.catalog__ads_raw_agg_22DEC_DS</t>
   </si>
   <si>
     <t>ds_dbc_ofs/catalog__ads_raw_agg</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.catalog__ads_rollup_agg_22DEC</t>
+    <t>ds_dbc_ofs.catalog__ads_rollup_agg_22DEC_DS</t>
   </si>
   <si>
     <t>ds_dbc_ofs/catalog__ads_rollup_agg</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.catalog__ads_transformed_agg_22DEC</t>
+    <t>ds_dbc_ofs.catalog__ads_transformed_agg_22DEC_DS</t>
   </si>
   <si>
     <t>ds_dbc_ofs/catalog__ads_transformed_agg</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -108,12 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -427,8 +421,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="99.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="75.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="99.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="75.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -488,76 +482,40 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="5">
   <si>
     <t>job_name</t>
   </si>
@@ -22,40 +22,13 @@
     <t>location</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.cat__raw_agg_22DEC_DS</t>
+    <t>silver.supply__shipment_details_26DEC</t>
   </si>
   <si>
-    <t>ds_dbc_ofs/cat__raw_agg</t>
+    <t>delta_lake/SILVER/supply/shipment_details_schema_change</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.cat__rollup_agg_22DEC_DS</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/cat__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.cat__transformed_agg_22DEC_DS</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/cat__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__ads_raw_agg_22DEC_DS</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__ads_raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__ads_rollup_agg_22DEC_DS</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__ads_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__ads_transformed_agg_22DEC_DS</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__ads_transformed_agg</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -63,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,26 +45,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffd966"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -105,13 +105,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,17 +421,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="99.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="75.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="67.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="101.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,89 +439,797 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="A94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="A96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="A98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>job_name</t>
   </si>
@@ -22,13 +22,598 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.supply__shipment_details_26DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/shipment_details_schema_change</t>
-  </si>
-  <si>
-    <t/>
+    <t>ds_dbc_ofs.cat__raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/cat__raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.cat__rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/cat__rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.cat__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/cat__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__ads_raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__ads_raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__ads_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__ads_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__ads_transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__ads_transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__attributes_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__attributes_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__attributes_temp_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__attributes_temp</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__long_term_intent_model_emb_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__long_term_intent_model_emb</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__notif_raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__notif_raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__quality_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__quality_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__realestate_derived_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__realestate_derived_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__realestate_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__realestate_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__transformed_quality_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__transformed_quality_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog__user_cohort_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog__user_cohort_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog_crossfeatures_tree__derived_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog_crossfeatures_tree__derived_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog_realestate__rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog_realestate__rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog_realestate_tree__derived_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog_realestate_tree__derived_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog_tree__ads_derived_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog_tree__ads_derived_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog_tree__ads_derived_features_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog_tree__ads_derived_features</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog_tree__ads_transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog_tree__ads_transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog_tree__derived_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog_tree__derived_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog_tree__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog_tree__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.catalog_tree__transformed_features_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/catalog_tree__transformed_features</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.clp__notif_raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/clp__notif_raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.clp_catalog__attributes_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/clp_catalog__attributes_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.clp_catalog_tree__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/clp_catalog_tree__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.portfolio__quality_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/portfolio__quality_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.portfolio__transformed_quality_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/portfolio__transformed_quality_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.query__search_transformed_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/query__search_transformed</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.query_catalog__search_raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/query_catalog__search_raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.query_catalog__search_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/query_catalog__search_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.query_catalog_tree__search_transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/query_catalog_tree__search_transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.query_sscat__search_raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/query_sscat__search_raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.query_sscat__search_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/query_sscat__search_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.scat__raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/scat__raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.scat__rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/scat__rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.scat__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/scat__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.sscat__ads_raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/sscat__ads_raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.sscat__ads_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/sscat__ads_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.sscat__ads_transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/sscat__ads_transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.sscat__quality_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/sscat__quality_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.sscat__raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/sscat__raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.sscat__rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/sscat__rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.sscat__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/sscat__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.sscat__transformed_quality_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/sscat__transformed_quality_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.sscat_tree__ads_derived_features_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/sscat_tree__ads_derived_features</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.supplier__platform_quality_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/supplier__platform_quality_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.supplier__quality_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/supplier__quality_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.supplier__rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/supplier__rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.supplier__transformed_quality_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/supplier__transformed_quality_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.supplier_cat__rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/supplier_cat__rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.supplier_scat__rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/supplier_scat__rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.supplier_sscat__quality_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/supplier_sscat__quality_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.supplier_sscat__rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/supplier_sscat__rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.supplier_sscat__transformed_quality_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/supplier_sscat__transformed_quality_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.temp_user_cat__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/temp_user_cat__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.temp_user_scat__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/temp_user_scat__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.temp_user_sscat__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/temp_user_sscat__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user__attributes_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user__attributes_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user__long_term_intent_model_emb_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user__long_term_intent_model_emb</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user__notif_raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user__notif_raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user__properties_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user__properties</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user__raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user__raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user__realestate_rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user__realestate_rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user__realestate_transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user__realestate_transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user__rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user__rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_cat__notif_raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_cat__notif_raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_cat__raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_cat__raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_cat__rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_cat__rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_cat__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_cat__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_cat_realestate_feedsource__raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_cat_realestate_feedsource__raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_catalog__notif_raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_catalog__notif_raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_catalog__raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_catalog__raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_catalog__rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_catalog__rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_catalog_realestate_feedsource__raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_catalog_realestate_feedsource__raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_catalog_tree__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_catalog_tree__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_clp__notif_raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_clp__notif_raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_cohort_catalog_tree__rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_cohort_catalog_tree__rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_cohort_catalog_tree__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_cohort_catalog_tree__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_query_catalog__search_raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_query_catalog__search_raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_query_sscat__search_raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_query_sscat__search_raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_scat__notif_raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_scat__notif_raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_scat__raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_scat__raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_scat__rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_scat__rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_scat__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_scat__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_scat_realestate_feedsource__raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_scat_realestate_feedsource__raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_segment_cat__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_segment_cat__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_segment_scat__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_segment_scat__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_segment_sscat__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_segment_sscat__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_sscat__notif_raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_sscat__notif_raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_sscat__raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_sscat__raw_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_sscat__rollup_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_sscat__rollup_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_sscat__transformed_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_sscat__transformed_agg</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs.user_sscat_realestate_feedsource__raw_agg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>ds_dbc_ofs/user_sscat_realestate_feedsource__raw_agg</t>
   </si>
 </sst>
 </file>
@@ -105,15 +690,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -427,8 +1009,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="67.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="101.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="67.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="101.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -448,787 +1030,787 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>4</v>
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
-      <c r="A20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
-      <c r="A21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
-      <c r="A23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
-      <c r="A24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>4</v>
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
-      <c r="A25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>4</v>
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
-      <c r="A26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
-      <c r="A27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
-      <c r="A28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>4</v>
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
-      <c r="A29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>4</v>
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
-      <c r="A30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>4</v>
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
-      <c r="A31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>4</v>
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
-      <c r="A32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>4</v>
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>4</v>
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>4</v>
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>4</v>
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>4</v>
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>4</v>
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>4</v>
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>4</v>
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>4</v>
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>4</v>
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>4</v>
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>4</v>
+      <c r="A43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>4</v>
+      <c r="A44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>4</v>
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>4</v>
+      <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>4</v>
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>4</v>
+      <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>4</v>
+      <c r="A49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>4</v>
+      <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>4</v>
+      <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
-      <c r="A52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>4</v>
+      <c r="A52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>4</v>
+      <c r="A53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
-      <c r="A54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>4</v>
+      <c r="A54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
-      <c r="A55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>4</v>
+      <c r="A55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
-      <c r="A56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>4</v>
+      <c r="A56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>4</v>
+      <c r="A57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>4</v>
+      <c r="A58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>4</v>
+      <c r="A59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>4</v>
+      <c r="A60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>4</v>
+      <c r="A61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>4</v>
+      <c r="A62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>4</v>
+      <c r="A63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>4</v>
+      <c r="A64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>4</v>
+      <c r="A65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
-      <c r="A66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>4</v>
+      <c r="A66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>4</v>
+      <c r="A67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
-      <c r="A68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>4</v>
+      <c r="A68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
-      <c r="A69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>4</v>
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
-      <c r="A70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>4</v>
+      <c r="A70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
-      <c r="A71" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>4</v>
+      <c r="A71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
-      <c r="A72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>4</v>
+      <c r="A72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
-      <c r="A73" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>4</v>
+      <c r="A73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
-      <c r="A74" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>4</v>
+      <c r="A74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
-      <c r="A75" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>4</v>
+      <c r="A75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
-      <c r="A76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>4</v>
+      <c r="A76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
-      <c r="A77" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>4</v>
+      <c r="A77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
-      <c r="A78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>4</v>
+      <c r="A78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
-      <c r="A79" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>4</v>
+      <c r="A79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
-      <c r="A80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>4</v>
+      <c r="A80" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
-      <c r="A81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>4</v>
+      <c r="A81" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
-      <c r="A82" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>4</v>
+      <c r="A82" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
-      <c r="A83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>4</v>
+      <c r="A83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
-      <c r="A84" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>4</v>
+      <c r="A84" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
-      <c r="A85" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>4</v>
+      <c r="A85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
-      <c r="A86" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>4</v>
+      <c r="A86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
-      <c r="A87" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>4</v>
+      <c r="A87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
-      <c r="A88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>4</v>
+      <c r="A88" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
-      <c r="A89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>4</v>
+      <c r="A89" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
-      <c r="A90" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>4</v>
+      <c r="A90" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
-      <c r="A91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>4</v>
+      <c r="A91" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
-      <c r="A92" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>4</v>
+      <c r="A92" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
-      <c r="A93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>4</v>
+      <c r="A93" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
-      <c r="A94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>4</v>
+      <c r="A94" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
-      <c r="A95" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>4</v>
+      <c r="A95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
-      <c r="A96" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>4</v>
+      <c r="A96" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
-      <c r="A97" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>4</v>
+      <c r="A97" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
-      <c r="A98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>4</v>
+      <c r="A98" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
-      <c r="A99" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>4</v>
+      <c r="A99" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
-      <c r="A100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>4</v>
+      <c r="A100" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="137">
   <si>
     <t>job_name</t>
   </si>
@@ -22,598 +22,409 @@
     <t>location</t>
   </si>
   <si>
-    <t>ds_dbc_ofs.cat__raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/cat__raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.cat__rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/cat__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.cat__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/cat__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__ads_raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__ads_raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__ads_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__ads_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__ads_transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__ads_transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__attributes_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__attributes_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__attributes_temp_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__attributes_temp</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__long_term_intent_model_emb_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__long_term_intent_model_emb</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__notif_raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__notif_raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__quality_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__quality_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__realestate_derived_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__realestate_derived_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__realestate_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__realestate_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__transformed_quality_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__transformed_quality_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog__user_cohort_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog__user_cohort_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog_crossfeatures_tree__derived_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog_crossfeatures_tree__derived_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog_realestate__rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog_realestate__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog_realestate_tree__derived_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog_realestate_tree__derived_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog_tree__ads_derived_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog_tree__ads_derived_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog_tree__ads_derived_features_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog_tree__ads_derived_features</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog_tree__ads_transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog_tree__ads_transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog_tree__derived_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog_tree__derived_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog_tree__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog_tree__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.catalog_tree__transformed_features_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/catalog_tree__transformed_features</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.clp__notif_raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/clp__notif_raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.clp_catalog__attributes_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/clp_catalog__attributes_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.clp_catalog_tree__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/clp_catalog_tree__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.portfolio__quality_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/portfolio__quality_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.portfolio__transformed_quality_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/portfolio__transformed_quality_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.query__search_transformed_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/query__search_transformed</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.query_catalog__search_raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/query_catalog__search_raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.query_catalog__search_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/query_catalog__search_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.query_catalog_tree__search_transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/query_catalog_tree__search_transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.query_sscat__search_raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/query_sscat__search_raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.query_sscat__search_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/query_sscat__search_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.scat__raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/scat__raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.scat__rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/scat__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.scat__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/scat__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.sscat__ads_raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/sscat__ads_raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.sscat__ads_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/sscat__ads_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.sscat__ads_transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/sscat__ads_transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.sscat__quality_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/sscat__quality_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.sscat__raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/sscat__raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.sscat__rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/sscat__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.sscat__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/sscat__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.sscat__transformed_quality_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/sscat__transformed_quality_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.sscat_tree__ads_derived_features_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/sscat_tree__ads_derived_features</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.supplier__platform_quality_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/supplier__platform_quality_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.supplier__quality_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/supplier__quality_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.supplier__rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/supplier__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.supplier__transformed_quality_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/supplier__transformed_quality_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.supplier_cat__rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/supplier_cat__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.supplier_scat__rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/supplier_scat__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.supplier_sscat__quality_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/supplier_sscat__quality_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.supplier_sscat__rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/supplier_sscat__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.supplier_sscat__transformed_quality_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/supplier_sscat__transformed_quality_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.temp_user_cat__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/temp_user_cat__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.temp_user_scat__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/temp_user_scat__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.temp_user_sscat__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/temp_user_sscat__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user__attributes_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user__attributes_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user__long_term_intent_model_emb_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user__long_term_intent_model_emb</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user__notif_raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user__notif_raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user__properties_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user__properties</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user__raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user__raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user__realestate_rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user__realestate_rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user__realestate_transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user__realestate_transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user__rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_cat__notif_raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_cat__notif_raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_cat__raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_cat__raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_cat__rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_cat__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_cat__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_cat__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_cat_realestate_feedsource__raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_cat_realestate_feedsource__raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_catalog__notif_raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_catalog__notif_raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_catalog__raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_catalog__raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_catalog__rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_catalog__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_catalog_realestate_feedsource__raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_catalog_realestate_feedsource__raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_catalog_tree__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_catalog_tree__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_clp__notif_raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_clp__notif_raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_cohort_catalog_tree__rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_cohort_catalog_tree__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_cohort_catalog_tree__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_cohort_catalog_tree__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_query_catalog__search_raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_query_catalog__search_raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_query_sscat__search_raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_query_sscat__search_raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_scat__notif_raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_scat__notif_raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_scat__raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_scat__raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_scat__rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_scat__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_scat__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_scat__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_scat_realestate_feedsource__raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_scat_realestate_feedsource__raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_segment_cat__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_segment_cat__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_segment_scat__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_segment_scat__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_segment_sscat__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_segment_sscat__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_sscat__notif_raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_sscat__notif_raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_sscat__raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_sscat__raw_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_sscat__rollup_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_sscat__rollup_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_sscat__transformed_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_sscat__transformed_agg</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs.user_sscat_realestate_feedsource__raw_agg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>ds_dbc_ofs/user_sscat_realestate_feedsource__raw_agg</t>
+    <t>ds_silver.ads_campaign_active_durtaion_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_campaign_active_durtaion</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_campaign_performance_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_campaign_performance</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_catalog_collection_mapping_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_catalog_collection_mapping</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_ctlg_ads_obyc_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_ctlg_ads_obyc</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_ctlg_ctx_obid_v2_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_ctlg_ctx_obid_v2</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_ctlg_ctx_pcvr_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_ctlg_ctx_pcvr</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_dynamic_bidding_acceptable_roi_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_dynamic_bidding_acceptable_roi</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_dynamic_bidding_sbid_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_dynamic_bidding_sbid</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_dynbid_bgt_cpc_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_dynbid_bgt_cpc</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_fallback_feed_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_fallback_feed</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_live_cpc_normalized_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_live_cpc_normalized</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_low_bu_campaign_order_prediction_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_low_bu_campaign_order_prediction</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_obid_usr_map_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_obid_usr_map</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_reco_intent_ltr_feedlength_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_reco_intent_ltr_feedlength</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_reco_intent_ltr_feedlength_without_fallback_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_reco_intent_ltr_feedlength_without_fallback</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_reco_intent_ltr_rtr_dynamic_weight_06_no_fallback_99_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_reco_intent_ltr_rtr_dynamic_weight_06_no_fallback_99</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_reco_intent_ltr_rtr_dynamic_weight_99_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_reco_intent_ltr_rtr_dynamic_weight_99</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_rtr_clp_feed_intermediate_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_rtr_clp_feed_intermediate</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_scr_campaign_performance_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_scr_campaign_performance</t>
+  </si>
+  <si>
+    <t>ds_silver.ads_scr_supplier_catalog_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ads_scr_supplier_catalog</t>
+  </si>
+  <si>
+    <t>ds_silver.catalog_bayesian_score_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/catalog_bayesian_score</t>
+  </si>
+  <si>
+    <t>ds_silver.catalog_odnr_filtered_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/catalog_odnr_filtered</t>
+  </si>
+  <si>
+    <t>ds_silver.catalog_predicted_nobygo_v1_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/catalog_predicted_nobygo_v1</t>
+  </si>
+  <si>
+    <t>ds_silver.catalog_predicted_rating_v1_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/catalog_predicted_rating_v1</t>
+  </si>
+  <si>
+    <t>ds_silver.catalog_predicted_ratio_v2_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/catalog_predicted_ratio_v2</t>
+  </si>
+  <si>
+    <t>ds_silver.catalog_predicted_ratio_v3_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/catalog_predicted_ratio_v3</t>
+  </si>
+  <si>
+    <t>ds_silver.catalog_ranker_score_v0_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/catalog_ranker_score_v0</t>
+  </si>
+  <si>
+    <t>ds_silver.ds_ads_supplier_catalog_reco_exp_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ds_ads_supplier_catalog_reco_exp</t>
+  </si>
+  <si>
+    <t>ds_silver.ds_explore_pdp_ads_v2_1_recommendations_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ds_explore_pdp_ads_v2_1_recommendations</t>
+  </si>
+  <si>
+    <t>ds_silver.ds_pull_notif_output_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/ds_pull_notif_output</t>
+  </si>
+  <si>
+    <t>ds_silver.explore_pdp_metrics_realtime_experiments_abacus_2031_20231126_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/explore_pdp_metrics_realtime_experiments_abacus_2031_20231126</t>
+  </si>
+  <si>
+    <t>ds_silver.live_ads_log_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/live_ads_log</t>
+  </si>
+  <si>
+    <t>ds_silver.new_catalogs_exp_pref_fallback_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/new_catalogs_exp_pref_fallback</t>
+  </si>
+  <si>
+    <t>ds_silver.new_catalogs_fallback_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/new_catalogs_fallback</t>
+  </si>
+  <si>
+    <t>ds_silver.post_order_ensemble_user_risk_scores_flag_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/post_order_ensemble_user_risk_scores_flag</t>
+  </si>
+  <si>
+    <t>ds_silver.query_catalog_search_ranker_v1_600k_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/query_catalog_search_ranker_v1_600k</t>
+  </si>
+  <si>
+    <t>ds_silver.query_catalog_search_ranker_v1_600k_pid_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/query_catalog_search_ranker_v1_600k_pid</t>
+  </si>
+  <si>
+    <t>ds_silver.recent_interactions_pn_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/recent_interactions_pn</t>
+  </si>
+  <si>
+    <t>ds_silver.reranker_unscaled_explore_sscat_prob_arrays_v3_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/reranker_unscaled_explore_sscat_prob_arrays_v3</t>
+  </si>
+  <si>
+    <t>ds_silver.rto_statistics_top_columns_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/rto_statistics_top_columns</t>
+  </si>
+  <si>
+    <t>ds_silver.rto_statistics_top_columns_with_pct_change_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/rto_statistics_top_columns_with_pct_change</t>
+  </si>
+  <si>
+    <t>ds_silver.search_catalog_ltr_scores_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/search_catalog_ltr_scores</t>
+  </si>
+  <si>
+    <t>ds_silver.search_catalog_scores_v0_0_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/search_catalog_scores_v0_0</t>
+  </si>
+  <si>
+    <t>ds_silver.search_ranker_v2_input_cg_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/search_ranker_v2_input_cg</t>
+  </si>
+  <si>
+    <t>ds_silver.search_top_queries_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/search_top_queries</t>
+  </si>
+  <si>
+    <t>ds_silver.search_v1_baseline_flavabert_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/search_v1_baseline_flavabert</t>
+  </si>
+  <si>
+    <t>ds_silver.search_v1_flavabert_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/search_v1_flavabert</t>
+  </si>
+  <si>
+    <t>ds_silver.show_reco_improve_bu_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/show_reco_improve_bu</t>
+  </si>
+  <si>
+    <t>ds_silver.swap_table_product_main_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/swap_table_product_main</t>
+  </si>
+  <si>
+    <t>ds_silver.temp_search_ranker_delta_candidates_catalog_desc_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/temp_search_ranker_delta_candidates_catalog_desc</t>
+  </si>
+  <si>
+    <t>ds_silver.temp_search_ranker_delta_candidates_product_name_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/temp_search_ranker_delta_candidates_product_name</t>
+  </si>
+  <si>
+    <t>ds_silver.temp_search_ranker_flavabert_candidates_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/temp_search_ranker_flavabert_candidates</t>
+  </si>
+  <si>
+    <t>ds_silver.temp_search_ranker_flavabert_embedding_score_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/temp_search_ranker_flavabert_embedding_score</t>
+  </si>
+  <si>
+    <t>ds_silver.temp_search_ranker_flavabert_v2_features_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/temp_search_ranker_flavabert_v2_features</t>
+  </si>
+  <si>
+    <t>ds_silver.temp_search_ranker_global_candidates_feats_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/temp_search_ranker_global_candidates_feats</t>
+  </si>
+  <si>
+    <t>ds_silver.temp_search_ranker_nlpfeats_catalog_description_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/temp_search_ranker_nlpfeats_catalog_description</t>
+  </si>
+  <si>
+    <t>ds_silver.temp_search_ranker_nlpfeats_product_name_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/temp_search_ranker_nlpfeats_product_name</t>
+  </si>
+  <si>
+    <t>ds_silver.temp_search_ranker_unique_candidates_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/temp_search_ranker_unique_candidates</t>
+  </si>
+  <si>
+    <t>ds_silver.temp_search_ranker_v1_features_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/temp_search_ranker_v1_features</t>
+  </si>
+  <si>
+    <t>ds_silver.temp_search_v1_baseline_flavabert_deboosted_dailyfeed_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/temp_search_v1_baseline_flavabert_deboosted_dailyfeed</t>
+  </si>
+  <si>
+    <t>ds_silver.temp_search_v1_baseline_flavabert_features_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/temp_search_v1_baseline_flavabert_features</t>
+  </si>
+  <si>
+    <t>ds_silver.tmp_ads_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/tmp_ads</t>
+  </si>
+  <si>
+    <t>ds_silver.user_association_snapshot_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/user_association_snapshot</t>
+  </si>
+  <si>
+    <t>ds_silver.voice_of_customer_agg_product_ratings_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/voice_of_customer_agg_product_ratings</t>
+  </si>
+  <si>
+    <t>ds_silver.vtax_group_purity_report_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/vtax_group_purity_report</t>
+  </si>
+  <si>
+    <t>ds_silver.wfr_statistics_top_columns_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/wfr_statistics_top_columns</t>
+  </si>
+  <si>
+    <t>ds_silver.wfr_statistics_top_columns_with_pct_change_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver/wfr_statistics_top_columns_with_pct_change</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -690,12 +501,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1009,8 +823,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="67.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="101.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="67.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="101.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1558,259 +1372,259 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
-      <c r="A69" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>137</v>
+      <c r="A69" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
-      <c r="A70" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>139</v>
+      <c r="A70" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
-      <c r="A71" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>141</v>
+      <c r="A71" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
-      <c r="A72" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>143</v>
+      <c r="A72" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
-      <c r="A73" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>145</v>
+      <c r="A73" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
-      <c r="A74" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>147</v>
+      <c r="A74" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
-      <c r="A75" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>149</v>
+      <c r="A75" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
-      <c r="A76" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>151</v>
+      <c r="A76" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
-      <c r="A77" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>153</v>
+      <c r="A77" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
-      <c r="A78" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>155</v>
+      <c r="A78" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
-      <c r="A79" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>157</v>
+      <c r="A79" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
-      <c r="A80" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>159</v>
+      <c r="A80" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
-      <c r="A81" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>161</v>
+      <c r="A81" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
-      <c r="A82" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>163</v>
+      <c r="A82" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
-      <c r="A83" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>165</v>
+      <c r="A83" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
-      <c r="A84" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>167</v>
+      <c r="A84" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
-      <c r="A85" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>169</v>
+      <c r="A85" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
-      <c r="A86" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>171</v>
+      <c r="A86" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
-      <c r="A87" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>173</v>
+      <c r="A87" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
-      <c r="A88" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>175</v>
+      <c r="A88" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
-      <c r="A89" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>177</v>
+      <c r="A89" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
-      <c r="A90" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>179</v>
+      <c r="A90" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
-      <c r="A91" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>181</v>
+      <c r="A91" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
-      <c r="A92" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>183</v>
+      <c r="A92" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
-      <c r="A93" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>185</v>
+      <c r="A93" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
-      <c r="A94" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>187</v>
+      <c r="A94" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
-      <c r="A95" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>189</v>
+      <c r="A95" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
-      <c r="A96" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>191</v>
+      <c r="A96" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
-      <c r="A97" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>193</v>
+      <c r="A97" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
-      <c r="A98" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>195</v>
+      <c r="A98" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
-      <c r="A99" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>197</v>
+      <c r="A99" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
-      <c r="A100" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>199</v>
+      <c r="A100" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="29">
   <si>
     <t>job_name</t>
   </si>
@@ -22,406 +22,82 @@
     <t>location</t>
   </si>
   <si>
-    <t>ds_silver.ads_campaign_active_durtaion_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_campaign_active_durtaion</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_campaign_performance_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_campaign_performance</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_catalog_collection_mapping_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_catalog_collection_mapping</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_ctlg_ads_obyc_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_ctlg_ads_obyc</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_ctlg_ctx_obid_v2_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_ctlg_ctx_obid_v2</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_ctlg_ctx_pcvr_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_ctlg_ctx_pcvr</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_dynamic_bidding_acceptable_roi_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_dynamic_bidding_acceptable_roi</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_dynamic_bidding_sbid_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_dynamic_bidding_sbid</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_dynbid_bgt_cpc_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_dynbid_bgt_cpc</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_fallback_feed_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_fallback_feed</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_live_cpc_normalized_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_live_cpc_normalized</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_low_bu_campaign_order_prediction_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_low_bu_campaign_order_prediction</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_obid_usr_map_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_obid_usr_map</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_reco_intent_ltr_feedlength_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_reco_intent_ltr_feedlength</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_reco_intent_ltr_feedlength_without_fallback_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_reco_intent_ltr_feedlength_without_fallback</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_reco_intent_ltr_rtr_dynamic_weight_06_no_fallback_99_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_reco_intent_ltr_rtr_dynamic_weight_06_no_fallback_99</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_reco_intent_ltr_rtr_dynamic_weight_99_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_reco_intent_ltr_rtr_dynamic_weight_99</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_rtr_clp_feed_intermediate_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_rtr_clp_feed_intermediate</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_scr_campaign_performance_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_scr_campaign_performance</t>
-  </si>
-  <si>
-    <t>ds_silver.ads_scr_supplier_catalog_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ads_scr_supplier_catalog</t>
-  </si>
-  <si>
-    <t>ds_silver.catalog_bayesian_score_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/catalog_bayesian_score</t>
-  </si>
-  <si>
-    <t>ds_silver.catalog_odnr_filtered_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/catalog_odnr_filtered</t>
-  </si>
-  <si>
-    <t>ds_silver.catalog_predicted_nobygo_v1_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/catalog_predicted_nobygo_v1</t>
-  </si>
-  <si>
-    <t>ds_silver.catalog_predicted_rating_v1_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/catalog_predicted_rating_v1</t>
-  </si>
-  <si>
-    <t>ds_silver.catalog_predicted_ratio_v2_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/catalog_predicted_ratio_v2</t>
-  </si>
-  <si>
-    <t>ds_silver.catalog_predicted_ratio_v3_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/catalog_predicted_ratio_v3</t>
-  </si>
-  <si>
-    <t>ds_silver.catalog_ranker_score_v0_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/catalog_ranker_score_v0</t>
-  </si>
-  <si>
-    <t>ds_silver.ds_ads_supplier_catalog_reco_exp_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ds_ads_supplier_catalog_reco_exp</t>
-  </si>
-  <si>
-    <t>ds_silver.ds_explore_pdp_ads_v2_1_recommendations_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ds_explore_pdp_ads_v2_1_recommendations</t>
-  </si>
-  <si>
-    <t>ds_silver.ds_pull_notif_output_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/ds_pull_notif_output</t>
-  </si>
-  <si>
-    <t>ds_silver.explore_pdp_metrics_realtime_experiments_abacus_2031_20231126_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/explore_pdp_metrics_realtime_experiments_abacus_2031_20231126</t>
-  </si>
-  <si>
-    <t>ds_silver.live_ads_log_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/live_ads_log</t>
-  </si>
-  <si>
-    <t>ds_silver.new_catalogs_exp_pref_fallback_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/new_catalogs_exp_pref_fallback</t>
-  </si>
-  <si>
-    <t>ds_silver.new_catalogs_fallback_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/new_catalogs_fallback</t>
-  </si>
-  <si>
-    <t>ds_silver.post_order_ensemble_user_risk_scores_flag_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/post_order_ensemble_user_risk_scores_flag</t>
-  </si>
-  <si>
-    <t>ds_silver.query_catalog_search_ranker_v1_600k_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/query_catalog_search_ranker_v1_600k</t>
-  </si>
-  <si>
-    <t>ds_silver.query_catalog_search_ranker_v1_600k_pid_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/query_catalog_search_ranker_v1_600k_pid</t>
-  </si>
-  <si>
-    <t>ds_silver.recent_interactions_pn_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/recent_interactions_pn</t>
-  </si>
-  <si>
-    <t>ds_silver.reranker_unscaled_explore_sscat_prob_arrays_v3_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/reranker_unscaled_explore_sscat_prob_arrays_v3</t>
-  </si>
-  <si>
-    <t>ds_silver.rto_statistics_top_columns_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/rto_statistics_top_columns</t>
-  </si>
-  <si>
-    <t>ds_silver.rto_statistics_top_columns_with_pct_change_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/rto_statistics_top_columns_with_pct_change</t>
-  </si>
-  <si>
-    <t>ds_silver.search_catalog_ltr_scores_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/search_catalog_ltr_scores</t>
-  </si>
-  <si>
-    <t>ds_silver.search_catalog_scores_v0_0_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/search_catalog_scores_v0_0</t>
-  </si>
-  <si>
-    <t>ds_silver.search_ranker_v2_input_cg_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/search_ranker_v2_input_cg</t>
-  </si>
-  <si>
-    <t>ds_silver.search_top_queries_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/search_top_queries</t>
-  </si>
-  <si>
-    <t>ds_silver.search_v1_baseline_flavabert_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/search_v1_baseline_flavabert</t>
-  </si>
-  <si>
-    <t>ds_silver.search_v1_flavabert_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/search_v1_flavabert</t>
-  </si>
-  <si>
-    <t>ds_silver.show_reco_improve_bu_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/show_reco_improve_bu</t>
-  </si>
-  <si>
-    <t>ds_silver.swap_table_product_main_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/swap_table_product_main</t>
-  </si>
-  <si>
-    <t>ds_silver.temp_search_ranker_delta_candidates_catalog_desc_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/temp_search_ranker_delta_candidates_catalog_desc</t>
-  </si>
-  <si>
-    <t>ds_silver.temp_search_ranker_delta_candidates_product_name_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/temp_search_ranker_delta_candidates_product_name</t>
-  </si>
-  <si>
-    <t>ds_silver.temp_search_ranker_flavabert_candidates_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/temp_search_ranker_flavabert_candidates</t>
-  </si>
-  <si>
-    <t>ds_silver.temp_search_ranker_flavabert_embedding_score_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/temp_search_ranker_flavabert_embedding_score</t>
-  </si>
-  <si>
-    <t>ds_silver.temp_search_ranker_flavabert_v2_features_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/temp_search_ranker_flavabert_v2_features</t>
-  </si>
-  <si>
-    <t>ds_silver.temp_search_ranker_global_candidates_feats_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/temp_search_ranker_global_candidates_feats</t>
-  </si>
-  <si>
-    <t>ds_silver.temp_search_ranker_nlpfeats_catalog_description_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/temp_search_ranker_nlpfeats_catalog_description</t>
-  </si>
-  <si>
-    <t>ds_silver.temp_search_ranker_nlpfeats_product_name_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/temp_search_ranker_nlpfeats_product_name</t>
-  </si>
-  <si>
-    <t>ds_silver.temp_search_ranker_unique_candidates_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/temp_search_ranker_unique_candidates</t>
-  </si>
-  <si>
-    <t>ds_silver.temp_search_ranker_v1_features_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/temp_search_ranker_v1_features</t>
-  </si>
-  <si>
-    <t>ds_silver.temp_search_v1_baseline_flavabert_deboosted_dailyfeed_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/temp_search_v1_baseline_flavabert_deboosted_dailyfeed</t>
-  </si>
-  <si>
-    <t>ds_silver.temp_search_v1_baseline_flavabert_features_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/temp_search_v1_baseline_flavabert_features</t>
-  </si>
-  <si>
-    <t>ds_silver.tmp_ads_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/tmp_ads</t>
-  </si>
-  <si>
-    <t>ds_silver.user_association_snapshot_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/user_association_snapshot</t>
-  </si>
-  <si>
-    <t>ds_silver.voice_of_customer_agg_product_ratings_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/voice_of_customer_agg_product_ratings</t>
-  </si>
-  <si>
-    <t>ds_silver.vtax_group_purity_report_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/vtax_group_purity_report</t>
-  </si>
-  <si>
-    <t>ds_silver.wfr_statistics_top_columns_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/wfr_statistics_top_columns</t>
-  </si>
-  <si>
-    <t>ds_silver.wfr_statistics_top_columns_with_pct_change_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/wfr_statistics_top_columns_with_pct_change</t>
+    <t>data-science-meesho-image__product_match__v2__meesho_meesho__prod_tables__nns_pairs_22DEC</t>
+  </si>
+  <si>
+    <t>product_match/v2/meesho_meesho/prod_tables/nns_pairs</t>
+  </si>
+  <si>
+    <t>data-science-meesho-image__product_match__v2__meesho_meesho__prod_tables__unmatched_products_log_22DEC</t>
+  </si>
+  <si>
+    <t>product_match/v2/meesho_meesho/prod_tables/unmatched_products_log</t>
+  </si>
+  <si>
+    <t>data-science-meesho-image__product_match__v2__meesho_meesho__full_load__embeddings__beit_siamese_pretrained_22DEC</t>
+  </si>
+  <si>
+    <t>product_match/v2/meesho_meesho/full_load/embeddings/beit_siamese_pretrained</t>
+  </si>
+  <si>
+    <t>data-science-meesho-image__product_match__v2__meesho_meesho__full_load__raw_dataset__beit_siamese_pretrained_22DEC</t>
+  </si>
+  <si>
+    <t>product_match/v2/meesho_meesho/full_load/raw_dataset/beit_siamese_pretrained</t>
+  </si>
+  <si>
+    <t>data-science-meesho-image__multimodal_learning__flava__v2__embeddings_22DEC</t>
+  </si>
+  <si>
+    <t>multimodal_learning/flava/v2/embeddings</t>
+  </si>
+  <si>
+    <t>data-science-meesho-image__multimodal_learning__flava__v2__raw_data_22DEC</t>
+  </si>
+  <si>
+    <t>multimodal_learning/flava/v2/raw_data</t>
+  </si>
+  <si>
+    <t>data-science-meesho-image__product_match__pair_verification__group_tagging_verification_processed_22DEC</t>
+  </si>
+  <si>
+    <t>product_match/pair_verification/group_tagging_verification_processed</t>
+  </si>
+  <si>
+    <t>data-science-meesho-image__product_match__pair_verification__group_tagging_verified_pairs_22DEC</t>
+  </si>
+  <si>
+    <t>product_match/pair_verification/group_tagging_verified_pairs</t>
+  </si>
+  <si>
+    <t>data-science-meesho-image__product_match__v2__meesho_competitor__batch_job_data__embedding_generation__competitor_siamese_image_embeddings_22DEC</t>
+  </si>
+  <si>
+    <t>product_match/v2/meesho_competitor/batch_job_data/embedding_generation/competitor_siamese_image_embeddings</t>
+  </si>
+  <si>
+    <t>data-science-meesho-image__product_match__v2__meesho_competitor__batch_job_data__embedding_generation__raw_dataset_22DEC</t>
+  </si>
+  <si>
+    <t>product_match/v2/meesho_competitor/batch_job_data/embedding_generation/raw_dataset</t>
+  </si>
+  <si>
+    <t>data-science-meesho-image__product_match__v2__meesho_competitor__batch_job_data__nns__meesho_product_processed_22DEC</t>
+  </si>
+  <si>
+    <t>product_match/v2/meesho_competitor/batch_job_data/nns/meesho_product_processed</t>
+  </si>
+  <si>
+    <t>data-science-meesho-image__product_match__v2__meesho_competitor__batch_job_data__nns__comp_id_processed_22DEC</t>
+  </si>
+  <si>
+    <t>product_match/v2/meesho_competitor/batch_job_data/nns/comp_id_processed</t>
+  </si>
+  <si>
+    <t>data-science-meesho-image__product_match__v2__meesho_competitor__batch_job_data__nns__image_similarity_22DEC</t>
+  </si>
+  <si>
+    <t>product_match/v2/meesho_competitor/batch_job_data/nns/image_similarity</t>
   </si>
   <si>
     <t/>
@@ -940,691 +616,691 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
-      <c r="A21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
-      <c r="A23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
-      <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
-      <c r="A25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>49</v>
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
-      <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
-      <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>53</v>
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
-      <c r="A28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>55</v>
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
-      <c r="A29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>57</v>
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
-      <c r="A30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
-      <c r="A31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>61</v>
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
-      <c r="A32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>63</v>
+      <c r="A32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>65</v>
+      <c r="A33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>67</v>
+      <c r="A34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>69</v>
+      <c r="A35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>71</v>
+      <c r="A36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>73</v>
+      <c r="A37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>75</v>
+      <c r="A38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>77</v>
+      <c r="A39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>79</v>
+      <c r="A40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>81</v>
+      <c r="A41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>83</v>
+      <c r="A42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>85</v>
+      <c r="A43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>87</v>
+      <c r="A44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>89</v>
+      <c r="A45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>91</v>
+      <c r="A46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>93</v>
+      <c r="A47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>95</v>
+      <c r="A48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>97</v>
+      <c r="A49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>99</v>
+      <c r="A50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>101</v>
+      <c r="A51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
-      <c r="A52" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>103</v>
+      <c r="A52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>105</v>
+      <c r="A53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
-      <c r="A54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>107</v>
+      <c r="A54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
-      <c r="A55" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>109</v>
+      <c r="A55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
-      <c r="A56" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>111</v>
+      <c r="A56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>113</v>
+      <c r="A57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>115</v>
+      <c r="A58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>117</v>
+      <c r="A59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>119</v>
+      <c r="A60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>121</v>
+      <c r="A61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>123</v>
+      <c r="A62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>125</v>
+      <c r="A63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>127</v>
+      <c r="A64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>129</v>
+      <c r="A65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
-      <c r="A66" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>131</v>
+      <c r="A66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>133</v>
+      <c r="A67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
-      <c r="A68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>135</v>
+      <c r="A68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,79 +22,79 @@
     <t>location</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__v2__meesho_meesho__prod_tables__nns_pairs_22DEC</t>
+    <t>data-science-meesho-image__product_match__v2__meesho_meesho__prod_tables__nns_pairs_27DEC_SCH</t>
   </si>
   <si>
     <t>product_match/v2/meesho_meesho/prod_tables/nns_pairs</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__v2__meesho_meesho__prod_tables__unmatched_products_log_22DEC</t>
+    <t>data-science-meesho-image__product_match__v2__meesho_meesho__prod_tables__unmatched_products_log_27DEC_SCH</t>
   </si>
   <si>
     <t>product_match/v2/meesho_meesho/prod_tables/unmatched_products_log</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__v2__meesho_meesho__full_load__embeddings__beit_siamese_pretrained_22DEC</t>
+    <t>data-science-meesho-image__product_match__v2__meesho_meesho__full_load__embeddings__beit_siamese_pretrained_27DEC_SCH</t>
   </si>
   <si>
     <t>product_match/v2/meesho_meesho/full_load/embeddings/beit_siamese_pretrained</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__v2__meesho_meesho__full_load__raw_dataset__beit_siamese_pretrained_22DEC</t>
+    <t>data-science-meesho-image__product_match__v2__meesho_meesho__full_load__raw_dataset__beit_siamese_pretrained_27DEC_SCH</t>
   </si>
   <si>
     <t>product_match/v2/meesho_meesho/full_load/raw_dataset/beit_siamese_pretrained</t>
   </si>
   <si>
-    <t>data-science-meesho-image__multimodal_learning__flava__v2__embeddings_22DEC</t>
+    <t>data-science-meesho-image__multimodal_learning__flava__v2__embeddings_27DEC_SCH</t>
   </si>
   <si>
     <t>multimodal_learning/flava/v2/embeddings</t>
   </si>
   <si>
-    <t>data-science-meesho-image__multimodal_learning__flava__v2__raw_data_22DEC</t>
+    <t>data-science-meesho-image__multimodal_learning__flava__v2__raw_data_27DEC_SCH</t>
   </si>
   <si>
     <t>multimodal_learning/flava/v2/raw_data</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__pair_verification__group_tagging_verification_processed_22DEC</t>
+    <t>data-science-meesho-image__product_match__pair_verification__group_tagging_verification_processed_27DEC_SCH</t>
   </si>
   <si>
     <t>product_match/pair_verification/group_tagging_verification_processed</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__pair_verification__group_tagging_verified_pairs_22DEC</t>
+    <t>data-science-meesho-image__product_match__pair_verification__group_tagging_verified_pairs_27DEC_SCH</t>
   </si>
   <si>
     <t>product_match/pair_verification/group_tagging_verified_pairs</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__v2__meesho_competitor__batch_job_data__embedding_generation__competitor_siamese_image_embeddings_22DEC</t>
+    <t>v2__meesho_competitor__batch_job_data__embedding_generation__competitor_siamese_image_embeddings_27DEC_SCH</t>
   </si>
   <si>
     <t>product_match/v2/meesho_competitor/batch_job_data/embedding_generation/competitor_siamese_image_embeddings</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__v2__meesho_competitor__batch_job_data__embedding_generation__raw_dataset_22DEC</t>
+    <t>v2__meesho_competitor__batch_job_data__embedding_generation__raw_dataset_27DEC_SCH</t>
   </si>
   <si>
     <t>product_match/v2/meesho_competitor/batch_job_data/embedding_generation/raw_dataset</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__v2__meesho_competitor__batch_job_data__nns__meesho_product_processed_22DEC</t>
+    <t>data-science-meesho-image__product_match__v2__meesho_competitor__batch_job_data__nns__meesho_product_processed_27DEC_SCH</t>
   </si>
   <si>
     <t>product_match/v2/meesho_competitor/batch_job_data/nns/meesho_product_processed</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__v2__meesho_competitor__batch_job_data__nns__comp_id_processed_22DEC</t>
+    <t>data-science-meesho-image__product_match__v2__meesho_competitor__batch_job_data__nns__comp_id_processed_27DEC_SCH</t>
   </si>
   <si>
     <t>product_match/v2/meesho_competitor/batch_job_data/nns/comp_id_processed</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__v2__meesho_competitor__batch_job_data__nns__image_similarity_22DEC</t>
+    <t>data-science-meesho-image__product_match__v2__meesho_competitor__batch_job_data__nns__image_similarity_27DEC_SCH</t>
   </si>
   <si>
     <t>product_match/v2/meesho_competitor/batch_job_data/nns/image_similarity</t>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -34,13 +34,13 @@
     <t>product_match/v2/meesho_meesho/prod_tables/unmatched_products_log</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__v2__meesho_meesho__full_load__embeddings__beit_siamese_pretrained_27DEC_SCH</t>
+    <t>v2__meesho_meesho__full_load__embeddings__beit_siamese_pretrained_27DEC_SCH</t>
   </si>
   <si>
     <t>product_match/v2/meesho_meesho/full_load/embeddings/beit_siamese_pretrained</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__v2__meesho_meesho__full_load__raw_dataset__beit_siamese_pretrained_27DEC_SCH</t>
+    <t>v2__meesho_meesho__full_load__raw_dataset__beit_siamese_pretrained_27DEC_SCH</t>
   </si>
   <si>
     <t>product_match/v2/meesho_meesho/full_load/raw_dataset/beit_siamese_pretrained</t>
@@ -82,19 +82,19 @@
     <t>product_match/v2/meesho_competitor/batch_job_data/embedding_generation/raw_dataset</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__v2__meesho_competitor__batch_job_data__nns__meesho_product_processed_27DEC_SCH</t>
+    <t>v2__meesho_competitor__batch_job_data__nns__meesho_product_processed_27DEC_SCH</t>
   </si>
   <si>
     <t>product_match/v2/meesho_competitor/batch_job_data/nns/meesho_product_processed</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__v2__meesho_competitor__batch_job_data__nns__comp_id_processed_27DEC_SCH</t>
+    <t>v2__meesho_competitor__batch_job_data__nns__comp_id_processed_27DEC_SCH</t>
   </si>
   <si>
     <t>product_match/v2/meesho_competitor/batch_job_data/nns/comp_id_processed</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__v2__meesho_competitor__batch_job_data__nns__image_similarity_27DEC_SCH</t>
+    <t>v2__meesho_competitor__batch_job_data__nns__image_similarity_27DEC_SCH</t>
   </si>
   <si>
     <t>product_match/v2/meesho_competitor/batch_job_data/nns/image_similarity</t>
@@ -499,7 +499,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="67.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="89.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="4" width="101.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="11">
   <si>
     <t>job_name</t>
   </si>
@@ -22,82 +22,28 @@
     <t>location</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__v2__meesho_meesho__prod_tables__nns_pairs_27DEC_SCH</t>
+    <t>data-science-meesho-dev-search__jami__Search_Profiling_27DEC_SCH</t>
   </si>
   <si>
-    <t>product_match/v2/meesho_meesho/prod_tables/nns_pairs</t>
+    <t>jami/Search_Profiling</t>
   </si>
   <si>
-    <t>data-science-meesho-image__product_match__v2__meesho_meesho__prod_tables__unmatched_products_log_27DEC_SCH</t>
+    <t>data-science-meesho-dev-search__jami__Search_Profiling_queries_27DEC_SCH</t>
   </si>
   <si>
-    <t>product_match/v2/meesho_meesho/prod_tables/unmatched_products_log</t>
+    <t>jami/Search_Profiling_queries</t>
   </si>
   <si>
-    <t>v2__meesho_meesho__full_load__embeddings__beit_siamese_pretrained_27DEC_SCH</t>
+    <t>data-science-meesho-dev-search__jami__Voice_Search_Profiling_27DEC_SCH</t>
   </si>
   <si>
-    <t>product_match/v2/meesho_meesho/full_load/embeddings/beit_siamese_pretrained</t>
+    <t>jami/Voice_Search_Profiling</t>
   </si>
   <si>
-    <t>v2__meesho_meesho__full_load__raw_dataset__beit_siamese_pretrained_27DEC_SCH</t>
+    <t>data-science-meesho-dev-search__jami__Voice_Search_Profiling_queries_27DEC_SCH</t>
   </si>
   <si>
-    <t>product_match/v2/meesho_meesho/full_load/raw_dataset/beit_siamese_pretrained</t>
-  </si>
-  <si>
-    <t>data-science-meesho-image__multimodal_learning__flava__v2__embeddings_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>multimodal_learning/flava/v2/embeddings</t>
-  </si>
-  <si>
-    <t>data-science-meesho-image__multimodal_learning__flava__v2__raw_data_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>multimodal_learning/flava/v2/raw_data</t>
-  </si>
-  <si>
-    <t>data-science-meesho-image__product_match__pair_verification__group_tagging_verification_processed_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>product_match/pair_verification/group_tagging_verification_processed</t>
-  </si>
-  <si>
-    <t>data-science-meesho-image__product_match__pair_verification__group_tagging_verified_pairs_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>product_match/pair_verification/group_tagging_verified_pairs</t>
-  </si>
-  <si>
-    <t>v2__meesho_competitor__batch_job_data__embedding_generation__competitor_siamese_image_embeddings_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>product_match/v2/meesho_competitor/batch_job_data/embedding_generation/competitor_siamese_image_embeddings</t>
-  </si>
-  <si>
-    <t>v2__meesho_competitor__batch_job_data__embedding_generation__raw_dataset_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>product_match/v2/meesho_competitor/batch_job_data/embedding_generation/raw_dataset</t>
-  </si>
-  <si>
-    <t>v2__meesho_competitor__batch_job_data__nns__meesho_product_processed_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>product_match/v2/meesho_competitor/batch_job_data/nns/meesho_product_processed</t>
-  </si>
-  <si>
-    <t>v2__meesho_competitor__batch_job_data__nns__comp_id_processed_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>product_match/v2/meesho_competitor/batch_job_data/nns/comp_id_processed</t>
-  </si>
-  <si>
-    <t>v2__meesho_competitor__batch_job_data__nns__image_similarity_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>product_match/v2/meesho_competitor/batch_job_data/nns/image_similarity</t>
+    <t>jami/Voice_Search_Profiling_queries</t>
   </si>
   <si>
     <t/>
@@ -544,763 +490,763 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
       <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="9">
   <si>
     <t>job_name</t>
   </si>
@@ -22,28 +22,22 @@
     <t>location</t>
   </si>
   <si>
-    <t>data-science-meesho-dev-search__jami__Search_Profiling_27DEC_SCH</t>
+    <t>retrieval__multimodal_retreival__relevance__prod_tables__search_query_catalog_pairs_score_v1_27DEC_SCH</t>
   </si>
   <si>
-    <t>jami/Search_Profiling</t>
+    <t>retrieval/multimodal_retreival/relevance/prod_tables/search_query_catalog_pairs_score_v1</t>
   </si>
   <si>
-    <t>data-science-meesho-dev-search__jami__Search_Profiling_queries_27DEC_SCH</t>
+    <t>retrieval__multimodal_retreival__relevance__flava_indicbert_100m__embeddings__search_query_27DEC_SCH</t>
   </si>
   <si>
-    <t>jami/Search_Profiling_queries</t>
+    <t>retrieval/multimodal_retreival/relevance/flava_indicbert_100m/embeddings/search_query</t>
   </si>
   <si>
-    <t>data-science-meesho-dev-search__jami__Voice_Search_Profiling_27DEC_SCH</t>
+    <t>retrieval__multimodal_retreival__relevance__flava_indicbert_100m__embeddings__qdrant_catalogs_27DEC_SCH</t>
   </si>
   <si>
-    <t>jami/Voice_Search_Profiling</t>
-  </si>
-  <si>
-    <t>data-science-meesho-dev-search__jami__Voice_Search_Profiling_queries_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>jami/Voice_Search_Profiling_queries</t>
+    <t>retrieval/multimodal_retreival/relevance/flava_indicbert_100m/embeddings/qdrant_catalogs</t>
   </si>
   <si>
     <t/>
@@ -482,771 +476,771 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
       <c r="A21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
       <c r="A22" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
       <c r="A23" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
       <c r="A24" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
       <c r="A25" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
       <c r="A27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
       <c r="A28" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
       <c r="A29" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
       <c r="A31" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
       <c r="A32" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="61">
   <si>
     <t>job_name</t>
   </si>
@@ -22,22 +22,178 @@
     <t>location</t>
   </si>
   <si>
-    <t>retrieval__multimodal_retreival__relevance__prod_tables__search_query_catalog_pairs_score_v1_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>retrieval/multimodal_retreival/relevance/prod_tables/search_query_catalog_pairs_score_v1</t>
-  </si>
-  <si>
-    <t>retrieval__multimodal_retreival__relevance__flava_indicbert_100m__embeddings__search_query_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>retrieval/multimodal_retreival/relevance/flava_indicbert_100m/embeddings/search_query</t>
-  </si>
-  <si>
-    <t>retrieval__multimodal_retreival__relevance__flava_indicbert_100m__embeddings__qdrant_catalogs_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>retrieval/multimodal_retreival/relevance/flava_indicbert_100m/embeddings/qdrant_catalogs</t>
+    <t>ds_silver_exp.catalog_nqd_data_daily_with_smoothening_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/catalog_nqd_data_daily_with_smoothening</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.catalog_predicted_nqd_predictions_daily_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/catalog_predicted_nqd_predictions_daily</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.catalog_predicted_nqd_v1_predictions_daily_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/catalog_predicted_nqd_v1_predictions_daily</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.clp_pn_scaled_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/clp_pn_scaled</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.content_voice_of_customer_review_table_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/content_voice_of_customer_review_table</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.ds_homepage_kaizen_daily_metric_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/ds_homepage_kaizen_daily_metric</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.ds_homepage_kaizen_orders_views_hp_data_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/ds_homepage_kaizen_orders_views_hp_data</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.ds_notification_sp_pn_cas_signed_anon_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/ds_notification_sp_pn_cas_signed_anon</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.ds_pickup_qc_final_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/ds_pickup_qc_final</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.ds_pickup_qc_metadata_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/ds_pickup_qc_metadata</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.ds_seller_claim_rejection_awb_unmatch_final_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/ds_seller_claim_rejection_awb_unmatch_final</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.ds_seller_claim_rejection_awb_unmatch_final_2_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/ds_seller_claim_rejection_awb_unmatch_final_2</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.ds_seller_claim_rejection_awb_unmatch_metadata_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/ds_seller_claim_rejection_awb_unmatch_metadata</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.ds_seller_claim_rejection_evidence_vs_catalog_final_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/ds_seller_claim_rejection_evidence_vs_catalog_final</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.ds_seller_claim_rejection_evidence_vs_catalog_metadata_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/ds_seller_claim_rejection_evidence_vs_catalog_metadata</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.ds_seller_claim_rejection_tamper_final_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/ds_seller_claim_rejection_tamper_final</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.ds_seller_claim_rejection_tamper_final_2_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/ds_seller_claim_rejection_tamper_final_2</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.ds_seller_claim_rejection_tamper_metadata_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/ds_seller_claim_rejection_tamper_metadata</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.fraud_ai__wpr__business_ruleengineslogging_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/fraud_ai__wpr__business_ruleengineslogging</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.fraud_ai__wpr__business_ruleengineslogging_new_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/fraud_ai__wpr__business_ruleengineslogging_new</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.fraud_ai__wpr_prob_cohortwise_mapping_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/fraud_ai__wpr_prob_cohortwise_mapping</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.nqd_quality_deboosting_factors_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/nqd_quality_deboosting_factors</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.prod_clp_collections_kaizen_re_daily_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/prod_clp_collections_kaizen_re_daily</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.prod_clp_ds_feed_logs_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/prod_clp_ds_feed_logs</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.prod_kaizen_re_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/prod_kaizen_re</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.retention_quality_boosting_factors_search_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/retention_quality_boosting_factors_search</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.review_moderation_metadata_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/review_moderation_metadata</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.supplier_risk_scores_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/supplier_risk_scores</t>
+  </si>
+  <si>
+    <t>ds_silver_exp.user_cc_reco_27DEC_SCH</t>
+  </si>
+  <si>
+    <t>warehouse/ds_silver_exp/user_cc_reco</t>
   </si>
   <si>
     <t/>
@@ -476,771 +632,771 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
-      <c r="A20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
-      <c r="A21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
-      <c r="A23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>8</v>
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
-      <c r="A25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>8</v>
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
-      <c r="A26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
-      <c r="A27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>8</v>
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
-      <c r="A28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>8</v>
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
-      <c r="A29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>8</v>
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
-      <c r="A30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>8</v>
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
       <c r="A31" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
       <c r="A32" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="5">
   <si>
     <t>job_name</t>
   </si>
@@ -22,16 +22,10 @@
     <t>location</t>
   </si>
   <si>
-    <t>ds_silver.search_v1_flavabert_deboosted_dailyfeed_27DEC_SCH</t>
+    <t>ds_silver_exp.search_query_catalog_match_score_27DEC_SCH</t>
   </si>
   <si>
-    <t>warehouse/ds_silver/search_v1_flavabert_deboosted_dailyfeed</t>
-  </si>
-  <si>
-    <t>ds_silver.temp_search_ranker_flavabert_all_features_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver/temp_search_ranker_flavabert_all_features</t>
+    <t>warehouse/ds_silver_exp/search_query_catalog_match_score</t>
   </si>
   <si>
     <t/>
@@ -454,227 +448,227 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="4">
   <si>
     <t>job_name</t>
   </si>
@@ -22,10 +22,7 @@
     <t>location</t>
   </si>
   <si>
-    <t>ds_silver_exp.search_query_catalog_match_score_27DEC_SCH</t>
-  </si>
-  <si>
-    <t>warehouse/ds_silver_exp/search_query_catalog_match_score</t>
+    <t>data-science-meesho-artifact-28DEC</t>
   </si>
   <si>
     <t/>
@@ -443,232 +440,232 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,7 +22,7 @@
     <t>location</t>
   </si>
   <si>
-    <t>data-science-meesho-artifact-28DEC</t>
+    <t>data-science-meesho-artifact-28DEC_SCH</t>
   </si>
   <si>
     <t/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,7 +22,7 @@
     <t>location</t>
   </si>
   <si>
-    <t>data-science-meesho-artifact-28DEC_SCH</t>
+    <t>data-science-meesho-artifact-28DEC_SCH1</t>
   </si>
   <si>
     <t/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,7 +22,7 @@
     <t>location</t>
   </si>
   <si>
-    <t>data-science-meesho-artifact-28DEC_SCH1</t>
+    <t>data-science-meesho-artifact-28DEC_SCH2</t>
   </si>
   <si>
     <t/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="5">
   <si>
     <t>job_name</t>
   </si>
@@ -22,7 +22,10 @@
     <t>location</t>
   </si>
   <si>
-    <t>data-science-meesho-artifact-28DEC_SCH2</t>
+    <t>signapore_job_28DEC_SCH</t>
+  </si>
+  <si>
+    <t>databricks-2516183257845181/2516183257845181</t>
   </si>
   <si>
     <t/>
@@ -424,7 +427,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="89.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="49.86214285714286" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="4" width="101.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -440,232 +443,232 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,10 +22,10 @@
     <t>location</t>
   </si>
   <si>
-    <t>signapore_job_28DEC_SCH</t>
+    <t>oregon_28DEC_SCH</t>
   </si>
   <si>
-    <t>databricks-2516183257845181/2516183257845181</t>
+    <t>oregon-prod/7724067869817411</t>
   </si>
   <si>
     <t/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="4">
   <si>
     <t>job_name</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>oregon_28DEC_SCH</t>
-  </si>
-  <si>
-    <t>oregon-prod/7724067869817411</t>
   </si>
   <si>
     <t/>
@@ -443,232 +440,232 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,7 +22,7 @@
     <t>location</t>
   </si>
   <si>
-    <t>oregon_28DEC_SCH</t>
+    <t>oregon_28DEC_SCH_1</t>
   </si>
   <si>
     <t/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="5">
   <si>
     <t>job_name</t>
   </si>
@@ -22,7 +22,10 @@
     <t>location</t>
   </si>
   <si>
-    <t>oregon_28DEC_SCH_1</t>
+    <t>mercury_search_autocomplete_search_autocomplete_sscat_images_resized</t>
+  </si>
+  <si>
+    <t>delta_lake/MERCURY/search_autocomplete_sscat_images_resized</t>
   </si>
   <si>
     <t/>
@@ -418,13 +421,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="49.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="78.14785714285713" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="4" width="101.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -440,513 +443,785 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
+      <c r="A77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
+      <c r="A78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+      <c r="A79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
+      <c r="A80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+      <c r="A81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
+      <c r="A82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+      <c r="A83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
+      <c r="A85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
+      <c r="A86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
+      <c r="A87" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
+      <c r="A88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
+      <c r="A89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
+      <c r="A90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+      <c r="A91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
+      <c r="A92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+      <c r="A94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
+      <c r="A95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
+      <c r="A96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
+      <c r="A97" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
+      <c r="A98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
+      <c r="A99" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,10 +22,10 @@
     <t>location</t>
   </si>
   <si>
-    <t>mercury_search_autocomplete_search_autocomplete_sscat_images_resized</t>
+    <t>appsflyer_orders_event_metadata_test2</t>
   </si>
   <si>
-    <t>delta_lake/MERCURY/search_autocomplete_sscat_images_resized</t>
+    <t>appsflyer_orders_event_metadata</t>
   </si>
   <si>
     <t/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -25,7 +25,7 @@
     <t>test_job_darpan</t>
   </si>
   <si>
-    <t>fy_clicks_data</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -102,12 +102,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -421,8 +424,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="78.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="101.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="78.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="101.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -437,7 +440,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
